--- a/config_5.11/game_module_config_cjj.xlsx
+++ b/config_5.11/game_module_config_cjj.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="979">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3771,6 +3771,18 @@
     <t>通用转盘皮肤</t>
   </si>
   <si>
+    <t>act_054_byns</t>
+  </si>
+  <si>
+    <t>捕鱼能手</t>
+  </si>
+  <si>
+    <t>Act_054_BYNSManager</t>
+  </si>
+  <si>
+    <t>2021年5月17日 23:59:59</t>
+  </si>
+  <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
 (也许你的活动很简单，最好是统一都有一个活动自己的管理器)，这个脚本应该提供以下接口：
 Init 初始化Lua
@@ -3784,12 +3796,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3820,13 +3832,6 @@
       <color rgb="FF191F25"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3876,17 +3881,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3900,24 +3897,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3931,10 +3941,63 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3954,69 +4017,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -4024,8 +4024,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4094,7 +4099,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4106,13 +4183,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4124,7 +4213,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4136,85 +4249,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4226,55 +4261,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4299,6 +4292,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4353,6 +4355,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4364,15 +4375,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4391,15 +4393,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4408,10 +4401,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4420,139 +4413,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4607,19 +4600,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4634,103 +4624,88 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -5054,14 +5029,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AJ333"/>
+  <dimension ref="A1:AJ334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C272" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C280" sqref="C280"/>
+      <selection pane="bottomRight" activeCell="D338" sqref="D338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5128,7 +5103,7 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="19" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5154,7 +5129,7 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5180,7 +5155,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5206,7 +5181,7 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5" s="22" t="s">
+      <c r="I5" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5232,7 +5207,7 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5258,7 +5233,7 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5284,7 +5259,7 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5310,7 +5285,7 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5336,7 +5311,7 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5362,7 +5337,7 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5388,7 +5363,7 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12" s="22" t="s">
+      <c r="I12" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5414,7 +5389,7 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5440,7 +5415,7 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5466,7 +5441,7 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5492,7 +5467,7 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5518,7 +5493,7 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17" s="22" t="s">
+      <c r="I17" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5544,7 +5519,7 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5570,7 +5545,7 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5596,7 +5571,7 @@
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5622,7 +5597,7 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5648,7 +5623,7 @@
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5674,7 +5649,7 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23" s="22" t="s">
+      <c r="I23" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5700,7 +5675,7 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5726,7 +5701,7 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5752,7 +5727,7 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="I26" s="22" t="s">
+      <c r="I26" s="21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5778,7 +5753,7 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5804,7 +5779,7 @@
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="I28" s="22" t="s">
+      <c r="I28" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5830,7 +5805,7 @@
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5856,7 +5831,7 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="I30" s="22" t="s">
+      <c r="I30" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5882,7 +5857,7 @@
       <c r="G31">
         <v>0</v>
       </c>
-      <c r="I31" s="20" t="s">
+      <c r="I31" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5908,7 +5883,7 @@
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5934,7 +5909,7 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5960,7 +5935,7 @@
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5986,7 +5961,7 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="I35" s="21" t="s">
+      <c r="I35" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6012,7 +5987,7 @@
       <c r="G36">
         <v>0</v>
       </c>
-      <c r="I36" s="20" t="s">
+      <c r="I36" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6038,7 +6013,7 @@
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6064,7 +6039,7 @@
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="I38" s="21" t="s">
+      <c r="I38" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6090,7 +6065,7 @@
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6116,7 +6091,7 @@
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6142,7 +6117,7 @@
       <c r="G41">
         <v>0</v>
       </c>
-      <c r="I41" s="20" t="s">
+      <c r="I41" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6168,7 +6143,7 @@
       <c r="G42">
         <v>0</v>
       </c>
-      <c r="I42" s="20" t="s">
+      <c r="I42" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6194,7 +6169,7 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6220,7 +6195,7 @@
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6246,7 +6221,7 @@
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="I45" s="21" t="s">
+      <c r="I45" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6272,7 +6247,7 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="I46" s="20" t="s">
+      <c r="I46" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6298,7 +6273,7 @@
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="I47" s="21" t="s">
+      <c r="I47" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6324,7 +6299,7 @@
       <c r="G48">
         <v>1</v>
       </c>
-      <c r="I48" s="21" t="s">
+      <c r="I48" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6350,7 +6325,7 @@
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="I49" s="21" t="s">
+      <c r="I49" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6376,7 +6351,7 @@
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="I50" s="21" t="s">
+      <c r="I50" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6402,7 +6377,7 @@
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="I51" s="21" t="s">
+      <c r="I51" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6426,7 +6401,7 @@
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="I52" s="21" t="s">
+      <c r="I52" s="20" t="s">
         <v>164</v>
       </c>
     </row>
@@ -6452,7 +6427,7 @@
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="I53" s="21" t="s">
+      <c r="I53" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6478,7 +6453,7 @@
       <c r="G54">
         <v>0</v>
       </c>
-      <c r="I54" s="21" t="s">
+      <c r="I54" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6504,7 +6479,7 @@
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="I55" s="21" t="s">
+      <c r="I55" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6512,7 +6487,7 @@
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="18" t="s">
         <v>174</v>
       </c>
       <c r="C56" s="16" t="s">
@@ -6530,7 +6505,7 @@
       <c r="G56">
         <v>0</v>
       </c>
-      <c r="I56" s="20" t="s">
+      <c r="I56" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6556,7 +6531,7 @@
       <c r="G57">
         <v>1</v>
       </c>
-      <c r="I57" s="21" t="s">
+      <c r="I57" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6582,7 +6557,7 @@
       <c r="G58">
         <v>0</v>
       </c>
-      <c r="I58" s="21" t="s">
+      <c r="I58" s="20" t="s">
         <v>183</v>
       </c>
     </row>
@@ -6608,7 +6583,7 @@
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="I59" s="21" t="s">
+      <c r="I59" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6634,7 +6609,7 @@
       <c r="G60">
         <v>0</v>
       </c>
-      <c r="I60" s="21" t="s">
+      <c r="I60" s="20" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6660,7 +6635,7 @@
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="I61" s="21" t="s">
+      <c r="I61" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6686,7 +6661,7 @@
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="I62" s="21" t="s">
+      <c r="I62" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6712,7 +6687,7 @@
       <c r="G63">
         <v>0</v>
       </c>
-      <c r="I63" s="20" t="s">
+      <c r="I63" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6738,7 +6713,7 @@
       <c r="G64">
         <v>1</v>
       </c>
-      <c r="I64" s="21" t="s">
+      <c r="I64" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6764,7 +6739,7 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="I65" s="20" t="s">
+      <c r="I65" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6790,7 +6765,7 @@
       <c r="G66">
         <v>1</v>
       </c>
-      <c r="I66" s="21" t="s">
+      <c r="I66" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6816,7 +6791,7 @@
       <c r="G67">
         <v>0</v>
       </c>
-      <c r="I67" s="21" t="s">
+      <c r="I67" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6842,7 +6817,7 @@
       <c r="G68">
         <v>0</v>
       </c>
-      <c r="I68" s="21" t="s">
+      <c r="I68" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6868,7 +6843,7 @@
       <c r="G69">
         <v>1</v>
       </c>
-      <c r="I69" s="21" t="s">
+      <c r="I69" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6894,7 +6869,7 @@
       <c r="G70">
         <v>1</v>
       </c>
-      <c r="I70" s="21" t="s">
+      <c r="I70" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6920,7 +6895,7 @@
       <c r="G71">
         <v>1</v>
       </c>
-      <c r="I71" s="21" t="s">
+      <c r="I71" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6946,7 +6921,7 @@
       <c r="G72">
         <v>1</v>
       </c>
-      <c r="I72" s="21" t="s">
+      <c r="I72" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6972,7 +6947,7 @@
       <c r="G73">
         <v>1</v>
       </c>
-      <c r="I73" s="21" t="s">
+      <c r="I73" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6980,16 +6955,16 @@
       <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="B74" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="C74" s="23" t="s">
+      <c r="C74" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="22" t="s">
         <v>231</v>
       </c>
-      <c r="E74" s="23">
+      <c r="E74" s="22">
         <v>0</v>
       </c>
       <c r="F74" s="2">
@@ -6998,7 +6973,7 @@
       <c r="G74" s="2">
         <v>0</v>
       </c>
-      <c r="I74" s="26" t="s">
+      <c r="I74" s="25" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7024,7 +6999,7 @@
       <c r="G75">
         <v>1</v>
       </c>
-      <c r="I75" s="21" t="s">
+      <c r="I75" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7032,16 +7007,16 @@
       <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="D76" s="24" t="s">
+      <c r="D76" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="E76" s="24">
+      <c r="E76" s="23">
         <v>0</v>
       </c>
       <c r="F76" s="3">
@@ -7050,7 +7025,7 @@
       <c r="G76" s="3">
         <v>1</v>
       </c>
-      <c r="I76" s="27" t="s">
+      <c r="I76" s="26" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7076,7 +7051,7 @@
       <c r="G77">
         <v>0</v>
       </c>
-      <c r="I77" s="20" t="s">
+      <c r="I77" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7102,7 +7077,7 @@
       <c r="G78">
         <v>1</v>
       </c>
-      <c r="I78" s="21" t="s">
+      <c r="I78" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7128,7 +7103,7 @@
       <c r="G79">
         <v>0</v>
       </c>
-      <c r="I79" s="20" t="s">
+      <c r="I79" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7154,7 +7129,7 @@
       <c r="G80">
         <v>0</v>
       </c>
-      <c r="I80" s="20" t="s">
+      <c r="I80" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7180,7 +7155,7 @@
       <c r="G81">
         <v>0</v>
       </c>
-      <c r="I81" s="20" t="s">
+      <c r="I81" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7206,7 +7181,7 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="I82" s="20" t="s">
+      <c r="I82" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7232,7 +7207,7 @@
       <c r="G83">
         <v>0</v>
       </c>
-      <c r="I83" s="20" t="s">
+      <c r="I83" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7258,7 +7233,7 @@
       <c r="G84">
         <v>0</v>
       </c>
-      <c r="I84" s="20" t="s">
+      <c r="I84" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7284,7 +7259,7 @@
       <c r="G85">
         <v>1</v>
       </c>
-      <c r="I85" s="21" t="s">
+      <c r="I85" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7310,7 +7285,7 @@
       <c r="G86">
         <v>1</v>
       </c>
-      <c r="I86" s="21" t="s">
+      <c r="I86" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7336,7 +7311,7 @@
       <c r="G87">
         <v>1</v>
       </c>
-      <c r="I87" s="21" t="s">
+      <c r="I87" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7362,7 +7337,7 @@
       <c r="G88">
         <v>1</v>
       </c>
-      <c r="I88" s="21" t="s">
+      <c r="I88" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7388,7 +7363,7 @@
       <c r="G89">
         <v>0</v>
       </c>
-      <c r="I89" s="21" t="s">
+      <c r="I89" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7414,7 +7389,7 @@
       <c r="G90">
         <v>1</v>
       </c>
-      <c r="I90" s="21" t="s">
+      <c r="I90" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7440,7 +7415,7 @@
       <c r="G91">
         <v>0</v>
       </c>
-      <c r="I91" s="21" t="s">
+      <c r="I91" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7466,7 +7441,7 @@
       <c r="G92">
         <v>1</v>
       </c>
-      <c r="I92" s="21" t="s">
+      <c r="I92" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7492,7 +7467,7 @@
       <c r="G93">
         <v>0</v>
       </c>
-      <c r="I93" s="21" t="s">
+      <c r="I93" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7518,7 +7493,7 @@
       <c r="G94">
         <v>0</v>
       </c>
-      <c r="I94" s="20" t="s">
+      <c r="I94" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7544,7 +7519,7 @@
       <c r="G95">
         <v>0</v>
       </c>
-      <c r="I95" s="20" t="s">
+      <c r="I95" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7570,7 +7545,7 @@
       <c r="G96">
         <v>0</v>
       </c>
-      <c r="I96" s="20" t="s">
+      <c r="I96" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7596,7 +7571,7 @@
       <c r="G97">
         <v>0</v>
       </c>
-      <c r="I97" s="20" t="s">
+      <c r="I97" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7622,7 +7597,7 @@
       <c r="G98">
         <v>0</v>
       </c>
-      <c r="I98" s="20" t="s">
+      <c r="I98" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7648,7 +7623,7 @@
       <c r="G99">
         <v>0</v>
       </c>
-      <c r="I99" s="20" t="s">
+      <c r="I99" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7674,7 +7649,7 @@
       <c r="G100">
         <v>1</v>
       </c>
-      <c r="I100" s="21" t="s">
+      <c r="I100" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7700,7 +7675,7 @@
       <c r="G101">
         <v>0</v>
       </c>
-      <c r="I101" s="21" t="s">
+      <c r="I101" s="20" t="s">
         <v>314</v>
       </c>
     </row>
@@ -7726,7 +7701,7 @@
       <c r="G102">
         <v>0</v>
       </c>
-      <c r="I102" s="20" t="s">
+      <c r="I102" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7752,7 +7727,7 @@
       <c r="G103">
         <v>1</v>
       </c>
-      <c r="I103" s="21" t="s">
+      <c r="I103" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7778,7 +7753,7 @@
       <c r="G104">
         <v>0</v>
       </c>
-      <c r="I104" s="20" t="s">
+      <c r="I104" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7804,7 +7779,7 @@
       <c r="G105">
         <v>0</v>
       </c>
-      <c r="I105" s="21" t="s">
+      <c r="I105" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7830,7 +7805,7 @@
       <c r="G106">
         <v>0</v>
       </c>
-      <c r="I106" s="20" t="s">
+      <c r="I106" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7856,7 +7831,7 @@
       <c r="G107">
         <v>0</v>
       </c>
-      <c r="I107" s="20" t="s">
+      <c r="I107" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7882,7 +7857,7 @@
       <c r="G108">
         <v>0</v>
       </c>
-      <c r="I108" s="20" t="s">
+      <c r="I108" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7908,7 +7883,7 @@
       <c r="G109">
         <v>0</v>
       </c>
-      <c r="I109" s="20" t="s">
+      <c r="I109" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7934,7 +7909,7 @@
       <c r="G110">
         <v>0</v>
       </c>
-      <c r="I110" s="20" t="s">
+      <c r="I110" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7960,7 +7935,7 @@
       <c r="G111">
         <v>0</v>
       </c>
-      <c r="I111" s="20" t="s">
+      <c r="I111" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -7986,7 +7961,7 @@
       <c r="G112">
         <v>0</v>
       </c>
-      <c r="I112" s="20" t="s">
+      <c r="I112" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8012,7 +7987,7 @@
       <c r="G113">
         <v>0</v>
       </c>
-      <c r="I113" s="20" t="s">
+      <c r="I113" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8038,7 +8013,7 @@
       <c r="G114">
         <v>0</v>
       </c>
-      <c r="I114" s="20" t="s">
+      <c r="I114" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8064,7 +8039,7 @@
       <c r="G115">
         <v>0</v>
       </c>
-      <c r="I115" s="20" t="s">
+      <c r="I115" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8090,7 +8065,7 @@
       <c r="G116">
         <v>0</v>
       </c>
-      <c r="I116" s="20" t="s">
+      <c r="I116" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8116,7 +8091,7 @@
       <c r="G117">
         <v>0</v>
       </c>
-      <c r="I117" s="20" t="s">
+      <c r="I117" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8142,24 +8117,24 @@
       <c r="G118">
         <v>0</v>
       </c>
-      <c r="I118" s="20" t="s">
+      <c r="I118" s="19" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A119" s="25">
+      <c r="A119" s="24">
         <v>118</v>
       </c>
-      <c r="B119" s="25" t="s">
+      <c r="B119" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="C119" s="25" t="s">
+      <c r="C119" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="D119" s="25" t="s">
+      <c r="D119" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="E119" s="25">
+      <c r="E119" s="24">
         <v>1</v>
       </c>
       <c r="F119" s="4">
@@ -8168,7 +8143,7 @@
       <c r="G119" s="4">
         <v>1</v>
       </c>
-      <c r="I119" s="28" t="s">
+      <c r="I119" s="27" t="s">
         <v>369</v>
       </c>
     </row>
@@ -8194,7 +8169,7 @@
       <c r="G120">
         <v>0</v>
       </c>
-      <c r="I120" s="20" t="s">
+      <c r="I120" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8220,7 +8195,7 @@
       <c r="G121">
         <v>0</v>
       </c>
-      <c r="I121" s="20" t="s">
+      <c r="I121" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8246,7 +8221,7 @@
       <c r="G122">
         <v>0</v>
       </c>
-      <c r="I122" s="20" t="s">
+      <c r="I122" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8272,7 +8247,7 @@
       <c r="G123">
         <v>0</v>
       </c>
-      <c r="I123" s="20" t="s">
+      <c r="I123" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8298,7 +8273,7 @@
       <c r="G124">
         <v>0</v>
       </c>
-      <c r="I124" s="20" t="s">
+      <c r="I124" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8324,7 +8299,7 @@
       <c r="G125">
         <v>0</v>
       </c>
-      <c r="I125" s="20" t="s">
+      <c r="I125" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8350,7 +8325,7 @@
       <c r="G126">
         <v>1</v>
       </c>
-      <c r="I126" s="21" t="s">
+      <c r="I126" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8376,7 +8351,7 @@
       <c r="G127">
         <v>0</v>
       </c>
-      <c r="I127" s="20" t="s">
+      <c r="I127" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8402,7 +8377,7 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="I128" s="20" t="s">
+      <c r="I128" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8428,7 +8403,7 @@
       <c r="G129">
         <v>0</v>
       </c>
-      <c r="I129" s="20" t="s">
+      <c r="I129" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8454,7 +8429,7 @@
       <c r="G130">
         <v>0</v>
       </c>
-      <c r="I130" s="20" t="s">
+      <c r="I130" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8480,7 +8455,7 @@
       <c r="G131">
         <v>0</v>
       </c>
-      <c r="I131" s="20" t="s">
+      <c r="I131" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8506,7 +8481,7 @@
       <c r="G132">
         <v>0</v>
       </c>
-      <c r="I132" s="20" t="s">
+      <c r="I132" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8532,7 +8507,7 @@
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="I133" s="20" t="s">
+      <c r="I133" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8558,7 +8533,7 @@
       <c r="G134">
         <v>0</v>
       </c>
-      <c r="I134" s="20" t="s">
+      <c r="I134" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8584,7 +8559,7 @@
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="I135" s="20" t="s">
+      <c r="I135" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8610,7 +8585,7 @@
       <c r="G136">
         <v>0</v>
       </c>
-      <c r="I136" s="20" t="s">
+      <c r="I136" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8636,7 +8611,7 @@
       <c r="G137">
         <v>0</v>
       </c>
-      <c r="I137" s="20" t="s">
+      <c r="I137" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8662,7 +8637,7 @@
       <c r="G138">
         <v>0</v>
       </c>
-      <c r="I138" s="20" t="s">
+      <c r="I138" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8688,7 +8663,7 @@
       <c r="G139">
         <v>0</v>
       </c>
-      <c r="I139" s="20" t="s">
+      <c r="I139" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8714,7 +8689,7 @@
       <c r="G140">
         <v>0</v>
       </c>
-      <c r="I140" s="20" t="s">
+      <c r="I140" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8740,7 +8715,7 @@
       <c r="G141">
         <v>0</v>
       </c>
-      <c r="I141" s="20" t="s">
+      <c r="I141" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8766,7 +8741,7 @@
       <c r="G142">
         <v>1</v>
       </c>
-      <c r="I142" s="21" t="s">
+      <c r="I142" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8792,7 +8767,7 @@
       <c r="G143">
         <v>0</v>
       </c>
-      <c r="I143" s="21" t="s">
+      <c r="I143" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8818,7 +8793,7 @@
       <c r="G144">
         <v>1</v>
       </c>
-      <c r="I144" s="21" t="s">
+      <c r="I144" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8829,7 +8804,7 @@
       <c r="B145" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="C145" s="29" t="s">
+      <c r="C145" s="28" t="s">
         <v>446</v>
       </c>
       <c r="D145" s="16" t="s">
@@ -8844,7 +8819,7 @@
       <c r="G145">
         <v>0</v>
       </c>
-      <c r="I145" s="21" t="s">
+      <c r="I145" s="20" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8870,7 +8845,7 @@
       <c r="G146">
         <v>0</v>
       </c>
-      <c r="I146" s="21" t="s">
+      <c r="I146" s="20" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8896,7 +8871,7 @@
       <c r="G147">
         <v>0</v>
       </c>
-      <c r="I147" s="20" t="s">
+      <c r="I147" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8922,7 +8897,7 @@
       <c r="G148">
         <v>0</v>
       </c>
-      <c r="I148" s="20" t="s">
+      <c r="I148" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8948,7 +8923,7 @@
       <c r="G149">
         <v>0</v>
       </c>
-      <c r="I149" s="20" t="s">
+      <c r="I149" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -8974,7 +8949,7 @@
       <c r="G150">
         <v>0</v>
       </c>
-      <c r="I150" s="20" t="s">
+      <c r="I150" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9000,7 +8975,7 @@
       <c r="G151">
         <v>0</v>
       </c>
-      <c r="I151" s="20" t="s">
+      <c r="I151" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9026,7 +9001,7 @@
       <c r="G152">
         <v>0</v>
       </c>
-      <c r="I152" s="20" t="s">
+      <c r="I152" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9052,7 +9027,7 @@
       <c r="G153">
         <v>0</v>
       </c>
-      <c r="I153" s="20" t="s">
+      <c r="I153" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9078,7 +9053,7 @@
       <c r="G154">
         <v>0</v>
       </c>
-      <c r="I154" s="20" t="s">
+      <c r="I154" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9104,7 +9079,7 @@
       <c r="G155">
         <v>0</v>
       </c>
-      <c r="I155" s="20" t="s">
+      <c r="I155" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9130,7 +9105,7 @@
       <c r="G156">
         <v>0</v>
       </c>
-      <c r="I156" s="20" t="s">
+      <c r="I156" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9156,7 +9131,7 @@
       <c r="G157">
         <v>0</v>
       </c>
-      <c r="I157" s="21" t="s">
+      <c r="I157" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9182,7 +9157,7 @@
       <c r="G158">
         <v>0</v>
       </c>
-      <c r="I158" s="20" t="s">
+      <c r="I158" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9208,7 +9183,7 @@
       <c r="G159">
         <v>0</v>
       </c>
-      <c r="I159" s="20" t="s">
+      <c r="I159" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9234,7 +9209,7 @@
       <c r="G160">
         <v>0</v>
       </c>
-      <c r="I160" s="20" t="s">
+      <c r="I160" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9260,7 +9235,7 @@
       <c r="G161">
         <v>0</v>
       </c>
-      <c r="I161" s="20" t="s">
+      <c r="I161" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9286,7 +9261,7 @@
       <c r="G162">
         <v>1</v>
       </c>
-      <c r="I162" s="21" t="s">
+      <c r="I162" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9312,7 +9287,7 @@
       <c r="G163">
         <v>0</v>
       </c>
-      <c r="I163" s="20" t="s">
+      <c r="I163" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9338,7 +9313,7 @@
       <c r="G164">
         <v>1</v>
       </c>
-      <c r="I164" s="21" t="s">
+      <c r="I164" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9364,7 +9339,7 @@
       <c r="G165">
         <v>0</v>
       </c>
-      <c r="I165" s="20" t="s">
+      <c r="I165" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9390,7 +9365,7 @@
       <c r="G166">
         <v>1</v>
       </c>
-      <c r="I166" s="21" t="s">
+      <c r="I166" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9416,7 +9391,7 @@
       <c r="G167">
         <v>0</v>
       </c>
-      <c r="I167" s="20" t="s">
+      <c r="I167" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9442,7 +9417,7 @@
       <c r="G168">
         <v>0</v>
       </c>
-      <c r="I168" s="20" t="s">
+      <c r="I168" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9466,7 +9441,7 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="I169" s="21" t="s">
+      <c r="I169" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9490,7 +9465,7 @@
       <c r="G170">
         <v>1</v>
       </c>
-      <c r="I170" s="21" t="s">
+      <c r="I170" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9514,7 +9489,7 @@
       <c r="G171">
         <v>1</v>
       </c>
-      <c r="I171" s="21" t="s">
+      <c r="I171" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9538,7 +9513,7 @@
       <c r="G172">
         <v>1</v>
       </c>
-      <c r="I172" s="21" t="s">
+      <c r="I172" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9564,7 +9539,7 @@
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="I173" s="20" t="s">
+      <c r="I173" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9588,7 +9563,7 @@
       <c r="G174">
         <v>0</v>
       </c>
-      <c r="I174" s="20" t="s">
+      <c r="I174" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9612,7 +9587,7 @@
       <c r="G175">
         <v>1</v>
       </c>
-      <c r="I175" s="21" t="s">
+      <c r="I175" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9636,7 +9611,7 @@
       <c r="G176">
         <v>0</v>
       </c>
-      <c r="I176" s="20" t="s">
+      <c r="I176" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9662,7 +9637,7 @@
       <c r="G177">
         <v>1</v>
       </c>
-      <c r="I177" s="21" t="s">
+      <c r="I177" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9688,7 +9663,7 @@
       <c r="G178">
         <v>1</v>
       </c>
-      <c r="I178" s="21" t="s">
+      <c r="I178" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -9712,7 +9687,7 @@
       <c r="G179">
         <v>0</v>
       </c>
-      <c r="I179" s="20" t="s">
+      <c r="I179" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9720,14 +9695,14 @@
       <c r="A180" s="15">
         <v>179</v>
       </c>
-      <c r="B180" s="25" t="s">
+      <c r="B180" s="24" t="s">
         <v>542</v>
       </c>
-      <c r="C180" s="25" t="s">
+      <c r="C180" s="24" t="s">
         <v>543</v>
       </c>
-      <c r="D180" s="25"/>
-      <c r="E180" s="25">
+      <c r="D180" s="24"/>
+      <c r="E180" s="24">
         <v>0</v>
       </c>
       <c r="F180" s="4">
@@ -9736,7 +9711,7 @@
       <c r="G180" s="4">
         <v>0</v>
       </c>
-      <c r="I180" s="20" t="s">
+      <c r="I180" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9744,14 +9719,14 @@
       <c r="A181" s="15">
         <v>180</v>
       </c>
-      <c r="B181" s="25" t="s">
+      <c r="B181" s="24" t="s">
         <v>544</v>
       </c>
-      <c r="C181" s="25" t="s">
+      <c r="C181" s="24" t="s">
         <v>545</v>
       </c>
-      <c r="D181" s="25"/>
-      <c r="E181" s="25">
+      <c r="D181" s="24"/>
+      <c r="E181" s="24">
         <v>0</v>
       </c>
       <c r="F181" s="4">
@@ -9760,7 +9735,7 @@
       <c r="G181" s="4">
         <v>0</v>
       </c>
-      <c r="I181" s="20" t="s">
+      <c r="I181" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9768,14 +9743,14 @@
       <c r="A182" s="15">
         <v>181</v>
       </c>
-      <c r="B182" s="25" t="s">
+      <c r="B182" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="C182" s="25" t="s">
+      <c r="C182" s="24" t="s">
         <v>547</v>
       </c>
-      <c r="D182" s="25"/>
-      <c r="E182" s="25">
+      <c r="D182" s="24"/>
+      <c r="E182" s="24">
         <v>0</v>
       </c>
       <c r="F182" s="4">
@@ -9784,7 +9759,7 @@
       <c r="G182" s="4">
         <v>0</v>
       </c>
-      <c r="I182" s="20" t="s">
+      <c r="I182" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9807,7 +9782,7 @@
       <c r="G183">
         <v>0</v>
       </c>
-      <c r="I183" s="20" t="s">
+      <c r="I183" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9830,7 +9805,7 @@
       <c r="G184">
         <v>0</v>
       </c>
-      <c r="I184" s="20" t="s">
+      <c r="I184" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9853,7 +9828,7 @@
       <c r="G185">
         <v>0</v>
       </c>
-      <c r="I185" s="20" t="s">
+      <c r="I185" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9876,7 +9851,7 @@
       <c r="G186">
         <v>0</v>
       </c>
-      <c r="I186" s="20" t="s">
+      <c r="I186" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9899,7 +9874,7 @@
       <c r="G187">
         <v>0</v>
       </c>
-      <c r="I187" s="20" t="s">
+      <c r="I187" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9922,7 +9897,7 @@
       <c r="G188">
         <v>0</v>
       </c>
-      <c r="I188" s="20" t="s">
+      <c r="I188" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9945,7 +9920,7 @@
       <c r="G189">
         <v>0</v>
       </c>
-      <c r="I189" s="20" t="s">
+      <c r="I189" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9968,7 +9943,7 @@
       <c r="G190">
         <v>0</v>
       </c>
-      <c r="I190" s="20" t="s">
+      <c r="I190" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9991,7 +9966,7 @@
       <c r="G191">
         <v>0</v>
       </c>
-      <c r="I191" s="20" t="s">
+      <c r="I191" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10014,7 +9989,7 @@
       <c r="G192">
         <v>0</v>
       </c>
-      <c r="I192" s="20" t="s">
+      <c r="I192" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10037,7 +10012,7 @@
       <c r="G193">
         <v>0</v>
       </c>
-      <c r="I193" s="20" t="s">
+      <c r="I193" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10060,7 +10035,7 @@
       <c r="G194">
         <v>0</v>
       </c>
-      <c r="I194" s="20" t="s">
+      <c r="I194" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10083,7 +10058,7 @@
       <c r="G195">
         <v>0</v>
       </c>
-      <c r="I195" s="20" t="s">
+      <c r="I195" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10106,7 +10081,7 @@
       <c r="G196">
         <v>0</v>
       </c>
-      <c r="I196" s="20" t="s">
+      <c r="I196" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10129,7 +10104,7 @@
       <c r="G197">
         <v>0</v>
       </c>
-      <c r="I197" s="20" t="s">
+      <c r="I197" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10152,7 +10127,7 @@
       <c r="G198">
         <v>0</v>
       </c>
-      <c r="I198" s="20" t="s">
+      <c r="I198" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10175,7 +10150,7 @@
       <c r="G199">
         <v>0</v>
       </c>
-      <c r="I199" s="20" t="s">
+      <c r="I199" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10198,7 +10173,7 @@
       <c r="G200">
         <v>0</v>
       </c>
-      <c r="I200" s="20" t="s">
+      <c r="I200" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10221,7 +10196,7 @@
       <c r="G201">
         <v>0</v>
       </c>
-      <c r="I201" s="20" t="s">
+      <c r="I201" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10244,7 +10219,7 @@
       <c r="G202">
         <v>0</v>
       </c>
-      <c r="I202" s="20" t="s">
+      <c r="I202" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10267,7 +10242,7 @@
       <c r="G203">
         <v>0</v>
       </c>
-      <c r="I203" s="20" t="s">
+      <c r="I203" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10293,7 +10268,7 @@
       <c r="G204">
         <v>1</v>
       </c>
-      <c r="I204" s="21" t="s">
+      <c r="I204" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10319,7 +10294,7 @@
       <c r="G205">
         <v>1</v>
       </c>
-      <c r="I205" s="21" t="s">
+      <c r="I205" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10345,7 +10320,7 @@
       <c r="G206">
         <v>1</v>
       </c>
-      <c r="I206" s="21" t="s">
+      <c r="I206" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10368,7 +10343,7 @@
       <c r="G207">
         <v>0</v>
       </c>
-      <c r="I207" s="20" t="s">
+      <c r="I207" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10391,7 +10366,7 @@
       <c r="G208">
         <v>0</v>
       </c>
-      <c r="I208" s="20" t="s">
+      <c r="I208" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10414,7 +10389,7 @@
       <c r="G209">
         <v>0</v>
       </c>
-      <c r="I209" s="20" t="s">
+      <c r="I209" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10437,7 +10412,7 @@
       <c r="G210">
         <v>0</v>
       </c>
-      <c r="I210" s="20" t="s">
+      <c r="I210" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10460,7 +10435,7 @@
       <c r="G211">
         <v>1</v>
       </c>
-      <c r="I211" s="21" t="s">
+      <c r="I211" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -10483,7 +10458,7 @@
       <c r="G212">
         <v>0</v>
       </c>
-      <c r="I212" s="20" t="s">
+      <c r="I212" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10506,7 +10481,7 @@
       <c r="G213">
         <v>0</v>
       </c>
-      <c r="I213" s="20" t="s">
+      <c r="I213" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10529,7 +10504,7 @@
       <c r="G214">
         <v>0</v>
       </c>
-      <c r="I214" s="20" t="s">
+      <c r="I214" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10552,7 +10527,7 @@
       <c r="G215">
         <v>0</v>
       </c>
-      <c r="I215" s="20" t="s">
+      <c r="I215" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10575,7 +10550,7 @@
       <c r="G216">
         <v>0</v>
       </c>
-      <c r="I216" s="20" t="s">
+      <c r="I216" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10598,7 +10573,7 @@
       <c r="G217">
         <v>0</v>
       </c>
-      <c r="I217" s="20" t="s">
+      <c r="I217" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10621,7 +10596,7 @@
       <c r="G218">
         <v>0</v>
       </c>
-      <c r="I218" s="20" t="s">
+      <c r="I218" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10644,7 +10619,7 @@
       <c r="G219">
         <v>0</v>
       </c>
-      <c r="I219" s="20" t="s">
+      <c r="I219" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10667,7 +10642,7 @@
       <c r="G220">
         <v>0</v>
       </c>
-      <c r="I220" s="20" t="s">
+      <c r="I220" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10690,7 +10665,7 @@
       <c r="G221">
         <v>0</v>
       </c>
-      <c r="I221" s="20" t="s">
+      <c r="I221" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10713,7 +10688,7 @@
       <c r="G222">
         <v>0</v>
       </c>
-      <c r="I222" s="20" t="s">
+      <c r="I222" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10736,7 +10711,7 @@
       <c r="G223">
         <v>0</v>
       </c>
-      <c r="I223" s="20" t="s">
+      <c r="I223" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10759,7 +10734,7 @@
       <c r="G224">
         <v>0</v>
       </c>
-      <c r="I224" s="20" t="s">
+      <c r="I224" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -10782,7 +10757,7 @@
       <c r="G225">
         <v>0</v>
       </c>
-      <c r="I225" s="20" t="s">
+      <c r="I225" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -11465,26 +11440,26 @@
       <c r="A253" s="15">
         <v>252</v>
       </c>
-      <c r="B253" s="30" t="s">
+      <c r="B253" s="29" t="s">
         <v>725</v>
       </c>
-      <c r="C253" s="31" t="s">
+      <c r="C253" s="30" t="s">
         <v>726</v>
       </c>
-      <c r="D253" s="30" t="s">
+      <c r="D253" s="29" t="s">
         <v>727</v>
       </c>
-      <c r="E253" s="31">
-        <v>1</v>
-      </c>
-      <c r="F253" s="31">
-        <v>1</v>
-      </c>
-      <c r="G253" s="31">
-        <v>1</v>
-      </c>
-      <c r="H253" s="31"/>
-      <c r="I253" s="30" t="s">
+      <c r="E253" s="30">
+        <v>1</v>
+      </c>
+      <c r="F253" s="30">
+        <v>1</v>
+      </c>
+      <c r="G253" s="30">
+        <v>1</v>
+      </c>
+      <c r="H253" s="30"/>
+      <c r="I253" s="29" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11544,13 +11519,13 @@
       <c r="A256" s="15">
         <v>255</v>
       </c>
-      <c r="B256" s="32" t="s">
+      <c r="B256" s="31" t="s">
         <v>734</v>
       </c>
-      <c r="C256" s="32" t="s">
+      <c r="C256" s="31" t="s">
         <v>735</v>
       </c>
-      <c r="D256" s="32" t="s">
+      <c r="D256" s="31" t="s">
         <v>736</v>
       </c>
       <c r="E256" s="5">
@@ -11563,7 +11538,7 @@
         <v>1</v>
       </c>
       <c r="H256" s="5"/>
-      <c r="I256" s="32" t="s">
+      <c r="I256" s="31" t="s">
         <v>737</v>
       </c>
     </row>
@@ -11571,13 +11546,13 @@
       <c r="A257" s="15">
         <v>256</v>
       </c>
-      <c r="B257" s="32" t="s">
+      <c r="B257" s="31" t="s">
         <v>738</v>
       </c>
-      <c r="C257" s="32" t="s">
+      <c r="C257" s="31" t="s">
         <v>739</v>
       </c>
-      <c r="D257" s="32" t="s">
+      <c r="D257" s="31" t="s">
         <v>740</v>
       </c>
       <c r="E257" s="5">
@@ -11589,7 +11564,7 @@
       <c r="G257" s="5">
         <v>1</v>
       </c>
-      <c r="I257" s="32" t="s">
+      <c r="I257" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11597,13 +11572,13 @@
       <c r="A258" s="15">
         <v>257</v>
       </c>
-      <c r="B258" s="32" t="s">
+      <c r="B258" s="31" t="s">
         <v>741</v>
       </c>
-      <c r="C258" s="32" t="s">
+      <c r="C258" s="31" t="s">
         <v>742</v>
       </c>
-      <c r="D258" s="32" t="s">
+      <c r="D258" s="31" t="s">
         <v>743</v>
       </c>
       <c r="E258" s="5">
@@ -11615,7 +11590,7 @@
       <c r="G258" s="5">
         <v>1</v>
       </c>
-      <c r="I258" s="32" t="s">
+      <c r="I258" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11623,13 +11598,13 @@
       <c r="A259" s="15">
         <v>258</v>
       </c>
-      <c r="B259" s="32" t="s">
+      <c r="B259" s="31" t="s">
         <v>744</v>
       </c>
-      <c r="C259" s="32" t="s">
+      <c r="C259" s="31" t="s">
         <v>745</v>
       </c>
-      <c r="D259" s="32" t="s">
+      <c r="D259" s="31" t="s">
         <v>746</v>
       </c>
       <c r="E259" s="5">
@@ -11641,7 +11616,7 @@
       <c r="G259" s="5">
         <v>1</v>
       </c>
-      <c r="I259" s="32" t="s">
+      <c r="I259" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11649,13 +11624,13 @@
       <c r="A260" s="15">
         <v>259</v>
       </c>
-      <c r="B260" s="32" t="s">
+      <c r="B260" s="31" t="s">
         <v>747</v>
       </c>
-      <c r="C260" s="32" t="s">
+      <c r="C260" s="31" t="s">
         <v>748</v>
       </c>
-      <c r="D260" s="32" t="s">
+      <c r="D260" s="31" t="s">
         <v>749</v>
       </c>
       <c r="E260" s="5">
@@ -11667,7 +11642,7 @@
       <c r="G260" s="5">
         <v>1</v>
       </c>
-      <c r="I260" s="32" t="s">
+      <c r="I260" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11693,7 +11668,7 @@
       <c r="G261">
         <v>1</v>
       </c>
-      <c r="I261" s="21" t="s">
+      <c r="I261" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11701,13 +11676,13 @@
       <c r="A262" s="15">
         <v>261</v>
       </c>
-      <c r="B262" s="32" t="s">
+      <c r="B262" s="31" t="s">
         <v>753</v>
       </c>
       <c r="C262" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="D262" s="32" t="s">
+      <c r="D262" s="31" t="s">
         <v>755</v>
       </c>
       <c r="E262">
@@ -11719,7 +11694,7 @@
       <c r="G262">
         <v>1</v>
       </c>
-      <c r="I262" s="21" t="s">
+      <c r="I262" s="20" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11727,13 +11702,13 @@
       <c r="A263" s="15">
         <v>262</v>
       </c>
-      <c r="B263" s="32" t="s">
+      <c r="B263" s="31" t="s">
         <v>756</v>
       </c>
-      <c r="C263" s="32" t="s">
+      <c r="C263" s="31" t="s">
         <v>757</v>
       </c>
-      <c r="D263" s="32" t="s">
+      <c r="D263" s="31" t="s">
         <v>758</v>
       </c>
       <c r="E263" s="5">
@@ -11745,7 +11720,7 @@
       <c r="G263" s="5">
         <v>0</v>
       </c>
-      <c r="I263" s="32" t="s">
+      <c r="I263" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11753,13 +11728,13 @@
       <c r="A264" s="15">
         <v>263</v>
       </c>
-      <c r="B264" s="32" t="s">
+      <c r="B264" s="31" t="s">
         <v>759</v>
       </c>
-      <c r="C264" s="32" t="s">
+      <c r="C264" s="31" t="s">
         <v>760</v>
       </c>
-      <c r="D264" s="32" t="s">
+      <c r="D264" s="31" t="s">
         <v>761</v>
       </c>
       <c r="E264" s="5">
@@ -11771,7 +11746,7 @@
       <c r="G264" s="5">
         <v>1</v>
       </c>
-      <c r="I264" s="32" t="s">
+      <c r="I264" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -11779,13 +11754,13 @@
       <c r="A265" s="15">
         <v>264</v>
       </c>
-      <c r="B265" s="32" t="s">
+      <c r="B265" s="31" t="s">
         <v>762</v>
       </c>
-      <c r="C265" s="32" t="s">
+      <c r="C265" s="31" t="s">
         <v>763</v>
       </c>
-      <c r="D265" s="32" t="s">
+      <c r="D265" s="31" t="s">
         <v>764</v>
       </c>
       <c r="E265" s="5">
@@ -11805,13 +11780,13 @@
       <c r="A266" s="15">
         <v>265</v>
       </c>
-      <c r="B266" s="32" t="s">
+      <c r="B266" s="31" t="s">
         <v>765</v>
       </c>
-      <c r="C266" s="32" t="s">
+      <c r="C266" s="31" t="s">
         <v>766</v>
       </c>
-      <c r="D266" s="33" t="s">
+      <c r="D266" s="32" t="s">
         <v>767</v>
       </c>
       <c r="E266" s="5">
@@ -11823,7 +11798,7 @@
       <c r="G266" s="5">
         <v>0</v>
       </c>
-      <c r="I266" s="51" t="s">
+      <c r="I266" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11831,13 +11806,13 @@
       <c r="A267" s="15">
         <v>266</v>
       </c>
-      <c r="B267" s="32" t="s">
+      <c r="B267" s="31" t="s">
         <v>768</v>
       </c>
-      <c r="C267" s="32" t="s">
+      <c r="C267" s="31" t="s">
         <v>769</v>
       </c>
-      <c r="D267" s="33" t="s">
+      <c r="D267" s="32" t="s">
         <v>770</v>
       </c>
       <c r="E267" s="5">
@@ -11849,21 +11824,21 @@
       <c r="G267" s="5">
         <v>0</v>
       </c>
-      <c r="I267" s="51" t="s">
+      <c r="I267" s="31" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A268" s="25">
+      <c r="A268" s="24">
         <v>267</v>
       </c>
-      <c r="B268" s="34" t="s">
+      <c r="B268" s="33" t="s">
         <v>771</v>
       </c>
-      <c r="C268" s="34" t="s">
+      <c r="C268" s="33" t="s">
         <v>772</v>
       </c>
-      <c r="D268" s="35" t="s">
+      <c r="D268" s="34" t="s">
         <v>773</v>
       </c>
       <c r="E268" s="4">
@@ -11875,7 +11850,7 @@
       <c r="G268" s="4">
         <v>1</v>
       </c>
-      <c r="I268" s="52" t="s">
+      <c r="I268" s="33" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11883,13 +11858,13 @@
       <c r="A269" s="15">
         <v>268</v>
       </c>
-      <c r="B269" s="32" t="s">
+      <c r="B269" s="31" t="s">
         <v>774</v>
       </c>
-      <c r="C269" s="32" t="s">
+      <c r="C269" s="31" t="s">
         <v>775</v>
       </c>
-      <c r="D269" s="33" t="s">
+      <c r="D269" s="32" t="s">
         <v>776</v>
       </c>
       <c r="E269" s="5">
@@ -11901,7 +11876,7 @@
       <c r="G269" s="5">
         <v>1</v>
       </c>
-      <c r="I269" s="32" t="s">
+      <c r="I269" s="31" t="s">
         <v>777</v>
       </c>
     </row>
@@ -11909,13 +11884,13 @@
       <c r="A270" s="15">
         <v>269</v>
       </c>
-      <c r="B270" s="32" t="s">
+      <c r="B270" s="31" t="s">
         <v>778</v>
       </c>
-      <c r="C270" s="32" t="s">
+      <c r="C270" s="31" t="s">
         <v>779</v>
       </c>
-      <c r="D270" s="33" t="s">
+      <c r="D270" s="32" t="s">
         <v>780</v>
       </c>
       <c r="E270" s="5">
@@ -11927,7 +11902,7 @@
       <c r="G270" s="5">
         <v>0</v>
       </c>
-      <c r="I270" s="51" t="s">
+      <c r="I270" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11935,13 +11910,13 @@
       <c r="A271" s="15">
         <v>270</v>
       </c>
-      <c r="B271" s="32" t="s">
+      <c r="B271" s="31" t="s">
         <v>781</v>
       </c>
-      <c r="C271" s="32" t="s">
+      <c r="C271" s="31" t="s">
         <v>782</v>
       </c>
-      <c r="D271" s="33" t="s">
+      <c r="D271" s="32" t="s">
         <v>783</v>
       </c>
       <c r="E271" s="5">
@@ -11953,7 +11928,7 @@
       <c r="G271" s="5">
         <v>1</v>
       </c>
-      <c r="I271" s="51" t="s">
+      <c r="I271" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11961,13 +11936,13 @@
       <c r="A272" s="15">
         <v>271</v>
       </c>
-      <c r="B272" s="32" t="s">
+      <c r="B272" s="31" t="s">
         <v>784</v>
       </c>
-      <c r="C272" s="32" t="s">
+      <c r="C272" s="31" t="s">
         <v>785</v>
       </c>
-      <c r="D272" s="33" t="s">
+      <c r="D272" s="32" t="s">
         <v>786</v>
       </c>
       <c r="E272" s="5">
@@ -11979,7 +11954,7 @@
       <c r="G272" s="5">
         <v>1</v>
       </c>
-      <c r="I272" s="51" t="s">
+      <c r="I272" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -11987,13 +11962,13 @@
       <c r="A273" s="15">
         <v>272</v>
       </c>
-      <c r="B273" s="32" t="s">
+      <c r="B273" s="31" t="s">
         <v>787</v>
       </c>
-      <c r="C273" s="32" t="s">
+      <c r="C273" s="31" t="s">
         <v>788</v>
       </c>
-      <c r="D273" s="33" t="s">
+      <c r="D273" s="32" t="s">
         <v>789</v>
       </c>
       <c r="E273" s="5">
@@ -12005,7 +11980,7 @@
       <c r="G273" s="5">
         <v>1</v>
       </c>
-      <c r="I273" s="51" t="s">
+      <c r="I273" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12013,13 +11988,13 @@
       <c r="A274" s="15">
         <v>273</v>
       </c>
-      <c r="B274" s="32" t="s">
+      <c r="B274" s="31" t="s">
         <v>790</v>
       </c>
-      <c r="C274" s="32" t="s">
+      <c r="C274" s="31" t="s">
         <v>791</v>
       </c>
-      <c r="D274" s="33" t="s">
+      <c r="D274" s="32" t="s">
         <v>792</v>
       </c>
       <c r="E274" s="5">
@@ -12031,7 +12006,7 @@
       <c r="G274" s="5">
         <v>0</v>
       </c>
-      <c r="I274" s="51" t="s">
+      <c r="I274" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12039,13 +12014,13 @@
       <c r="A275" s="15">
         <v>274</v>
       </c>
-      <c r="B275" s="32" t="s">
+      <c r="B275" s="31" t="s">
         <v>793</v>
       </c>
-      <c r="C275" s="32" t="s">
+      <c r="C275" s="31" t="s">
         <v>794</v>
       </c>
-      <c r="D275" s="33" t="s">
+      <c r="D275" s="32" t="s">
         <v>795</v>
       </c>
       <c r="E275" s="5">
@@ -12057,18 +12032,18 @@
       <c r="G275" s="5">
         <v>0</v>
       </c>
-      <c r="I275" s="32" t="s">
+      <c r="I275" s="31" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A276" s="36">
+      <c r="A276" s="35">
         <v>275</v>
       </c>
-      <c r="B276" s="37" t="s">
+      <c r="B276" s="36" t="s">
         <v>797</v>
       </c>
-      <c r="C276" s="37" t="s">
+      <c r="C276" s="36" t="s">
         <v>798</v>
       </c>
       <c r="E276" s="6">
@@ -12080,7 +12055,7 @@
       <c r="G276" s="6">
         <v>1</v>
       </c>
-      <c r="I276" s="37" t="s">
+      <c r="I276" s="36" t="s">
         <v>799</v>
       </c>
     </row>
@@ -12088,13 +12063,13 @@
       <c r="A277" s="15">
         <v>276</v>
       </c>
-      <c r="B277" s="32" t="s">
+      <c r="B277" s="31" t="s">
         <v>800</v>
       </c>
-      <c r="C277" s="32" t="s">
+      <c r="C277" s="31" t="s">
         <v>801</v>
       </c>
-      <c r="D277" s="33" t="s">
+      <c r="D277" s="32" t="s">
         <v>802</v>
       </c>
       <c r="E277" s="5">
@@ -12106,7 +12081,7 @@
       <c r="G277" s="5">
         <v>0</v>
       </c>
-      <c r="I277" s="51" t="s">
+      <c r="I277" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12114,13 +12089,13 @@
       <c r="A278" s="15">
         <v>277</v>
       </c>
-      <c r="B278" s="32" t="s">
+      <c r="B278" s="31" t="s">
         <v>803</v>
       </c>
-      <c r="C278" s="32" t="s">
+      <c r="C278" s="31" t="s">
         <v>804</v>
       </c>
-      <c r="D278" s="33" t="s">
+      <c r="D278" s="32" t="s">
         <v>805</v>
       </c>
       <c r="E278">
@@ -12132,7 +12107,7 @@
       <c r="G278">
         <v>0</v>
       </c>
-      <c r="I278" s="51" t="s">
+      <c r="I278" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12140,10 +12115,10 @@
       <c r="A279" s="15">
         <v>278</v>
       </c>
-      <c r="B279" s="32" t="s">
+      <c r="B279" s="31" t="s">
         <v>806</v>
       </c>
-      <c r="C279" s="32" t="s">
+      <c r="C279" s="31" t="s">
         <v>807</v>
       </c>
       <c r="E279">
@@ -12155,7 +12130,7 @@
       <c r="G279">
         <v>0</v>
       </c>
-      <c r="I279" s="51" t="s">
+      <c r="I279" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12163,13 +12138,13 @@
       <c r="A280" s="15">
         <v>279</v>
       </c>
-      <c r="B280" s="32" t="s">
+      <c r="B280" s="31" t="s">
         <v>808</v>
       </c>
-      <c r="C280" s="32" t="s">
+      <c r="C280" s="31" t="s">
         <v>809</v>
       </c>
-      <c r="D280" s="33" t="s">
+      <c r="D280" s="32" t="s">
         <v>810</v>
       </c>
       <c r="E280">
@@ -12181,7 +12156,7 @@
       <c r="G280">
         <v>0</v>
       </c>
-      <c r="I280" s="51" t="s">
+      <c r="I280" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12189,13 +12164,13 @@
       <c r="A281" s="15">
         <v>280</v>
       </c>
-      <c r="B281" s="32" t="s">
+      <c r="B281" s="31" t="s">
         <v>811</v>
       </c>
-      <c r="C281" s="32" t="s">
+      <c r="C281" s="31" t="s">
         <v>812</v>
       </c>
-      <c r="D281" s="33" t="s">
+      <c r="D281" s="32" t="s">
         <v>813</v>
       </c>
       <c r="E281">
@@ -12207,7 +12182,7 @@
       <c r="G281">
         <v>0</v>
       </c>
-      <c r="I281" s="51" t="s">
+      <c r="I281" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12215,13 +12190,13 @@
       <c r="A282" s="15">
         <v>281</v>
       </c>
-      <c r="B282" s="32" t="s">
+      <c r="B282" s="31" t="s">
         <v>814</v>
       </c>
-      <c r="C282" s="32" t="s">
+      <c r="C282" s="31" t="s">
         <v>815</v>
       </c>
-      <c r="D282" s="33" t="s">
+      <c r="D282" s="32" t="s">
         <v>816</v>
       </c>
       <c r="E282">
@@ -12233,7 +12208,7 @@
       <c r="G282">
         <v>0</v>
       </c>
-      <c r="I282" s="51" t="s">
+      <c r="I282" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12241,13 +12216,13 @@
       <c r="A283" s="15">
         <v>282</v>
       </c>
-      <c r="B283" s="38" t="s">
+      <c r="B283" s="37" t="s">
         <v>817</v>
       </c>
-      <c r="C283" s="32" t="s">
+      <c r="C283" s="31" t="s">
         <v>818</v>
       </c>
-      <c r="D283" s="33" t="s">
+      <c r="D283" s="32" t="s">
         <v>819</v>
       </c>
       <c r="E283">
@@ -12259,7 +12234,7 @@
       <c r="G283">
         <v>1</v>
       </c>
-      <c r="I283" s="51" t="s">
+      <c r="I283" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12267,13 +12242,13 @@
       <c r="A284" s="15">
         <v>283</v>
       </c>
-      <c r="B284" s="39" t="s">
+      <c r="B284" s="38" t="s">
         <v>820</v>
       </c>
       <c r="C284" s="7" t="s">
         <v>821</v>
       </c>
-      <c r="D284" s="39" t="s">
+      <c r="D284" s="38" t="s">
         <v>822</v>
       </c>
       <c r="E284" s="7">
@@ -12299,7 +12274,7 @@
       <c r="C285" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="D285" s="39" t="s">
+      <c r="D285" s="38" t="s">
         <v>825</v>
       </c>
       <c r="E285" s="7">
@@ -12325,7 +12300,7 @@
       <c r="C286" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="D286" s="39" t="s">
+      <c r="D286" s="38" t="s">
         <v>828</v>
       </c>
       <c r="E286" s="7">
@@ -12351,7 +12326,7 @@
       <c r="C287" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="D287" s="40" t="s">
+      <c r="D287" s="39" t="s">
         <v>831</v>
       </c>
       <c r="E287" s="8">
@@ -12368,16 +12343,16 @@
       </c>
     </row>
     <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
-      <c r="A288" s="36">
+      <c r="A288" s="35">
         <v>287</v>
       </c>
-      <c r="B288" s="37" t="s">
+      <c r="B288" s="36" t="s">
         <v>832</v>
       </c>
-      <c r="C288" s="37" t="s">
+      <c r="C288" s="36" t="s">
         <v>833</v>
       </c>
-      <c r="D288" s="37" t="s">
+      <c r="D288" s="36" t="s">
         <v>834</v>
       </c>
       <c r="E288" s="6">
@@ -12389,7 +12364,7 @@
       <c r="G288" s="6">
         <v>1</v>
       </c>
-      <c r="I288" s="37" t="s">
+      <c r="I288" s="36" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12397,13 +12372,13 @@
       <c r="A289" s="15">
         <v>288</v>
       </c>
-      <c r="B289" s="32" t="s">
+      <c r="B289" s="31" t="s">
         <v>835</v>
       </c>
-      <c r="C289" s="32" t="s">
+      <c r="C289" s="31" t="s">
         <v>836</v>
       </c>
-      <c r="D289" s="33" t="s">
+      <c r="D289" s="32" t="s">
         <v>837</v>
       </c>
       <c r="E289">
@@ -12415,7 +12390,7 @@
       <c r="G289">
         <v>0</v>
       </c>
-      <c r="I289" s="51" t="s">
+      <c r="I289" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12475,13 +12450,13 @@
       <c r="A292" s="15">
         <v>291</v>
       </c>
-      <c r="B292" s="38" t="s">
+      <c r="B292" s="37" t="s">
         <v>844</v>
       </c>
-      <c r="C292" s="32" t="s">
+      <c r="C292" s="31" t="s">
         <v>845</v>
       </c>
-      <c r="D292" s="38" t="s">
+      <c r="D292" s="37" t="s">
         <v>846</v>
       </c>
       <c r="E292">
@@ -12493,7 +12468,7 @@
       <c r="G292">
         <v>1</v>
       </c>
-      <c r="I292" s="51" t="s">
+      <c r="I292" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12501,13 +12476,13 @@
       <c r="A293" s="15">
         <v>292</v>
       </c>
-      <c r="B293" s="38" t="s">
+      <c r="B293" s="37" t="s">
         <v>847</v>
       </c>
-      <c r="C293" s="32" t="s">
+      <c r="C293" s="31" t="s">
         <v>848</v>
       </c>
-      <c r="D293" s="38" t="s">
+      <c r="D293" s="37" t="s">
         <v>849</v>
       </c>
       <c r="E293">
@@ -12519,7 +12494,7 @@
       <c r="G293">
         <v>1</v>
       </c>
-      <c r="I293" s="51" t="s">
+      <c r="I293" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12527,13 +12502,13 @@
       <c r="A294" s="15">
         <v>293</v>
       </c>
-      <c r="B294" s="33" t="s">
+      <c r="B294" s="32" t="s">
         <v>850</v>
       </c>
-      <c r="C294" s="32" t="s">
+      <c r="C294" s="31" t="s">
         <v>851</v>
       </c>
-      <c r="D294" s="33" t="s">
+      <c r="D294" s="32" t="s">
         <v>852</v>
       </c>
       <c r="E294" s="5">
@@ -12546,7 +12521,7 @@
         <v>0</v>
       </c>
       <c r="H294" s="5"/>
-      <c r="I294" s="51" t="s">
+      <c r="I294" s="31" t="s">
         <v>721</v>
       </c>
     </row>
@@ -12554,13 +12529,13 @@
       <c r="A295" s="15">
         <v>294</v>
       </c>
-      <c r="B295" s="33" t="s">
+      <c r="B295" s="32" t="s">
         <v>853</v>
       </c>
-      <c r="C295" s="32" t="s">
+      <c r="C295" s="31" t="s">
         <v>854</v>
       </c>
-      <c r="D295" s="33" t="s">
+      <c r="D295" s="32" t="s">
         <v>855</v>
       </c>
       <c r="E295" s="5">
@@ -12573,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="H295" s="5"/>
-      <c r="I295" s="51" t="s">
+      <c r="I295" s="31" t="s">
         <v>856</v>
       </c>
       <c r="J295" s="5"/>
@@ -12608,13 +12583,13 @@
       <c r="A296" s="15">
         <v>295</v>
       </c>
-      <c r="B296" s="33" t="s">
+      <c r="B296" s="32" t="s">
         <v>857</v>
       </c>
-      <c r="C296" s="32" t="s">
+      <c r="C296" s="31" t="s">
         <v>858</v>
       </c>
-      <c r="D296" s="33" t="s">
+      <c r="D296" s="32" t="s">
         <v>859</v>
       </c>
       <c r="E296" s="5">
@@ -12627,7 +12602,7 @@
         <v>0</v>
       </c>
       <c r="H296" s="5"/>
-      <c r="I296" s="51" t="s">
+      <c r="I296" s="31" t="s">
         <v>856</v>
       </c>
       <c r="J296" s="5"/>
@@ -12662,13 +12637,13 @@
       <c r="A297" s="15">
         <v>296</v>
       </c>
-      <c r="B297" s="33" t="s">
+      <c r="B297" s="32" t="s">
         <v>860</v>
       </c>
-      <c r="C297" s="32" t="s">
+      <c r="C297" s="31" t="s">
         <v>861</v>
       </c>
-      <c r="D297" s="33" t="s">
+      <c r="D297" s="32" t="s">
         <v>862</v>
       </c>
       <c r="E297" s="5">
@@ -12681,7 +12656,7 @@
         <v>0</v>
       </c>
       <c r="H297" s="5"/>
-      <c r="I297" s="51" t="s">
+      <c r="I297" s="31" t="s">
         <v>856</v>
       </c>
       <c r="J297" s="5"/>
@@ -12716,13 +12691,13 @@
       <c r="A298" s="15">
         <v>297</v>
       </c>
-      <c r="B298" s="41" t="s">
+      <c r="B298" s="40" t="s">
         <v>863</v>
       </c>
-      <c r="C298" s="42" t="s">
+      <c r="C298" s="41" t="s">
         <v>864</v>
       </c>
-      <c r="D298" s="41" t="s">
+      <c r="D298" s="40" t="s">
         <v>865</v>
       </c>
       <c r="E298" s="9">
@@ -12735,7 +12710,7 @@
         <v>1</v>
       </c>
       <c r="H298" s="9"/>
-      <c r="I298" s="53" t="s">
+      <c r="I298" s="41" t="s">
         <v>12</v>
       </c>
       <c r="J298" s="5"/>
@@ -12770,26 +12745,26 @@
       <c r="A299" s="15">
         <v>298</v>
       </c>
-      <c r="B299" s="43" t="s">
+      <c r="B299" s="42" t="s">
         <v>866</v>
       </c>
-      <c r="C299" s="44" t="s">
+      <c r="C299" s="43" t="s">
         <v>867</v>
       </c>
-      <c r="D299" s="43" t="s">
+      <c r="D299" s="42" t="s">
         <v>868</v>
       </c>
-      <c r="E299" s="45">
-        <v>1</v>
-      </c>
-      <c r="F299" s="45">
-        <v>1</v>
-      </c>
-      <c r="G299" s="45">
-        <v>1</v>
-      </c>
-      <c r="H299" s="45"/>
-      <c r="I299" s="44" t="s">
+      <c r="E299" s="44">
+        <v>1</v>
+      </c>
+      <c r="F299" s="44">
+        <v>1</v>
+      </c>
+      <c r="G299" s="44">
+        <v>1</v>
+      </c>
+      <c r="H299" s="44"/>
+      <c r="I299" s="43" t="s">
         <v>869</v>
       </c>
       <c r="J299" s="5"/>
@@ -12824,26 +12799,26 @@
       <c r="A300" s="15">
         <v>299</v>
       </c>
-      <c r="B300" s="43" t="s">
+      <c r="B300" s="42" t="s">
         <v>870</v>
       </c>
-      <c r="C300" s="44" t="s">
+      <c r="C300" s="43" t="s">
         <v>871</v>
       </c>
-      <c r="D300" s="43" t="s">
+      <c r="D300" s="42" t="s">
         <v>872</v>
       </c>
-      <c r="E300" s="45">
-        <v>1</v>
-      </c>
-      <c r="F300" s="45">
-        <v>1</v>
-      </c>
-      <c r="G300" s="45">
-        <v>1</v>
-      </c>
-      <c r="H300" s="45"/>
-      <c r="I300" s="44" t="s">
+      <c r="E300" s="44">
+        <v>1</v>
+      </c>
+      <c r="F300" s="44">
+        <v>1</v>
+      </c>
+      <c r="G300" s="44">
+        <v>1</v>
+      </c>
+      <c r="H300" s="44"/>
+      <c r="I300" s="43" t="s">
         <v>869</v>
       </c>
     </row>
@@ -12851,26 +12826,26 @@
       <c r="A301" s="15">
         <v>300</v>
       </c>
-      <c r="B301" s="43" t="s">
+      <c r="B301" s="42" t="s">
         <v>873</v>
       </c>
-      <c r="C301" s="43" t="s">
+      <c r="C301" s="42" t="s">
         <v>874</v>
       </c>
-      <c r="D301" s="43" t="s">
+      <c r="D301" s="42" t="s">
         <v>875</v>
       </c>
-      <c r="E301" s="45">
-        <v>1</v>
-      </c>
-      <c r="F301" s="45">
-        <v>1</v>
-      </c>
-      <c r="G301" s="45">
-        <v>1</v>
-      </c>
-      <c r="H301" s="45"/>
-      <c r="I301" s="54" t="s">
+      <c r="E301" s="44">
+        <v>1</v>
+      </c>
+      <c r="F301" s="44">
+        <v>1</v>
+      </c>
+      <c r="G301" s="44">
+        <v>1</v>
+      </c>
+      <c r="H301" s="44"/>
+      <c r="I301" s="43" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12897,7 +12872,7 @@
         <v>1</v>
       </c>
       <c r="H302" s="5"/>
-      <c r="I302" s="51" t="s">
+      <c r="I302" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12905,13 +12880,13 @@
       <c r="A303" s="15">
         <v>302</v>
       </c>
-      <c r="B303" s="33" t="s">
+      <c r="B303" s="32" t="s">
         <v>879</v>
       </c>
-      <c r="C303" s="32" t="s">
+      <c r="C303" s="31" t="s">
         <v>880</v>
       </c>
-      <c r="D303" s="33" t="s">
+      <c r="D303" s="32" t="s">
         <v>881</v>
       </c>
       <c r="E303" s="5">
@@ -12924,7 +12899,7 @@
         <v>1</v>
       </c>
       <c r="H303" s="5"/>
-      <c r="I303" s="32" t="s">
+      <c r="I303" s="31" t="s">
         <v>882</v>
       </c>
     </row>
@@ -12932,13 +12907,13 @@
       <c r="A304" s="15">
         <v>303</v>
       </c>
-      <c r="B304" s="41" t="s">
+      <c r="B304" s="40" t="s">
         <v>883</v>
       </c>
-      <c r="C304" s="42" t="s">
+      <c r="C304" s="41" t="s">
         <v>884</v>
       </c>
-      <c r="D304" s="41" t="s">
+      <c r="D304" s="40" t="s">
         <v>885</v>
       </c>
       <c r="E304" s="9">
@@ -12951,7 +12926,7 @@
         <v>1</v>
       </c>
       <c r="H304" s="9"/>
-      <c r="I304" s="42" t="s">
+      <c r="I304" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12959,13 +12934,13 @@
       <c r="A305" s="15">
         <v>304</v>
       </c>
-      <c r="B305" s="33" t="s">
+      <c r="B305" s="32" t="s">
         <v>886</v>
       </c>
-      <c r="C305" s="32" t="s">
+      <c r="C305" s="31" t="s">
         <v>887</v>
       </c>
-      <c r="D305" s="33" t="s">
+      <c r="D305" s="32" t="s">
         <v>888</v>
       </c>
       <c r="E305" s="5">
@@ -12977,7 +12952,7 @@
       <c r="G305" s="5">
         <v>1</v>
       </c>
-      <c r="I305" s="32" t="s">
+      <c r="I305" s="31" t="s">
         <v>869</v>
       </c>
     </row>
@@ -12985,13 +12960,13 @@
       <c r="A306" s="15">
         <v>305</v>
       </c>
-      <c r="B306" s="33" t="s">
+      <c r="B306" s="32" t="s">
         <v>889</v>
       </c>
-      <c r="C306" s="32" t="s">
+      <c r="C306" s="31" t="s">
         <v>890</v>
       </c>
-      <c r="D306" s="33" t="s">
+      <c r="D306" s="32" t="s">
         <v>891</v>
       </c>
       <c r="E306" s="5">
@@ -13003,7 +12978,7 @@
       <c r="G306" s="5">
         <v>0</v>
       </c>
-      <c r="I306" s="32" t="s">
+      <c r="I306" s="31" t="s">
         <v>869</v>
       </c>
     </row>
@@ -13011,13 +12986,13 @@
       <c r="A307" s="15">
         <v>306</v>
       </c>
-      <c r="B307" s="33" t="s">
+      <c r="B307" s="32" t="s">
         <v>892</v>
       </c>
-      <c r="C307" s="32" t="s">
+      <c r="C307" s="31" t="s">
         <v>893</v>
       </c>
-      <c r="D307" s="33" t="s">
+      <c r="D307" s="32" t="s">
         <v>894</v>
       </c>
       <c r="E307" s="5">
@@ -13034,13 +13009,13 @@
       <c r="A308" s="15">
         <v>307</v>
       </c>
-      <c r="B308" s="46" t="s">
+      <c r="B308" s="45" t="s">
         <v>895</v>
       </c>
-      <c r="C308" s="32" t="s">
+      <c r="C308" s="31" t="s">
         <v>896</v>
       </c>
-      <c r="D308" s="33" t="s">
+      <c r="D308" s="32" t="s">
         <v>897</v>
       </c>
       <c r="E308" s="5">
@@ -13052,7 +13027,7 @@
       <c r="G308" s="5">
         <v>0</v>
       </c>
-      <c r="I308" s="32" t="s">
+      <c r="I308" s="31" t="s">
         <v>898</v>
       </c>
     </row>
@@ -13060,13 +13035,13 @@
       <c r="A309" s="15">
         <v>308</v>
       </c>
-      <c r="B309" s="46" t="s">
+      <c r="B309" s="45" t="s">
         <v>899</v>
       </c>
-      <c r="C309" s="32" t="s">
+      <c r="C309" s="31" t="s">
         <v>900</v>
       </c>
-      <c r="D309" s="46" t="s">
+      <c r="D309" s="45" t="s">
         <v>901</v>
       </c>
       <c r="E309" s="5">
@@ -13078,7 +13053,7 @@
       <c r="G309" s="5">
         <v>1</v>
       </c>
-      <c r="I309" s="51" t="s">
+      <c r="I309" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13086,13 +13061,13 @@
       <c r="A310" s="15">
         <v>309</v>
       </c>
-      <c r="B310" s="33" t="s">
+      <c r="B310" s="32" t="s">
         <v>902</v>
       </c>
-      <c r="C310" s="32" t="s">
+      <c r="C310" s="31" t="s">
         <v>903</v>
       </c>
-      <c r="D310" s="33" t="s">
+      <c r="D310" s="32" t="s">
         <v>904</v>
       </c>
       <c r="E310" s="5">
@@ -13104,7 +13079,7 @@
       <c r="G310" s="5">
         <v>0</v>
       </c>
-      <c r="I310" s="51" t="s">
+      <c r="I310" s="31" t="s">
         <v>905</v>
       </c>
     </row>
@@ -13112,13 +13087,13 @@
       <c r="A311" s="15">
         <v>310</v>
       </c>
-      <c r="B311" s="46" t="s">
+      <c r="B311" s="45" t="s">
         <v>906</v>
       </c>
-      <c r="C311" s="32" t="s">
+      <c r="C311" s="31" t="s">
         <v>907</v>
       </c>
-      <c r="D311" s="46" t="s">
+      <c r="D311" s="45" t="s">
         <v>908</v>
       </c>
       <c r="E311" s="5">
@@ -13130,7 +13105,7 @@
       <c r="G311" s="5">
         <v>0</v>
       </c>
-      <c r="I311" s="32" t="s">
+      <c r="I311" s="31" t="s">
         <v>909</v>
       </c>
     </row>
@@ -13138,10 +13113,10 @@
       <c r="A312" s="15">
         <v>311</v>
       </c>
-      <c r="B312" s="47" t="s">
+      <c r="B312" s="46" t="s">
         <v>910</v>
       </c>
-      <c r="C312" s="37" t="s">
+      <c r="C312" s="36" t="s">
         <v>911</v>
       </c>
       <c r="E312" s="6">
@@ -13153,7 +13128,7 @@
       <c r="G312" s="6">
         <v>1</v>
       </c>
-      <c r="I312" s="37" t="s">
+      <c r="I312" s="36" t="s">
         <v>912</v>
       </c>
     </row>
@@ -13161,10 +13136,10 @@
       <c r="A313" s="15">
         <v>312</v>
       </c>
-      <c r="B313" s="47" t="s">
+      <c r="B313" s="46" t="s">
         <v>913</v>
       </c>
-      <c r="C313" s="37" t="s">
+      <c r="C313" s="36" t="s">
         <v>914</v>
       </c>
       <c r="E313" s="6">
@@ -13176,7 +13151,7 @@
       <c r="G313" s="6">
         <v>1</v>
       </c>
-      <c r="I313" s="37" t="s">
+      <c r="I313" s="36" t="s">
         <v>912</v>
       </c>
     </row>
@@ -13184,10 +13159,10 @@
       <c r="A314" s="15">
         <v>313</v>
       </c>
-      <c r="B314" s="47" t="s">
+      <c r="B314" s="46" t="s">
         <v>915</v>
       </c>
-      <c r="C314" s="37" t="s">
+      <c r="C314" s="36" t="s">
         <v>916</v>
       </c>
       <c r="E314" s="6">
@@ -13199,7 +13174,7 @@
       <c r="G314" s="6">
         <v>1</v>
       </c>
-      <c r="I314" s="37" t="s">
+      <c r="I314" s="36" t="s">
         <v>912</v>
       </c>
     </row>
@@ -13207,10 +13182,10 @@
       <c r="A315" s="15">
         <v>314</v>
       </c>
-      <c r="B315" s="48" t="s">
+      <c r="B315" s="47" t="s">
         <v>917</v>
       </c>
-      <c r="C315" s="37" t="s">
+      <c r="C315" s="36" t="s">
         <v>918</v>
       </c>
       <c r="E315" s="6">
@@ -13222,7 +13197,7 @@
       <c r="G315" s="6">
         <v>1</v>
       </c>
-      <c r="I315" s="55" t="s">
+      <c r="I315" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13230,10 +13205,10 @@
       <c r="A316" s="15">
         <v>315</v>
       </c>
-      <c r="B316" s="49" t="s">
+      <c r="B316" s="48" t="s">
         <v>919</v>
       </c>
-      <c r="C316" s="37" t="s">
+      <c r="C316" s="36" t="s">
         <v>920</v>
       </c>
       <c r="E316" s="6">
@@ -13245,7 +13220,7 @@
       <c r="G316" s="6">
         <v>1</v>
       </c>
-      <c r="I316" s="55" t="s">
+      <c r="I316" s="36" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13253,13 +13228,13 @@
       <c r="A317" s="15">
         <v>316</v>
       </c>
-      <c r="B317" s="47" t="s">
+      <c r="B317" s="46" t="s">
         <v>921</v>
       </c>
-      <c r="C317" s="37" t="s">
+      <c r="C317" s="36" t="s">
         <v>922</v>
       </c>
-      <c r="D317" s="47" t="s">
+      <c r="D317" s="46" t="s">
         <v>923</v>
       </c>
       <c r="E317" s="6">
@@ -13271,7 +13246,7 @@
       <c r="G317" s="6">
         <v>1</v>
       </c>
-      <c r="I317" s="37" t="s">
+      <c r="I317" s="36" t="s">
         <v>796</v>
       </c>
     </row>
@@ -13279,13 +13254,13 @@
       <c r="A318" s="15">
         <v>317</v>
       </c>
-      <c r="B318" s="50" t="s">
+      <c r="B318" s="49" t="s">
         <v>924</v>
       </c>
-      <c r="C318" s="32" t="s">
+      <c r="C318" s="31" t="s">
         <v>925</v>
       </c>
-      <c r="D318" s="33"/>
+      <c r="D318" s="32"/>
       <c r="E318" s="5">
         <v>0</v>
       </c>
@@ -13295,7 +13270,7 @@
       <c r="G318" s="5">
         <v>0</v>
       </c>
-      <c r="I318" s="32" t="s">
+      <c r="I318" s="31" t="s">
         <v>796</v>
       </c>
     </row>
@@ -13303,13 +13278,13 @@
       <c r="A319" s="15">
         <v>318</v>
       </c>
-      <c r="B319" s="33" t="s">
+      <c r="B319" s="32" t="s">
         <v>926</v>
       </c>
-      <c r="C319" s="32" t="s">
+      <c r="C319" s="31" t="s">
         <v>927</v>
       </c>
-      <c r="D319" s="33" t="s">
+      <c r="D319" s="32" t="s">
         <v>928</v>
       </c>
       <c r="E319" s="5">
@@ -13321,7 +13296,7 @@
       <c r="G319" s="5">
         <v>0</v>
       </c>
-      <c r="I319" s="32" t="s">
+      <c r="I319" s="31" t="s">
         <v>929</v>
       </c>
     </row>
@@ -13329,10 +13304,10 @@
       <c r="A320" s="15">
         <v>319</v>
       </c>
-      <c r="B320" s="33" t="s">
+      <c r="B320" s="32" t="s">
         <v>930</v>
       </c>
-      <c r="C320" s="32" t="s">
+      <c r="C320" s="31" t="s">
         <v>931</v>
       </c>
       <c r="E320" s="5">
@@ -13344,7 +13319,7 @@
       <c r="G320" s="5">
         <v>0</v>
       </c>
-      <c r="I320" s="32" t="s">
+      <c r="I320" s="31" t="s">
         <v>929</v>
       </c>
     </row>
@@ -13352,13 +13327,13 @@
       <c r="A321" s="15">
         <v>320</v>
       </c>
-      <c r="B321" s="33" t="s">
+      <c r="B321" s="32" t="s">
         <v>932</v>
       </c>
-      <c r="C321" s="56" t="s">
+      <c r="C321" s="50" t="s">
         <v>933</v>
       </c>
-      <c r="D321" s="33" t="s">
+      <c r="D321" s="32" t="s">
         <v>934</v>
       </c>
       <c r="E321" s="5">
@@ -13373,7 +13348,7 @@
       <c r="H321" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="I321" s="32" t="s">
+      <c r="I321" s="31" t="s">
         <v>929</v>
       </c>
     </row>
@@ -13381,13 +13356,13 @@
       <c r="A322" s="15">
         <v>321</v>
       </c>
-      <c r="B322" s="33" t="s">
+      <c r="B322" s="32" t="s">
         <v>936</v>
       </c>
-      <c r="C322" s="51" t="s">
+      <c r="C322" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="D322" s="33" t="s">
+      <c r="D322" s="32" t="s">
         <v>937</v>
       </c>
       <c r="E322" s="5">
@@ -13399,7 +13374,7 @@
       <c r="G322" s="5">
         <v>0</v>
       </c>
-      <c r="I322" s="32" t="s">
+      <c r="I322" s="31" t="s">
         <v>938</v>
       </c>
     </row>
@@ -13407,13 +13382,13 @@
       <c r="A323" s="15">
         <v>322</v>
       </c>
-      <c r="B323" s="33" t="s">
+      <c r="B323" s="32" t="s">
         <v>939</v>
       </c>
-      <c r="C323" s="51" t="s">
+      <c r="C323" s="31" t="s">
         <v>940</v>
       </c>
-      <c r="D323" s="33" t="s">
+      <c r="D323" s="32" t="s">
         <v>941</v>
       </c>
       <c r="E323" s="5">
@@ -13425,7 +13400,7 @@
       <c r="G323" s="5">
         <v>0</v>
       </c>
-      <c r="I323" s="32" t="s">
+      <c r="I323" s="31" t="s">
         <v>369</v>
       </c>
     </row>
@@ -13433,10 +13408,10 @@
       <c r="A324" s="15">
         <v>323</v>
       </c>
-      <c r="B324" s="57" t="s">
+      <c r="B324" s="51" t="s">
         <v>942</v>
       </c>
-      <c r="C324" s="51" t="s">
+      <c r="C324" s="31" t="s">
         <v>943</v>
       </c>
       <c r="D324" t="s">
@@ -13451,7 +13426,7 @@
       <c r="G324" s="5">
         <v>1</v>
       </c>
-      <c r="I324" s="32" t="s">
+      <c r="I324" s="31" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13485,13 +13460,13 @@
       <c r="A326" s="15">
         <v>325</v>
       </c>
-      <c r="B326" s="33" t="s">
+      <c r="B326" s="32" t="s">
         <v>948</v>
       </c>
       <c r="C326" t="s">
         <v>949</v>
       </c>
-      <c r="D326" s="33" t="s">
+      <c r="D326" s="32" t="s">
         <v>950</v>
       </c>
       <c r="E326">
@@ -13511,13 +13486,13 @@
       <c r="A327" s="15">
         <v>326</v>
       </c>
-      <c r="B327" s="41" t="s">
+      <c r="B327" s="40" t="s">
         <v>951</v>
       </c>
-      <c r="C327" s="42" t="s">
+      <c r="C327" s="41" t="s">
         <v>952</v>
       </c>
-      <c r="D327" s="41" t="s">
+      <c r="D327" s="40" t="s">
         <v>953</v>
       </c>
       <c r="E327" s="9">
@@ -13529,7 +13504,7 @@
       <c r="G327" s="9">
         <v>1</v>
       </c>
-      <c r="I327" s="53" t="s">
+      <c r="I327" s="41" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13563,10 +13538,10 @@
       <c r="A329" s="15">
         <v>328</v>
       </c>
-      <c r="B329" s="57" t="s">
+      <c r="B329" s="51" t="s">
         <v>958</v>
       </c>
-      <c r="C329" s="51" t="s">
+      <c r="C329" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D329" t="s">
@@ -13581,7 +13556,7 @@
       <c r="G329" s="5">
         <v>1</v>
       </c>
-      <c r="I329" s="32" t="s">
+      <c r="I329" s="31" t="s">
         <v>960</v>
       </c>
     </row>
@@ -13589,10 +13564,10 @@
       <c r="A330" s="15">
         <v>329</v>
       </c>
-      <c r="B330" s="57" t="s">
+      <c r="B330" s="51" t="s">
         <v>961</v>
       </c>
-      <c r="C330" s="32" t="s">
+      <c r="C330" s="31" t="s">
         <v>962</v>
       </c>
       <c r="E330" s="5">
@@ -13604,7 +13579,7 @@
       <c r="G330" s="5">
         <v>1</v>
       </c>
-      <c r="I330" s="32" t="s">
+      <c r="I330" s="31" t="s">
         <v>963</v>
       </c>
     </row>
@@ -13612,10 +13587,10 @@
       <c r="A331" s="15">
         <v>330</v>
       </c>
-      <c r="B331" s="57" t="s">
+      <c r="B331" s="51" t="s">
         <v>964</v>
       </c>
-      <c r="C331" s="32" t="s">
+      <c r="C331" s="31" t="s">
         <v>965</v>
       </c>
       <c r="D331" s="18" t="s">
@@ -13630,7 +13605,7 @@
       <c r="G331" s="5">
         <v>1</v>
       </c>
-      <c r="I331" s="32" t="s">
+      <c r="I331" s="31" t="s">
         <v>967</v>
       </c>
     </row>
@@ -13638,13 +13613,13 @@
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="58" t="s">
+      <c r="B332" s="52" t="s">
         <v>968</v>
       </c>
       <c r="C332" t="s">
         <v>969</v>
       </c>
-      <c r="D332" s="59" t="s">
+      <c r="D332" s="53" t="s">
         <v>970</v>
       </c>
       <c r="E332">
@@ -13664,7 +13639,7 @@
       <c r="A333" s="15">
         <v>332</v>
       </c>
-      <c r="B333" s="57" t="s">
+      <c r="B333" s="51" t="s">
         <v>972</v>
       </c>
       <c r="C333" t="s">
@@ -13681,6 +13656,32 @@
       </c>
       <c r="I333" t="s">
         <v>971</v>
+      </c>
+    </row>
+    <row r="334" ht="15.75" spans="1:9">
+      <c r="A334" s="5">
+        <v>333</v>
+      </c>
+      <c r="B334" s="52" t="s">
+        <v>974</v>
+      </c>
+      <c r="C334" t="s">
+        <v>975</v>
+      </c>
+      <c r="D334" s="52" t="s">
+        <v>976</v>
+      </c>
+      <c r="E334" s="5">
+        <v>1</v>
+      </c>
+      <c r="F334" s="5">
+        <v>1</v>
+      </c>
+      <c r="G334" s="5">
+        <v>1</v>
+      </c>
+      <c r="I334" s="31" t="s">
+        <v>977</v>
       </c>
     </row>
   </sheetData>
@@ -13710,7 +13711,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>974</v>
+        <v>978</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_5.11/game_module_config_cjj.xlsx
+++ b/config_5.11/game_module_config_cjj.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.11\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$333</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$334</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -511,7 +506,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -529,7 +524,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -547,7 +542,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -565,7 +560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1283,7 +1278,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1378,7 +1373,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1416,7 +1411,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1451,7 +1446,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1469,7 +1464,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1495,7 +1490,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1530,7 +1525,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1565,7 +1560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1668,7 +1663,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1703,7 +1698,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1738,7 +1733,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1773,7 +1768,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1808,7 +1803,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1843,7 +1838,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1878,7 +1873,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2007,7 +2002,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2033,7 +2028,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3737,7 +3732,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>欢乐礼包</t>
+    <t>act_ty_gifts_style/act_002_ltlb</t>
+  </si>
+  <si>
+    <t>龙腾礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3792,16 +3790,18 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
-  <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3825,7 +3825,7 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3843,12 +3843,12 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3860,13 +3860,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3878,13 +3878,150 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3892,14 +4029,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3908,13 +4039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39991454817346722"/>
+        <fgColor theme="4" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3938,13 +4069,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79992065187536243"/>
+        <fgColor theme="4" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3956,18 +4087,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39991454817346722"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -3990,13 +4307,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4035,13 +4594,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4162,19 +4721,63 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4432,19 +5035,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AJ334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B330" sqref="B330"/>
+      <selection pane="bottomRight" activeCell="C338" sqref="C338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4460,7 +5064,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1">
+    <row r="1" ht="78" customHeight="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4489,7 +5093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="2" ht="17.1" customHeight="1" spans="1:9">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4515,7 +5119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4541,7 +5145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -4567,7 +5171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -4593,7 +5197,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -4619,7 +5223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -4645,7 +5249,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -4671,7 +5275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" ht="16.5" spans="1:9">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -4697,7 +5301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" ht="16.5" spans="1:9">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -4723,7 +5327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" ht="16.5" spans="1:9">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -4749,7 +5353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" ht="16.5" spans="1:9">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -4775,7 +5379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" ht="16.5" spans="1:9">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -4801,7 +5405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" ht="16.5" spans="1:9">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -4827,7 +5431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" ht="16.5" spans="1:9">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -4853,7 +5457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" ht="16.5" spans="1:9">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -4879,7 +5483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" ht="16.5" spans="1:9">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -4905,7 +5509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5">
+    <row r="18" ht="16.5" spans="1:9">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -4931,7 +5535,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" ht="16.5" spans="1:9">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -4957,7 +5561,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5">
+    <row r="20" ht="16.5" spans="1:9">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -4983,7 +5587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5">
+    <row r="21" ht="16.5" spans="1:9">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5009,7 +5613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5">
+    <row r="22" ht="16.5" spans="1:9">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5035,7 +5639,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5">
+    <row r="23" ht="16.5" spans="1:9">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5061,7 +5665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5">
+    <row r="24" ht="16.5" spans="1:9">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5087,7 +5691,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5">
+    <row r="25" ht="16.5" spans="1:9">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5113,7 +5717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5">
+    <row r="26" ht="16.5" spans="1:9">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5139,7 +5743,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5">
+    <row r="27" ht="16.5" spans="1:9">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5165,7 +5769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5">
+    <row r="28" ht="16.5" spans="1:9">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5191,7 +5795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5">
+    <row r="29" ht="16.5" spans="1:9">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5217,7 +5821,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5">
+    <row r="30" ht="16.5" spans="1:9">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5243,7 +5847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5">
+    <row r="31" ht="16.5" spans="1:9">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5269,7 +5873,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5">
+    <row r="32" ht="16.5" spans="1:9">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5295,7 +5899,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5">
+    <row r="33" ht="16.5" spans="1:9">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5321,7 +5925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5">
+    <row r="34" ht="16.5" spans="1:9">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5347,7 +5951,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5">
+    <row r="35" ht="16.5" spans="1:9">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5373,7 +5977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.5">
+    <row r="36" ht="16.5" spans="1:9">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5399,7 +6003,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5">
+    <row r="37" ht="16.5" spans="1:9">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5425,7 +6029,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16.5">
+    <row r="38" ht="16.5" spans="1:9">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5451,7 +6055,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5">
+    <row r="39" ht="16.5" spans="1:9">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5477,7 +6081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5">
+    <row r="40" ht="16.5" spans="1:9">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5503,7 +6107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5">
+    <row r="41" ht="16.5" spans="1:9">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5529,7 +6133,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5">
+    <row r="42" ht="16.5" spans="1:9">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5555,7 +6159,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5">
+    <row r="43" ht="16.5" spans="1:9">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5581,7 +6185,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5">
+    <row r="44" ht="16.5" spans="1:9">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5607,7 +6211,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5">
+    <row r="45" ht="16.5" spans="1:9">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5633,7 +6237,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5">
+    <row r="46" ht="16.5" spans="1:9">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5659,7 +6263,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5">
+    <row r="47" ht="16.5" spans="1:9">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5685,7 +6289,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5">
+    <row r="48" ht="16.5" spans="1:9">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -5711,7 +6315,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5">
+    <row r="49" ht="16.5" spans="1:9">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -5737,7 +6341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5">
+    <row r="50" ht="16.5" spans="1:9">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -5763,7 +6367,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16.5">
+    <row r="51" ht="16.5" spans="1:9">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -5789,7 +6393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5">
+    <row r="52" ht="16.5" spans="1:9">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -5813,7 +6417,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1">
+    <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -5839,7 +6443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.5">
+    <row r="54" ht="16.5" spans="1:9">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -5865,7 +6469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5">
+    <row r="55" ht="16.5" spans="1:9">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -5891,7 +6495,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5">
+    <row r="56" ht="16.5" spans="1:9">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -5917,7 +6521,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5">
+    <row r="57" ht="16.5" spans="1:9">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -5943,7 +6547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5">
+    <row r="58" ht="16.5" spans="1:9">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -5969,7 +6573,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5">
+    <row r="59" ht="16.5" spans="1:9">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -5995,7 +6599,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5">
+    <row r="60" ht="16.5" spans="1:9">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6021,7 +6625,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5">
+    <row r="61" ht="16.5" spans="1:9">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6047,7 +6651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5">
+    <row r="62" ht="16.5" spans="1:9">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6073,7 +6677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5">
+    <row r="63" ht="16.5" spans="1:9">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6099,7 +6703,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5">
+    <row r="64" ht="16.5" spans="1:9">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6125,7 +6729,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5">
+    <row r="65" ht="16.5" spans="1:9">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6151,7 +6755,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5">
+    <row r="66" ht="16.5" spans="1:9">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6177,7 +6781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16.5">
+    <row r="67" ht="16.5" spans="1:9">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6203,7 +6807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5">
+    <row r="68" ht="16.5" spans="1:9">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6229,7 +6833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16.5">
+    <row r="69" ht="16.5" spans="1:9">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6255,7 +6859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5">
+    <row r="70" ht="16.5" spans="1:9">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6281,7 +6885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5">
+    <row r="71" ht="16.5" spans="1:9">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6307,7 +6911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16.5">
+    <row r="72" ht="16.5" spans="1:9">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6333,7 +6937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16.5">
+    <row r="73" ht="16.5" spans="1:9">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6359,7 +6963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
+    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -6385,7 +6989,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5">
+    <row r="75" ht="16.5" spans="1:9">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -6411,7 +7015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
+    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -6437,7 +7041,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5">
+    <row r="77" ht="16.5" spans="1:9">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -6463,7 +7067,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16.5">
+    <row r="78" ht="16.5" spans="1:9">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -6489,7 +7093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.5">
+    <row r="79" ht="16.5" spans="1:9">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -6515,7 +7119,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16.5">
+    <row r="80" ht="16.5" spans="1:9">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -6541,7 +7145,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16.5">
+    <row r="81" ht="16.5" spans="1:9">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -6567,7 +7171,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16.5">
+    <row r="82" ht="16.5" spans="1:9">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -6593,7 +7197,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16.5">
+    <row r="83" ht="16.5" spans="1:9">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -6619,7 +7223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16.5">
+    <row r="84" ht="16.5" spans="1:9">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -6645,7 +7249,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5">
+    <row r="85" ht="16.5" spans="1:9">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -6671,7 +7275,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16.5">
+    <row r="86" ht="16.5" spans="1:9">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -6697,7 +7301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16.5">
+    <row r="87" ht="16.5" spans="1:9">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -6723,7 +7327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16.5">
+    <row r="88" ht="16.5" spans="1:9">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -6749,7 +7353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16.5">
+    <row r="89" ht="16.5" spans="1:9">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -6775,7 +7379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16.5">
+    <row r="90" ht="16.5" spans="1:9">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -6801,7 +7405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.5">
+    <row r="91" ht="16.5" spans="1:9">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -6827,7 +7431,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5">
+    <row r="92" ht="16.5" spans="1:9">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -6853,7 +7457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5">
+    <row r="93" ht="16.5" spans="1:9">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -6879,7 +7483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5">
+    <row r="94" ht="16.5" spans="1:9">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -6905,7 +7509,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5">
+    <row r="95" ht="16.5" spans="1:9">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -6931,7 +7535,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5">
+    <row r="96" ht="16.5" spans="1:9">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -6957,7 +7561,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16.5">
+    <row r="97" ht="16.5" spans="1:9">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -6983,7 +7587,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="16.5">
+    <row r="98" ht="16.5" spans="1:9">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7009,7 +7613,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16.5">
+    <row r="99" ht="16.5" spans="1:9">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7035,7 +7639,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16.5">
+    <row r="100" ht="16.5" spans="1:9">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7061,7 +7665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16.5">
+    <row r="101" ht="16.5" spans="1:9">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7087,7 +7691,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16.5">
+    <row r="102" ht="16.5" spans="1:9">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7113,7 +7717,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16.5">
+    <row r="103" ht="16.5" spans="1:9">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7139,7 +7743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16.5">
+    <row r="104" ht="16.5" spans="1:9">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7165,7 +7769,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="16.5">
+    <row r="105" ht="16.5" spans="1:9">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7191,7 +7795,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16.5">
+    <row r="106" ht="16.5" spans="1:9">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7217,7 +7821,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16.5">
+    <row r="107" ht="16.5" spans="1:9">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7243,7 +7847,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="16.5">
+    <row r="108" ht="16.5" spans="1:9">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7269,7 +7873,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16.5">
+    <row r="109" ht="16.5" spans="1:9">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7295,7 +7899,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16.5">
+    <row r="110" ht="16.5" spans="1:9">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7321,7 +7925,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16.5">
+    <row r="111" ht="16.5" spans="1:9">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7347,7 +7951,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16.5">
+    <row r="112" ht="16.5" spans="1:9">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7373,7 +7977,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16.5">
+    <row r="113" ht="16.5" spans="1:9">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -7399,7 +8003,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16.5">
+    <row r="114" ht="16.5" spans="1:9">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -7425,7 +8029,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16.5">
+    <row r="115" ht="16.5" spans="1:9">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -7451,7 +8055,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16.5">
+    <row r="116" ht="16.5" spans="1:9">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -7477,7 +8081,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16.5">
+    <row r="117" ht="16.5" spans="1:9">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -7503,7 +8107,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16.5">
+    <row r="118" ht="16.5" spans="1:9">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -7529,7 +8133,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A119" s="24">
         <v>118</v>
       </c>
@@ -7555,7 +8159,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16.5">
+    <row r="120" ht="16.5" spans="1:9">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -7581,7 +8185,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16.5">
+    <row r="121" ht="16.5" spans="1:9">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -7607,7 +8211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16.5">
+    <row r="122" ht="16.5" spans="1:9">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -7633,7 +8237,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16.5">
+    <row r="123" ht="16.5" spans="1:9">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -7659,7 +8263,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16.5">
+    <row r="124" ht="16.5" spans="1:9">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -7685,7 +8289,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16.5">
+    <row r="125" ht="16.5" spans="1:9">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -7711,7 +8315,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="16.5">
+    <row r="126" ht="16.5" spans="1:9">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -7737,7 +8341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16.5">
+    <row r="127" ht="16.5" spans="1:9">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -7763,7 +8367,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16.5">
+    <row r="128" ht="16.5" spans="1:9">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -7789,7 +8393,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16.5">
+    <row r="129" ht="16.5" spans="1:9">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -7815,7 +8419,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16.5">
+    <row r="130" ht="16.5" spans="1:9">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -7841,7 +8445,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16.5">
+    <row r="131" ht="16.5" spans="1:9">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -7867,7 +8471,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16.5">
+    <row r="132" ht="16.5" spans="1:9">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -7893,7 +8497,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16.5">
+    <row r="133" ht="16.5" spans="1:9">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -7919,7 +8523,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="16.5">
+    <row r="134" ht="16.5" spans="1:9">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -7945,7 +8549,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16.5">
+    <row r="135" ht="16.5" spans="1:9">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -7971,7 +8575,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16.5">
+    <row r="136" ht="16.5" spans="1:9">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -7997,7 +8601,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="16.5">
+    <row r="137" ht="16.5" spans="1:9">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8023,7 +8627,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16.5">
+    <row r="138" ht="16.5" spans="1:9">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8049,7 +8653,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="16.5">
+    <row r="139" ht="16.5" spans="1:9">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8075,7 +8679,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16.5">
+    <row r="140" ht="16.5" spans="1:9">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8101,7 +8705,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16.5">
+    <row r="141" ht="16.5" spans="1:9">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8127,7 +8731,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16.5">
+    <row r="142" ht="16.5" spans="1:9">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8153,7 +8757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="16.5">
+    <row r="143" ht="16.5" spans="1:9">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8179,7 +8783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16.5">
+    <row r="144" ht="16.5" spans="1:9">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8205,7 +8809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16.5">
+    <row r="145" ht="16.5" spans="1:9">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -8231,7 +8835,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16.5">
+    <row r="146" ht="16.5" spans="1:9">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8257,7 +8861,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16.5">
+    <row r="147" ht="16.5" spans="1:9">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8283,7 +8887,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16.5">
+    <row r="148" ht="16.5" spans="1:9">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8309,7 +8913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16.5">
+    <row r="149" ht="16.5" spans="1:9">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8335,7 +8939,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16.5">
+    <row r="150" ht="16.5" spans="1:9">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8361,7 +8965,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16.5">
+    <row r="151" ht="16.5" spans="1:9">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -8387,7 +8991,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16.5">
+    <row r="152" ht="16.5" spans="1:9">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -8413,7 +9017,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16.5">
+    <row r="153" ht="16.5" spans="1:9">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -8439,7 +9043,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16.5">
+    <row r="154" ht="16.5" spans="1:9">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -8465,7 +9069,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16.5">
+    <row r="155" ht="16.5" spans="1:9">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -8491,7 +9095,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="16.5">
+    <row r="156" ht="16.5" spans="1:9">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -8517,7 +9121,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16.5">
+    <row r="157" ht="16.5" spans="1:9">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -8543,7 +9147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="16.5">
+    <row r="158" ht="16.5" spans="1:9">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -8569,7 +9173,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16.5">
+    <row r="159" ht="16.5" spans="1:9">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -8595,7 +9199,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16.5">
+    <row r="160" ht="16.5" spans="1:9">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -8621,7 +9225,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="16.5">
+    <row r="161" ht="16.5" spans="1:9">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -8647,7 +9251,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16.5">
+    <row r="162" ht="16.5" spans="1:9">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -8673,7 +9277,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="16.5">
+    <row r="163" ht="16.5" spans="1:9">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -8699,7 +9303,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16.5">
+    <row r="164" ht="16.5" spans="1:9">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -8725,7 +9329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="16.5">
+    <row r="165" ht="16.5" spans="1:9">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -8751,7 +9355,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16.5">
+    <row r="166" ht="16.5" spans="1:9">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -8777,7 +9381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="16.5">
+    <row r="167" ht="16.5" spans="1:9">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -8803,7 +9407,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16.5">
+    <row r="168" ht="16.5" spans="1:9">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -8829,7 +9433,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16.5">
+    <row r="169" ht="16.5" spans="1:9">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -8853,7 +9457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="16.5">
+    <row r="170" ht="16.5" spans="1:9">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -8877,7 +9481,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="16.5">
+    <row r="171" ht="16.5" spans="1:9">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -8901,7 +9505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="16.5">
+    <row r="172" ht="16.5" spans="1:9">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -8925,7 +9529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="16.5">
+    <row r="173" ht="16.5" spans="1:9">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -8951,7 +9555,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16.5">
+    <row r="174" ht="16.5" spans="1:9">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -8975,7 +9579,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="16.5">
+    <row r="175" ht="16.5" spans="1:9">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -8999,7 +9603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16.5">
+    <row r="176" ht="16.5" spans="1:9">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9023,7 +9627,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="16.5">
+    <row r="177" ht="16.5" spans="1:9">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9049,7 +9653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="16.5">
+    <row r="178" ht="16.5" spans="1:9">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9075,7 +9679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="16.5">
+    <row r="179" ht="16.5" spans="1:9">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9099,7 +9703,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -9123,7 +9727,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -9147,7 +9751,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -9171,7 +9775,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="16.5">
+    <row r="183" ht="16.5" spans="1:9">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9194,7 +9798,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="16.5">
+    <row r="184" ht="16.5" spans="1:9">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9217,7 +9821,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="16.5">
+    <row r="185" ht="16.5" spans="1:9">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9240,7 +9844,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="16.5">
+    <row r="186" ht="16.5" spans="1:9">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9263,7 +9867,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="16.5">
+    <row r="187" ht="16.5" spans="1:9">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9286,7 +9890,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="16.5">
+    <row r="188" ht="16.5" spans="1:9">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9309,7 +9913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="16.5">
+    <row r="189" ht="16.5" spans="1:9">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9332,7 +9936,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="16.5">
+    <row r="190" ht="16.5" spans="1:9">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9355,7 +9959,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="16.5">
+    <row r="191" ht="16.5" spans="1:9">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -9378,7 +9982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="16.5">
+    <row r="192" ht="16.5" spans="1:9">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -9401,7 +10005,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="16.5">
+    <row r="193" ht="16.5" spans="1:9">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -9424,7 +10028,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16.5">
+    <row r="194" ht="16.5" spans="1:9">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -9447,7 +10051,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="16.5">
+    <row r="195" ht="16.5" spans="1:9">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -9470,7 +10074,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="16.5">
+    <row r="196" ht="16.5" spans="1:9">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -9493,7 +10097,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="16.5">
+    <row r="197" ht="16.5" spans="1:9">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -9516,7 +10120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="16.5">
+    <row r="198" ht="16.5" spans="1:9">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -9539,7 +10143,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="16.5">
+    <row r="199" ht="16.5" spans="1:9">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -9562,7 +10166,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="16.5">
+    <row r="200" ht="16.5" spans="1:9">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -9585,7 +10189,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16.5">
+    <row r="201" ht="16.5" spans="1:9">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -9608,7 +10212,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="16.5">
+    <row r="202" ht="16.5" spans="1:9">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -9631,7 +10235,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="16.5">
+    <row r="203" ht="16.5" spans="1:9">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -9654,7 +10258,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="16.5">
+    <row r="204" ht="16.5" spans="1:9">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -9680,7 +10284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="16.5">
+    <row r="205" ht="16.5" spans="1:9">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -9706,7 +10310,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="16.5">
+    <row r="206" ht="16.5" spans="1:9">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -9732,7 +10336,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16.5">
+    <row r="207" ht="16.5" spans="1:9">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -9755,7 +10359,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="16.5">
+    <row r="208" ht="16.5" spans="1:9">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -9778,7 +10382,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="16.5">
+    <row r="209" ht="16.5" spans="1:9">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -9801,7 +10405,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16.5">
+    <row r="210" ht="16.5" spans="1:9">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -9824,7 +10428,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="16.5">
+    <row r="211" ht="16.5" spans="1:9">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -9847,7 +10451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="16.5">
+    <row r="212" ht="16.5" spans="1:9">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -9870,7 +10474,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="16.5">
+    <row r="213" ht="16.5" spans="1:9">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -9893,7 +10497,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="16.5">
+    <row r="214" ht="16.5" spans="1:9">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -9916,7 +10520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="16.5">
+    <row r="215" ht="16.5" spans="1:9">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -9939,7 +10543,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16.5">
+    <row r="216" ht="16.5" spans="1:9">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -9962,7 +10566,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="16.5">
+    <row r="217" ht="16.5" spans="1:9">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -9985,7 +10589,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="16.5">
+    <row r="218" ht="16.5" spans="1:9">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10008,7 +10612,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="16.5">
+    <row r="219" ht="16.5" spans="1:9">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10031,7 +10635,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="16.5">
+    <row r="220" ht="16.5" spans="1:9">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10054,7 +10658,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="16.5">
+    <row r="221" ht="16.5" spans="1:9">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10077,7 +10681,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="16.5">
+    <row r="222" ht="16.5" spans="1:9">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10100,7 +10704,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="16.5">
+    <row r="223" ht="16.5" spans="1:9">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10123,7 +10727,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="16.5">
+    <row r="224" ht="16.5" spans="1:9">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10146,7 +10750,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="16.5">
+    <row r="225" ht="16.5" spans="1:9">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10169,7 +10773,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16.5">
+    <row r="226" ht="16.5" spans="1:7">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10192,7 +10796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16.5">
+    <row r="227" ht="16.5" spans="1:7">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10215,7 +10819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="16.5">
+    <row r="228" ht="16.5" spans="1:7">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10238,7 +10842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="16.5">
+    <row r="229" ht="16.5" spans="1:7">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10261,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16.5">
+    <row r="230" ht="16.5" spans="1:7">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10284,7 +10888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16.5">
+    <row r="231" ht="16.5" spans="1:7">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10307,7 +10911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="16.5">
+    <row r="232" ht="16.5" spans="1:7">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10330,7 +10934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="16.5">
+    <row r="233" ht="16.5" spans="1:7">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10353,7 +10957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="16.5">
+    <row r="234" ht="16.5" spans="1:7">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -10376,7 +10980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="16.5">
+    <row r="235" ht="16.5" spans="1:9">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -10402,7 +11006,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16.5">
+    <row r="236" ht="16.5" spans="1:9">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -10428,7 +11032,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16.5">
+    <row r="237" ht="16.5" spans="1:9">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -10454,7 +11058,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="16.5">
+    <row r="238" ht="16.5" spans="1:9">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -10480,7 +11084,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16.5">
+    <row r="239" ht="16.5" spans="1:9">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -10506,7 +11110,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="16.5">
+    <row r="240" ht="16.5" spans="1:9">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -10532,7 +11136,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="16.5">
+    <row r="241" ht="16.5" spans="1:9">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -10558,7 +11162,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="16.5">
+    <row r="242" ht="16.5" spans="1:9">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -10584,7 +11188,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="16.5">
+    <row r="243" ht="16.5" spans="1:9">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -10610,7 +11214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="16.5">
+    <row r="244" ht="16.5" spans="1:9">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -10636,7 +11240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="16.5">
+    <row r="245" ht="16.5" spans="1:9">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -10662,7 +11266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="16.5">
+    <row r="246" ht="16.5" spans="1:9">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -10688,7 +11292,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="16.5">
+    <row r="247" ht="16.5" spans="1:9">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -10714,7 +11318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="16.5">
+    <row r="248" ht="16.5" spans="1:9">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -10740,7 +11344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="16.5">
+    <row r="249" ht="16.5" spans="1:9">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -10766,7 +11370,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="16.5">
+    <row r="250" ht="16.5" spans="1:9">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -10792,7 +11396,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="16.5">
+    <row r="251" ht="16.5" spans="1:9">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -10818,7 +11422,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="16.5">
+    <row r="252" ht="16.5" spans="1:9">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -10844,7 +11448,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="16.5">
+    <row r="253" ht="16.5" spans="1:9">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -10871,7 +11475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="16.5">
+    <row r="254" ht="16.5" spans="1:9">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -10897,7 +11501,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="16.5">
+    <row r="255" ht="16.5" spans="1:9">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -10923,7 +11527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
+    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -10950,7 +11554,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -10976,7 +11580,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -11002,7 +11606,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -11028,7 +11632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -11054,7 +11658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="16.5">
+    <row r="261" ht="16.5" spans="1:9">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11080,7 +11684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="16.5">
+    <row r="262" ht="16.5" spans="1:9">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -11106,7 +11710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -11132,7 +11736,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -11158,7 +11762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -11184,7 +11788,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -11210,7 +11814,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -11236,7 +11840,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A268" s="24">
         <v>267</v>
       </c>
@@ -11262,7 +11866,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -11288,7 +11892,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -11314,7 +11918,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -11340,7 +11944,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -11366,7 +11970,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -11392,7 +11996,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -11418,7 +12022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -11444,7 +12048,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -11467,7 +12071,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -11493,7 +12097,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="16.5">
+    <row r="278" ht="16.5" spans="1:9">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -11519,7 +12123,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="16.5">
+    <row r="279" ht="16.5" spans="1:9">
       <c r="A279" s="15">
         <v>278</v>
       </c>
@@ -11542,7 +12146,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="16.5">
+    <row r="280" ht="16.5" spans="1:9">
       <c r="A280" s="15">
         <v>279</v>
       </c>
@@ -11568,7 +12172,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="16.5">
+    <row r="281" ht="16.5" spans="1:9">
       <c r="A281" s="15">
         <v>280</v>
       </c>
@@ -11594,7 +12198,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="16.5">
+    <row r="282" ht="16.5" spans="1:9">
       <c r="A282" s="15">
         <v>281</v>
       </c>
@@ -11620,7 +12224,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="16.5">
+    <row r="283" ht="16.5" spans="1:9">
       <c r="A283" s="15">
         <v>282</v>
       </c>
@@ -11646,7 +12250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A284" s="15">
         <v>283</v>
       </c>
@@ -11672,7 +12276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -11698,7 +12302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -11724,7 +12328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
+    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -11750,7 +12354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -11776,7 +12380,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="289" spans="1:36" ht="16.5">
+    <row r="289" ht="16.5" spans="1:9">
       <c r="A289" s="15">
         <v>288</v>
       </c>
@@ -11802,7 +12406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
+    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -11828,7 +12432,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
+    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -11854,7 +12458,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:36" ht="16.5">
+    <row r="292" ht="16.5" spans="1:9">
       <c r="A292" s="15">
         <v>291</v>
       </c>
@@ -11880,7 +12484,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" spans="1:36" ht="16.5">
+    <row r="293" ht="16.5" spans="1:9">
       <c r="A293" s="15">
         <v>292</v>
       </c>
@@ -11906,7 +12510,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" spans="1:36" ht="16.5">
+    <row r="294" ht="16.5" spans="1:9">
       <c r="A294" s="15">
         <v>293</v>
       </c>
@@ -11933,7 +12537,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A295" s="15">
         <v>294</v>
       </c>
@@ -11987,7 +12591,7 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A296" s="15">
         <v>295</v>
       </c>
@@ -12041,7 +12645,7 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A297" s="15">
         <v>296</v>
       </c>
@@ -12095,7 +12699,7 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" spans="1:36" ht="16.5">
+    <row r="298" ht="16.5" spans="1:36">
       <c r="A298" s="15">
         <v>297</v>
       </c>
@@ -12149,7 +12753,7 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
+    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
       <c r="A299" s="15">
         <v>298</v>
       </c>
@@ -12203,7 +12807,7 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" spans="1:36" ht="16.5">
+    <row r="300" ht="16.5" spans="1:9">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12230,7 +12834,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
+    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12257,7 +12861,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:36" ht="16.5">
+    <row r="302" ht="16.5" spans="1:9">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12284,7 +12888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:36" ht="16.5">
+    <row r="303" ht="16.5" spans="1:9">
       <c r="A303" s="15">
         <v>302</v>
       </c>
@@ -12311,7 +12915,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="304" spans="1:36" ht="16.5">
+    <row r="304" ht="16.5" spans="1:9">
       <c r="A304" s="15">
         <v>303</v>
       </c>
@@ -12338,7 +12942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A305" s="15">
         <v>304</v>
       </c>
@@ -12364,7 +12968,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A306" s="15">
         <v>305</v>
       </c>
@@ -12390,7 +12994,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="16.5">
+    <row r="307" ht="16.5" spans="1:7">
       <c r="A307" s="15">
         <v>306</v>
       </c>
@@ -12413,7 +13017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -12439,7 +13043,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A309" s="15">
         <v>308</v>
       </c>
@@ -12465,7 +13069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -12491,7 +13095,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -12517,7 +13121,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -12540,7 +13144,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A313" s="15">
         <v>312</v>
       </c>
@@ -12563,7 +13167,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A314" s="15">
         <v>313</v>
       </c>
@@ -12586,7 +13190,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A315" s="15">
         <v>314</v>
       </c>
@@ -12609,7 +13213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A316" s="15">
         <v>315</v>
       </c>
@@ -12632,7 +13236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A317" s="15">
         <v>316</v>
       </c>
@@ -12658,7 +13262,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A318" s="15">
         <v>317</v>
       </c>
@@ -12682,7 +13286,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A319" s="15">
         <v>318</v>
       </c>
@@ -12708,7 +13312,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A320" s="15">
         <v>319</v>
       </c>
@@ -12731,7 +13335,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A321" s="15">
         <v>320</v>
       </c>
@@ -12760,7 +13364,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A322" s="15">
         <v>321</v>
       </c>
@@ -12786,7 +13390,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A323" s="15">
         <v>322</v>
       </c>
@@ -12812,7 +13416,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="16.5">
+    <row r="324" ht="16.5" spans="1:9">
       <c r="A324" s="15">
         <v>323</v>
       </c>
@@ -12838,7 +13442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="16.5">
+    <row r="325" ht="16.5" spans="1:9">
       <c r="A325" s="15">
         <v>324</v>
       </c>
@@ -12864,7 +13468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="16.5">
+    <row r="326" ht="16.5" spans="1:9">
       <c r="A326" s="15">
         <v>325</v>
       </c>
@@ -12890,7 +13494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
+    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A327" s="15">
         <v>326</v>
       </c>
@@ -12916,7 +13520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="16.5">
+    <row r="328" ht="16.5" spans="1:9">
       <c r="A328" s="15">
         <v>327</v>
       </c>
@@ -12942,7 +13546,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="16.5">
+    <row r="329" ht="16.5" spans="1:9">
       <c r="A329" s="15">
         <v>328</v>
       </c>
@@ -12968,15 +13572,15 @@
         <v>960</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="16.5">
+    <row r="330" ht="16.5" spans="1:9">
       <c r="A330" s="15">
         <v>329</v>
       </c>
       <c r="B330" s="51" t="s">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="C330" s="31" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -12988,21 +13592,21 @@
         <v>1</v>
       </c>
       <c r="I330" s="31" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" ht="16.5">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="331" ht="16.5" spans="1:9">
       <c r="A331" s="15">
         <v>330</v>
       </c>
       <c r="B331" s="51" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C331" s="31" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13014,21 +13618,21 @@
         <v>1</v>
       </c>
       <c r="I331" s="31" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" ht="16.5">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="332" ht="16.5" spans="1:9">
       <c r="A332" s="15">
         <v>331</v>
       </c>
       <c r="B332" s="52" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C332" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="D332" s="53" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -13040,44 +13644,44 @@
         <v>1</v>
       </c>
       <c r="I332" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" ht="16.5">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="333" ht="16.5" spans="1:9">
       <c r="A333" s="15">
         <v>332</v>
       </c>
       <c r="B333" s="51" t="s">
+        <v>972</v>
+      </c>
+      <c r="C333" t="s">
+        <v>973</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="I333" t="s">
         <v>971</v>
       </c>
-      <c r="C333" t="s">
-        <v>972</v>
-      </c>
-      <c r="E333">
-        <v>1</v>
-      </c>
-      <c r="F333">
-        <v>1</v>
-      </c>
-      <c r="G333">
-        <v>1</v>
-      </c>
-      <c r="I333" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" ht="15.75">
+    </row>
+    <row r="334" ht="15.75" spans="1:9">
       <c r="A334" s="5">
         <v>333</v>
       </c>
       <c r="B334" s="52" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C334" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D334" s="52" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E334" s="5">
         <v>1</v>
@@ -13089,40 +13693,43 @@
         <v>1</v>
       </c>
       <c r="I334" s="31" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H333"/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <autoFilter ref="A1:H334">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1">
+    <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
+        <v>978</v>
+      </c>
+    </row>
+    <row r="2" ht="51.75" customHeight="1"/>
+    <row r="3" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_5.11/game_module_config_cjj.xlsx
+++ b/config_5.11/game_module_config_cjj.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.11\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -484,6 +489,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,6 +500,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -506,7 +513,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -515,6 +522,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -524,7 +532,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -533,6 +541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -542,7 +551,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -551,6 +560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -560,7 +570,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -619,6 +629,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -629,6 +640,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -677,6 +689,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -687,6 +700,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -771,6 +785,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -788,6 +803,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -805,6 +821,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -867,6 +884,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -884,6 +902,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1153,6 +1172,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1163,6 +1183,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1173,6 +1194,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1269,6 +1291,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1278,7 +1301,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1287,6 +1310,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1313,6 +1337,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1330,6 +1355,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1347,6 +1373,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1364,6 +1391,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1373,7 +1401,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1382,6 +1410,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1402,6 +1431,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1411,7 +1441,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1420,6 +1450,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1437,6 +1468,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1446,7 +1478,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1455,6 +1487,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1464,7 +1497,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1481,6 +1514,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1490,7 +1524,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1499,6 +1533,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1516,6 +1551,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1525,7 +1561,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1534,6 +1570,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1551,6 +1588,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1560,7 +1598,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1569,6 +1607,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1586,6 +1625,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1603,6 +1643,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1620,6 +1661,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1637,6 +1679,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1654,6 +1697,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1663,7 +1707,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1672,6 +1716,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1689,6 +1734,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1698,7 +1744,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1707,6 +1753,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1724,6 +1771,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1733,7 +1781,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1742,6 +1790,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1759,6 +1808,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1768,7 +1818,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1777,6 +1827,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1794,6 +1845,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1803,7 +1855,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1812,6 +1864,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1829,6 +1882,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1838,7 +1892,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1847,6 +1901,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1864,6 +1919,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1873,7 +1929,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1882,6 +1938,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1908,6 +1965,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1925,6 +1983,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1942,6 +2001,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1959,6 +2019,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -1976,6 +2037,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2002,7 +2064,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2011,6 +2073,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2028,7 +2091,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2037,6 +2100,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2063,6 +2127,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2089,6 +2154,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2106,6 +2172,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2798,6 +2865,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2808,6 +2876,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3453,6 +3522,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3463,6 +3533,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3493,6 +3564,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3503,6 +3575,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3524,6 +3597,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3534,6 +3608,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3630,6 +3705,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3640,6 +3716,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3706,6 +3783,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3716,6 +3794,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3730,9 +3809,6 @@
   </si>
   <si>
     <t>通用礼包模板，永久</t>
-  </si>
-  <si>
-    <t>act_ty_gifts_style/act_002_ltlb</t>
   </si>
   <si>
     <t>欢乐礼包</t>
@@ -3778,18 +3854,16 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3800,6 +3874,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3807,24 +3882,27 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -3832,18 +3910,19 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3855,177 +3934,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="43">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4034,13 +3978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4064,13 +4008,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4082,204 +4026,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4302,255 +4060,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4589,13 +4105,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4734,63 +4250,19 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5048,20 +4520,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C272" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C308" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C280" sqref="C280"/>
+      <selection pane="bottomRight" activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5077,7 +4548,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5106,7 +4577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5132,7 +4603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5158,7 +4629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5184,7 +4655,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5210,7 +4681,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5236,7 +4707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5262,7 +4733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5288,7 +4759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -5314,7 +4785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:9">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -5340,7 +4811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:9">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -5366,7 +4837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:9">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -5392,7 +4863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:9">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -5418,7 +4889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:9">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -5444,7 +4915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:9">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -5470,7 +4941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:9">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -5496,7 +4967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:9">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5522,7 +4993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:9">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5548,7 +5019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:9">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5574,7 +5045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:9">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5600,7 +5071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:9">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5626,7 +5097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:9">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5652,7 +5123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:9">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5678,7 +5149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:9">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5704,7 +5175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:9">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5730,7 +5201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:9">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5756,7 +5227,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:9">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5782,7 +5253,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:9">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5808,7 +5279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:9">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5834,7 +5305,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:9">
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5860,7 +5331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:9">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5886,7 +5357,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:9">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5912,7 +5383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:9">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5938,7 +5409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:9">
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5964,7 +5435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:9">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5990,7 +5461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:9">
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -6016,7 +5487,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:9">
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6042,7 +5513,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:9">
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6068,7 +5539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:9">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6094,7 +5565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:9">
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6120,7 +5591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:9">
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6146,7 +5617,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:9">
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6172,7 +5643,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:9">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6198,7 +5669,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:9">
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6224,7 +5695,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:9">
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6250,7 +5721,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:9">
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6276,7 +5747,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:9">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6302,7 +5773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:9">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6328,7 +5799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:9">
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -6354,7 +5825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:9">
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -6380,7 +5851,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:9">
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -6406,7 +5877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:9">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -6430,7 +5901,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -6456,7 +5927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:9">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -6482,7 +5953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:9">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -6508,7 +5979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:9">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -6534,7 +6005,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:9">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -6560,7 +6031,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:9">
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6586,7 +6057,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:9">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6612,7 +6083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:9">
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6638,7 +6109,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:9">
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6664,7 +6135,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:9">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6690,7 +6161,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:9">
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6716,7 +6187,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:9">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6742,7 +6213,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:9">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6768,7 +6239,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:9">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6794,7 +6265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:9">
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6820,7 +6291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:9">
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6846,7 +6317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:9">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6872,7 +6343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:9">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6898,7 +6369,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:9">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6924,7 +6395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:9">
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6950,7 +6421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:9">
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6976,7 +6447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
+    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -7002,7 +6473,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:9">
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -7028,7 +6499,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -7054,7 +6525,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:9">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -7080,7 +6551,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:9">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -7106,7 +6577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:9">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -7132,7 +6603,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:9">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -7158,7 +6629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:9">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -7184,7 +6655,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:9">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -7210,7 +6681,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:9">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -7236,7 +6707,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:9">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -7262,7 +6733,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:9">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -7288,7 +6759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:9">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -7314,7 +6785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:9">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -7340,7 +6811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:9">
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -7366,7 +6837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:9">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -7392,7 +6863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:9">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -7418,7 +6889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:9">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -7444,7 +6915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:9">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -7470,7 +6941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:9">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -7496,7 +6967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:9">
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -7522,7 +6993,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:9">
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -7548,7 +7019,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:9">
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -7574,7 +7045,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:9">
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -7600,7 +7071,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:9">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7626,7 +7097,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:9">
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7652,7 +7123,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:9">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7678,7 +7149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:9">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7704,7 +7175,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:9">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7730,7 +7201,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:9">
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7756,7 +7227,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:9">
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7782,7 +7253,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:9">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7808,7 +7279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:9">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7834,7 +7305,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:9">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7860,7 +7331,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:9">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7886,7 +7357,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:9">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7912,7 +7383,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:9">
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7938,7 +7409,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:9">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7964,7 +7435,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:9">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7990,7 +7461,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:9">
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -8016,7 +7487,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:9">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -8042,7 +7513,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:9">
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -8068,7 +7539,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:9">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -8094,7 +7565,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:9">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -8120,7 +7591,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:9">
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -8146,7 +7617,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A119" s="25">
         <v>118</v>
       </c>
@@ -8172,7 +7643,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:9">
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -8198,7 +7669,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:9">
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -8224,7 +7695,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:9">
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -8250,7 +7721,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:9">
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -8276,7 +7747,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:9">
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -8302,7 +7773,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:9">
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -8328,7 +7799,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:9">
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -8354,7 +7825,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:9">
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -8380,7 +7851,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:9">
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -8406,7 +7877,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:9">
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -8432,7 +7903,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:9">
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -8458,7 +7929,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:9">
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -8484,7 +7955,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:9">
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -8510,7 +7981,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:9">
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -8536,7 +8007,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:9">
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -8562,7 +8033,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:9">
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -8588,7 +8059,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:9">
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -8614,7 +8085,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:9">
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8640,7 +8111,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:9">
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8666,7 +8137,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:9">
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8692,7 +8163,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:9">
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8718,7 +8189,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:9">
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8744,7 +8215,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:9">
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8770,7 +8241,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:9">
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8796,7 +8267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:9">
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8822,7 +8293,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:9">
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -8848,7 +8319,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:9">
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8874,7 +8345,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:9">
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8900,7 +8371,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:9">
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8926,7 +8397,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:9">
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8952,7 +8423,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:9">
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8978,7 +8449,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:9">
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -9004,7 +8475,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:9">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -9030,7 +8501,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:9">
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -9056,7 +8527,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:9">
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -9082,7 +8553,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:9">
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -9108,7 +8579,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:9">
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -9134,7 +8605,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:9">
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -9160,7 +8631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:9">
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -9186,7 +8657,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:9">
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -9212,7 +8683,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:9">
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -9238,7 +8709,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:9">
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -9264,7 +8735,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:9">
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -9290,7 +8761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:9">
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -9316,7 +8787,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:9">
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -9342,7 +8813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:9">
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -9368,7 +8839,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:9">
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -9394,7 +8865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:9">
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -9420,7 +8891,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:9">
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -9446,7 +8917,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:9">
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -9470,7 +8941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:9">
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -9494,7 +8965,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:9">
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -9518,7 +8989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:9">
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -9542,7 +9013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:9">
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -9568,7 +9039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:9">
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -9592,7 +9063,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:9">
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -9616,7 +9087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:9">
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9640,7 +9111,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:9">
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9666,7 +9137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:9">
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9692,7 +9163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:9">
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9716,7 +9187,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -9740,7 +9211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -9764,7 +9235,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -9788,7 +9259,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:9">
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9811,7 +9282,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:9">
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9834,7 +9305,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:9">
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9857,7 +9328,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:9">
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9880,7 +9351,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:9">
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9903,7 +9374,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:9">
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9926,7 +9397,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:9">
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9949,7 +9420,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:9">
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9972,7 +9443,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:9">
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -9995,7 +9466,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:9">
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -10018,7 +9489,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:9">
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -10041,7 +9512,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:9">
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -10064,7 +9535,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:9">
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -10087,7 +9558,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:9">
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -10110,7 +9581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:9">
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -10133,7 +9604,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:9">
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -10156,7 +9627,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:9">
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -10179,7 +9650,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:9">
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -10202,7 +9673,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:9">
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -10225,7 +9696,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:9">
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -10248,7 +9719,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:9">
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -10271,7 +9742,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:9">
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -10297,7 +9768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:9">
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -10323,7 +9794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:9">
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -10349,7 +9820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:9">
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -10372,7 +9843,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:9">
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -10395,7 +9866,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:9">
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -10418,7 +9889,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:9">
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -10441,7 +9912,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:9">
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -10464,7 +9935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:9">
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -10487,7 +9958,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:9">
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -10510,7 +9981,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:9">
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -10533,7 +10004,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:9">
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -10556,7 +10027,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" ht="16.5" spans="1:9">
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -10579,7 +10050,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:9">
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -10602,7 +10073,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" ht="16.5" spans="1:9">
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10625,7 +10096,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:9">
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10648,7 +10119,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="1:9">
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10671,7 +10142,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="1:9">
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10694,7 +10165,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="1:9">
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10717,7 +10188,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="1:9">
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10740,7 +10211,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="1:9">
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10763,7 +10234,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:9">
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10786,7 +10257,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:7">
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10809,7 +10280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:7">
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10832,7 +10303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:7">
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10855,7 +10326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:7">
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10878,7 +10349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:7">
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10901,7 +10372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:7">
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10924,7 +10395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:7">
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10947,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:7">
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10970,7 +10441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:7">
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -10993,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:9">
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -11019,7 +10490,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:9">
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -11045,7 +10516,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:9">
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -11071,7 +10542,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:9">
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -11097,7 +10568,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" ht="16.5" spans="1:9">
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -11123,7 +10594,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" ht="16.5" spans="1:9">
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -11149,7 +10620,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" ht="16.5" spans="1:9">
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -11175,7 +10646,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" ht="16.5" spans="1:9">
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -11201,7 +10672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" ht="16.5" spans="1:9">
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -11227,7 +10698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" ht="16.5" spans="1:9">
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -11253,7 +10724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" ht="16.5" spans="1:9">
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -11279,7 +10750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" ht="16.5" spans="1:9">
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -11305,7 +10776,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" ht="16.5" spans="1:9">
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -11331,7 +10802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" ht="16.5" spans="1:9">
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -11357,7 +10828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" ht="16.5" spans="1:9">
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -11383,7 +10854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" ht="16.5" spans="1:9">
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -11409,7 +10880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" ht="16.5" spans="1:9">
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -11435,7 +10906,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" ht="16.5" spans="1:9">
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -11461,7 +10932,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" ht="16.5" spans="1:9">
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -11488,7 +10959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" ht="16.5" spans="1:9">
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -11514,7 +10985,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" ht="16.5" spans="1:9">
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -11540,7 +11011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -11567,7 +11038,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -11593,7 +11064,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -11619,7 +11090,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -11645,7 +11116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -11671,7 +11142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" ht="16.5" spans="1:9">
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11697,7 +11168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" ht="16.5" spans="1:9">
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -11723,7 +11194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -11749,7 +11220,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -11775,7 +11246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -11801,7 +11272,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -11827,7 +11298,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -11853,7 +11324,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A268" s="25">
         <v>267</v>
       </c>
@@ -11879,7 +11350,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -11905,7 +11376,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -11931,7 +11402,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -11957,7 +11428,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -11983,7 +11454,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -12009,7 +11480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -12035,7 +11506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -12061,7 +11532,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A276" s="36">
         <v>275</v>
       </c>
@@ -12084,7 +11555,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -12110,7 +11581,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" ht="16.5" spans="1:9">
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -12136,7 +11607,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" ht="16.5" spans="1:9">
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="15">
         <v>278</v>
       </c>
@@ -12159,7 +11630,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" ht="16.5" spans="1:9">
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="15">
         <v>279</v>
       </c>
@@ -12185,7 +11656,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" ht="16.5" spans="1:9">
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="15">
         <v>280</v>
       </c>
@@ -12211,7 +11682,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" ht="16.5" spans="1:9">
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="15">
         <v>281</v>
       </c>
@@ -12237,7 +11708,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" ht="16.5" spans="1:9">
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="15">
         <v>282</v>
       </c>
@@ -12263,7 +11734,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A284" s="15">
         <v>283</v>
       </c>
@@ -12289,7 +11760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -12315,7 +11786,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -12341,7 +11812,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
+    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -12367,7 +11838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A288" s="36">
         <v>287</v>
       </c>
@@ -12393,7 +11864,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="289" ht="16.5" spans="1:9">
+    <row r="289" spans="1:36" ht="16.5">
       <c r="A289" s="15">
         <v>288</v>
       </c>
@@ -12419,7 +11890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -12445,7 +11916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -12471,7 +11942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" ht="16.5" spans="1:9">
+    <row r="292" spans="1:36" ht="16.5">
       <c r="A292" s="15">
         <v>291</v>
       </c>
@@ -12497,7 +11968,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" ht="16.5" spans="1:9">
+    <row r="293" spans="1:36" ht="16.5">
       <c r="A293" s="15">
         <v>292</v>
       </c>
@@ -12523,7 +11994,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" ht="16.5" spans="1:9">
+    <row r="294" spans="1:36" ht="16.5">
       <c r="A294" s="15">
         <v>293</v>
       </c>
@@ -12550,7 +12021,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A295" s="15">
         <v>294</v>
       </c>
@@ -12604,7 +12075,7 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A296" s="15">
         <v>295</v>
       </c>
@@ -12658,7 +12129,7 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A297" s="15">
         <v>296</v>
       </c>
@@ -12712,7 +12183,7 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" ht="16.5" spans="1:36">
+    <row r="298" spans="1:36" ht="16.5">
       <c r="A298" s="15">
         <v>297</v>
       </c>
@@ -12766,7 +12237,7 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
+    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
       <c r="A299" s="15">
         <v>298</v>
       </c>
@@ -12820,7 +12291,7 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" ht="16.5" spans="1:9">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12847,7 +12318,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12874,7 +12345,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" ht="16.5" spans="1:9">
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12901,7 +12372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="16.5" spans="1:9">
+    <row r="303" spans="1:36" ht="16.5">
       <c r="A303" s="15">
         <v>302</v>
       </c>
@@ -12928,7 +12399,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="304" ht="16.5" spans="1:9">
+    <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="15">
         <v>303</v>
       </c>
@@ -12955,7 +12426,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A305" s="15">
         <v>304</v>
       </c>
@@ -12981,7 +12452,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A306" s="15">
         <v>305</v>
       </c>
@@ -13007,7 +12478,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" ht="16.5" spans="1:7">
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="15">
         <v>306</v>
       </c>
@@ -13030,7 +12501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -13056,7 +12527,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A309" s="15">
         <v>308</v>
       </c>
@@ -13082,7 +12553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -13108,7 +12579,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -13134,7 +12605,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -13157,7 +12628,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A313" s="15">
         <v>312</v>
       </c>
@@ -13180,7 +12651,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A314" s="15">
         <v>313</v>
       </c>
@@ -13203,7 +12674,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A315" s="15">
         <v>314</v>
       </c>
@@ -13226,7 +12697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A316" s="15">
         <v>315</v>
       </c>
@@ -13249,7 +12720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A317" s="15">
         <v>316</v>
       </c>
@@ -13275,7 +12746,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A318" s="15">
         <v>317</v>
       </c>
@@ -13299,7 +12770,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A319" s="15">
         <v>318</v>
       </c>
@@ -13325,7 +12796,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A320" s="15">
         <v>319</v>
       </c>
@@ -13348,7 +12819,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A321" s="15">
         <v>320</v>
       </c>
@@ -13377,7 +12848,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A322" s="15">
         <v>321</v>
       </c>
@@ -13403,7 +12874,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A323" s="15">
         <v>322</v>
       </c>
@@ -13429,7 +12900,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" ht="16.5" spans="1:9">
+    <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="15">
         <v>323</v>
       </c>
@@ -13455,7 +12926,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" ht="16.5" spans="1:9">
+    <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="15">
         <v>324</v>
       </c>
@@ -13481,7 +12952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" ht="16.5" spans="1:9">
+    <row r="326" spans="1:9" ht="16.5">
       <c r="A326" s="15">
         <v>325</v>
       </c>
@@ -13507,7 +12978,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
       <c r="A327" s="15">
         <v>326</v>
       </c>
@@ -13533,7 +13004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" ht="16.5" spans="1:9">
+    <row r="328" spans="1:9" ht="16.5">
       <c r="A328" s="15">
         <v>327</v>
       </c>
@@ -13559,7 +13030,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="329" ht="16.5" spans="1:9">
+    <row r="329" spans="1:9" ht="16.5">
       <c r="A329" s="15">
         <v>328</v>
       </c>
@@ -13585,91 +13056,91 @@
         <v>960</v>
       </c>
     </row>
-    <row r="330" ht="16.5" spans="1:9">
+    <row r="330" spans="1:9" ht="16.5">
       <c r="A330" s="15">
         <v>329</v>
       </c>
       <c r="B330" s="57" t="s">
+        <v>974</v>
+      </c>
+      <c r="C330" s="32" t="s">
         <v>961</v>
       </c>
-      <c r="C330" s="32" t="s">
+      <c r="E330" s="5">
+        <v>1</v>
+      </c>
+      <c r="F330" s="5">
+        <v>1</v>
+      </c>
+      <c r="G330" s="5">
+        <v>1</v>
+      </c>
+      <c r="I330" s="32" t="s">
         <v>962</v>
       </c>
-      <c r="E330" s="5">
-        <v>1</v>
-      </c>
-      <c r="F330" s="5">
-        <v>1</v>
-      </c>
-      <c r="G330" s="5">
-        <v>1</v>
-      </c>
-      <c r="I330" s="32" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="331" ht="16.5" spans="1:9">
+    </row>
+    <row r="331" spans="1:9" ht="16.5">
       <c r="A331" s="15">
         <v>330</v>
       </c>
       <c r="B331" s="57" t="s">
+        <v>963</v>
+      </c>
+      <c r="C331" s="32" t="s">
         <v>964</v>
       </c>
-      <c r="C331" s="32" t="s">
+      <c r="D331" s="18" t="s">
         <v>965</v>
       </c>
-      <c r="D331" s="18" t="s">
+      <c r="E331" s="5">
+        <v>1</v>
+      </c>
+      <c r="F331" s="5">
+        <v>1</v>
+      </c>
+      <c r="G331" s="5">
+        <v>1</v>
+      </c>
+      <c r="I331" s="32" t="s">
         <v>966</v>
       </c>
-      <c r="E331" s="5">
-        <v>1</v>
-      </c>
-      <c r="F331" s="5">
-        <v>1</v>
-      </c>
-      <c r="G331" s="5">
-        <v>1</v>
-      </c>
-      <c r="I331" s="32" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="332" ht="16.5" spans="1:9">
+    </row>
+    <row r="332" spans="1:9" ht="16.5">
       <c r="A332" s="15">
         <v>331</v>
       </c>
       <c r="B332" s="58" t="s">
+        <v>967</v>
+      </c>
+      <c r="C332" t="s">
         <v>968</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" s="59" t="s">
         <v>969</v>
       </c>
-      <c r="D332" s="59" t="s">
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="I332" t="s">
         <v>970</v>
       </c>
-      <c r="E332">
-        <v>1</v>
-      </c>
-      <c r="F332">
-        <v>1</v>
-      </c>
-      <c r="G332">
-        <v>1</v>
-      </c>
-      <c r="I332" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="333" ht="16.5" spans="1:9">
+    </row>
+    <row r="333" spans="1:9" ht="16.5">
       <c r="A333" s="15">
         <v>332</v>
       </c>
       <c r="B333" s="57" t="s">
+        <v>971</v>
+      </c>
+      <c r="C333" t="s">
         <v>972</v>
       </c>
-      <c r="C333" t="s">
-        <v>973</v>
-      </c>
       <c r="E333">
         <v>1</v>
       </c>
@@ -13680,43 +13151,40 @@
         <v>1</v>
       </c>
       <c r="I333" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H333">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H333"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+        <v>973</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_5.11/game_module_config_cjj.xlsx
+++ b/config_5.11/game_module_config_cjj.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.11\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -506,7 +511,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -524,7 +529,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -542,7 +547,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -560,7 +565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1278,7 +1283,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1373,7 +1378,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1411,7 +1416,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1446,7 +1451,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1464,7 +1469,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1490,7 +1495,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1525,7 +1530,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1560,7 +1565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1663,7 +1668,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1698,7 +1703,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1733,7 +1738,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1768,7 +1773,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1803,7 +1808,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1838,7 +1843,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1873,7 +1878,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2002,7 +2007,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2028,7 +2033,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3732,9 +3737,6 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_ltlb</t>
-  </si>
-  <si>
     <t>欢乐礼包</t>
   </si>
   <si>
@@ -3790,18 +3792,16 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3825,7 +3825,7 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3843,12 +3843,12 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3860,13 +3860,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3878,150 +3878,13 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4029,8 +3892,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="41">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4039,13 +3908,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4069,13 +3938,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
+        <fgColor theme="4" tint="0.79992065187536243"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4087,192 +3956,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4295,255 +3990,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4582,13 +4035,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4709,63 +4162,19 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5023,20 +4432,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D338" sqref="D338"/>
+      <selection pane="bottomRight" activeCell="B330" sqref="B330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5052,7 +4460,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5081,7 +4489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5107,7 +4515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5133,7 +4541,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5159,7 +4567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5185,7 +4593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5211,7 +4619,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5237,7 +4645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5263,7 +4671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -5289,7 +4697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:9">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -5315,7 +4723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:9">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -5341,7 +4749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:9">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -5367,7 +4775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:9">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -5393,7 +4801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:9">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -5419,7 +4827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:9">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -5445,7 +4853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:9">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -5471,7 +4879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:9">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5497,7 +4905,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:9">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5523,7 +4931,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:9">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5549,7 +4957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:9">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5575,7 +4983,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:9">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5601,7 +5009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:9">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5627,7 +5035,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:9">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5653,7 +5061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:9">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5679,7 +5087,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:9">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5705,7 +5113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:9">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5731,7 +5139,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:9">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5757,7 +5165,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:9">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5783,7 +5191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:9">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5809,7 +5217,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:9">
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5835,7 +5243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:9">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5861,7 +5269,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:9">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5887,7 +5295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:9">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5913,7 +5321,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:9">
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5939,7 +5347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:9">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5965,7 +5373,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:9">
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5991,7 +5399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:9">
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6017,7 +5425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:9">
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6043,7 +5451,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:9">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6069,7 +5477,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:9">
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6095,7 +5503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:9">
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6121,7 +5529,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:9">
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6147,7 +5555,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:9">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6173,7 +5581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:9">
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6199,7 +5607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:9">
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6225,7 +5633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:9">
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6251,7 +5659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:9">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6277,7 +5685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:9">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6303,7 +5711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:9">
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -6329,7 +5737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:9">
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -6355,7 +5763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:9">
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -6381,7 +5789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:9">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -6405,7 +5813,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -6431,7 +5839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:9">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -6457,7 +5865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:9">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -6483,7 +5891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:9">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -6509,7 +5917,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:9">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -6535,7 +5943,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:9">
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6561,7 +5969,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:9">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6587,7 +5995,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:9">
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6613,7 +6021,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:9">
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6639,7 +6047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:9">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6665,7 +6073,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:9">
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6691,7 +6099,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:9">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6717,7 +6125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:9">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6743,7 +6151,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:9">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6769,7 +6177,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:9">
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6795,7 +6203,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:9">
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6821,7 +6229,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:9">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6847,7 +6255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:9">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6873,7 +6281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:9">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6899,7 +6307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:9">
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6925,7 +6333,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:9">
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6951,7 +6359,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
+    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -6977,7 +6385,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:9">
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -7003,7 +6411,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -7029,7 +6437,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:9">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -7055,7 +6463,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:9">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -7081,7 +6489,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:9">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -7107,7 +6515,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:9">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -7133,7 +6541,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:9">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -7159,7 +6567,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:9">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -7185,7 +6593,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:9">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -7211,7 +6619,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:9">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -7237,7 +6645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:9">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -7263,7 +6671,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:9">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -7289,7 +6697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:9">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -7315,7 +6723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:9">
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -7341,7 +6749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:9">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -7367,7 +6775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:9">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -7393,7 +6801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:9">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -7419,7 +6827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:9">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -7445,7 +6853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:9">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -7471,7 +6879,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:9">
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -7497,7 +6905,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:9">
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -7523,7 +6931,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:9">
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -7549,7 +6957,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:9">
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -7575,7 +6983,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:9">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7601,7 +7009,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:9">
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7627,7 +7035,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:9">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7653,7 +7061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:9">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7679,7 +7087,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:9">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7705,7 +7113,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:9">
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7731,7 +7139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:9">
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7757,7 +7165,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:9">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7783,7 +7191,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:9">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7809,7 +7217,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:9">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7835,7 +7243,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:9">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7861,7 +7269,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:9">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7887,7 +7295,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:9">
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7913,7 +7321,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:9">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7939,7 +7347,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:9">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7965,7 +7373,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:9">
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -7991,7 +7399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:9">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -8017,7 +7425,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:9">
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -8043,7 +7451,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:9">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -8069,7 +7477,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:9">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -8095,7 +7503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:9">
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -8121,7 +7529,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A119" s="24">
         <v>118</v>
       </c>
@@ -8147,7 +7555,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:9">
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -8173,7 +7581,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:9">
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -8199,7 +7607,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:9">
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -8225,7 +7633,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:9">
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -8251,7 +7659,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:9">
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -8277,7 +7685,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:9">
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -8303,7 +7711,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:9">
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -8329,7 +7737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:9">
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -8355,7 +7763,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:9">
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -8381,7 +7789,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:9">
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -8407,7 +7815,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:9">
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -8433,7 +7841,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:9">
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -8459,7 +7867,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:9">
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -8485,7 +7893,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:9">
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -8511,7 +7919,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:9">
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -8537,7 +7945,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:9">
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -8563,7 +7971,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:9">
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -8589,7 +7997,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:9">
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8615,7 +8023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:9">
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8641,7 +8049,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:9">
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8667,7 +8075,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:9">
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8693,7 +8101,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:9">
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8719,7 +8127,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:9">
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8745,7 +8153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:9">
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8771,7 +8179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:9">
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8797,7 +8205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:9">
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -8823,7 +8231,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:9">
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8849,7 +8257,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:9">
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8875,7 +8283,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:9">
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8901,7 +8309,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:9">
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8927,7 +8335,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:9">
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8953,7 +8361,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:9">
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -8979,7 +8387,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:9">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -9005,7 +8413,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:9">
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -9031,7 +8439,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:9">
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -9057,7 +8465,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:9">
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -9083,7 +8491,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:9">
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -9109,7 +8517,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:9">
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -9135,7 +8543,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:9">
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -9161,7 +8569,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:9">
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -9187,7 +8595,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:9">
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -9213,7 +8621,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:9">
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -9239,7 +8647,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:9">
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -9265,7 +8673,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:9">
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -9291,7 +8699,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:9">
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -9317,7 +8725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:9">
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -9343,7 +8751,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:9">
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -9369,7 +8777,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:9">
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -9395,7 +8803,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:9">
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -9421,7 +8829,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:9">
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -9445,7 +8853,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:9">
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -9469,7 +8877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:9">
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -9493,7 +8901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:9">
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -9517,7 +8925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:9">
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -9543,7 +8951,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:9">
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -9567,7 +8975,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:9">
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -9591,7 +8999,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:9">
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9615,7 +9023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:9">
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9641,7 +9049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:9">
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9667,7 +9075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:9">
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9691,7 +9099,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -9715,7 +9123,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -9739,7 +9147,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -9763,7 +9171,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:9">
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9786,7 +9194,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:9">
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9809,7 +9217,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:9">
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9832,7 +9240,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:9">
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9855,7 +9263,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:9">
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9878,7 +9286,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:9">
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9901,7 +9309,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:9">
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9924,7 +9332,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:9">
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9947,7 +9355,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:9">
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -9970,7 +9378,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:9">
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -9993,7 +9401,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:9">
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -10016,7 +9424,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:9">
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -10039,7 +9447,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:9">
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -10062,7 +9470,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:9">
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -10085,7 +9493,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:9">
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -10108,7 +9516,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:9">
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -10131,7 +9539,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:9">
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -10154,7 +9562,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:9">
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -10177,7 +9585,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:9">
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -10200,7 +9608,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:9">
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -10223,7 +9631,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:9">
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -10246,7 +9654,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:9">
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -10272,7 +9680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:9">
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -10298,7 +9706,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:9">
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -10324,7 +9732,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:9">
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -10347,7 +9755,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:9">
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -10370,7 +9778,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:9">
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -10393,7 +9801,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:9">
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -10416,7 +9824,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:9">
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -10439,7 +9847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:9">
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -10462,7 +9870,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:9">
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -10485,7 +9893,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:9">
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -10508,7 +9916,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:9">
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -10531,7 +9939,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" ht="16.5" spans="1:9">
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -10554,7 +9962,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:9">
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -10577,7 +9985,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" ht="16.5" spans="1:9">
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10600,7 +10008,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:9">
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10623,7 +10031,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="1:9">
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10646,7 +10054,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="1:9">
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10669,7 +10077,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="1:9">
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10692,7 +10100,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="1:9">
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10715,7 +10123,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="1:9">
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10738,7 +10146,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:9">
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10761,7 +10169,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:7">
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10784,7 +10192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:7">
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10807,7 +10215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:7">
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10830,7 +10238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:7">
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10853,7 +10261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:7">
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10876,7 +10284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:7">
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10899,7 +10307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:7">
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10922,7 +10330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:7">
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10945,7 +10353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:7">
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -10968,7 +10376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:9">
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -10994,7 +10402,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:9">
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -11020,7 +10428,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:9">
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -11046,7 +10454,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:9">
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -11072,7 +10480,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" ht="16.5" spans="1:9">
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -11098,7 +10506,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" ht="16.5" spans="1:9">
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -11124,7 +10532,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" ht="16.5" spans="1:9">
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -11150,7 +10558,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" ht="16.5" spans="1:9">
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -11176,7 +10584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" ht="16.5" spans="1:9">
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -11202,7 +10610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" ht="16.5" spans="1:9">
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -11228,7 +10636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" ht="16.5" spans="1:9">
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -11254,7 +10662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" ht="16.5" spans="1:9">
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -11280,7 +10688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" ht="16.5" spans="1:9">
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -11306,7 +10714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" ht="16.5" spans="1:9">
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -11332,7 +10740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" ht="16.5" spans="1:9">
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -11358,7 +10766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" ht="16.5" spans="1:9">
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -11384,7 +10792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" ht="16.5" spans="1:9">
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -11410,7 +10818,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" ht="16.5" spans="1:9">
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -11436,7 +10844,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" ht="16.5" spans="1:9">
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -11463,7 +10871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" ht="16.5" spans="1:9">
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -11489,7 +10897,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" ht="16.5" spans="1:9">
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -11515,7 +10923,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -11542,7 +10950,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -11568,7 +10976,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -11594,7 +11002,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -11620,7 +11028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -11646,7 +11054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" ht="16.5" spans="1:9">
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11672,7 +11080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" ht="16.5" spans="1:9">
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -11698,7 +11106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -11724,7 +11132,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -11750,7 +11158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -11776,7 +11184,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -11802,7 +11210,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -11828,7 +11236,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A268" s="24">
         <v>267</v>
       </c>
@@ -11854,7 +11262,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -11880,7 +11288,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -11906,7 +11314,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -11932,7 +11340,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -11958,7 +11366,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -11984,7 +11392,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -12010,7 +11418,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -12036,7 +11444,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -12059,7 +11467,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -12085,7 +11493,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" ht="16.5" spans="1:9">
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -12111,7 +11519,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" ht="16.5" spans="1:9">
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="15">
         <v>278</v>
       </c>
@@ -12134,7 +11542,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" ht="16.5" spans="1:9">
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="15">
         <v>279</v>
       </c>
@@ -12160,7 +11568,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" ht="16.5" spans="1:9">
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="15">
         <v>280</v>
       </c>
@@ -12186,7 +11594,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" ht="16.5" spans="1:9">
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="15">
         <v>281</v>
       </c>
@@ -12212,7 +11620,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" ht="16.5" spans="1:9">
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="15">
         <v>282</v>
       </c>
@@ -12238,7 +11646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A284" s="15">
         <v>283</v>
       </c>
@@ -12264,7 +11672,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -12290,7 +11698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -12316,7 +11724,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
+    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -12342,7 +11750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -12368,7 +11776,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="289" ht="16.5" spans="1:9">
+    <row r="289" spans="1:36" ht="16.5">
       <c r="A289" s="15">
         <v>288</v>
       </c>
@@ -12394,7 +11802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -12420,7 +11828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -12446,7 +11854,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" ht="16.5" spans="1:9">
+    <row r="292" spans="1:36" ht="16.5">
       <c r="A292" s="15">
         <v>291</v>
       </c>
@@ -12472,7 +11880,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" ht="16.5" spans="1:9">
+    <row r="293" spans="1:36" ht="16.5">
       <c r="A293" s="15">
         <v>292</v>
       </c>
@@ -12498,7 +11906,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" ht="16.5" spans="1:9">
+    <row r="294" spans="1:36" ht="16.5">
       <c r="A294" s="15">
         <v>293</v>
       </c>
@@ -12525,7 +11933,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A295" s="15">
         <v>294</v>
       </c>
@@ -12579,7 +11987,7 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A296" s="15">
         <v>295</v>
       </c>
@@ -12633,7 +12041,7 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A297" s="15">
         <v>296</v>
       </c>
@@ -12687,7 +12095,7 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" ht="16.5" spans="1:36">
+    <row r="298" spans="1:36" ht="16.5">
       <c r="A298" s="15">
         <v>297</v>
       </c>
@@ -12741,7 +12149,7 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
+    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
       <c r="A299" s="15">
         <v>298</v>
       </c>
@@ -12795,7 +12203,7 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" ht="16.5" spans="1:9">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12822,7 +12230,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12849,7 +12257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" ht="16.5" spans="1:9">
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12876,7 +12284,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="16.5" spans="1:9">
+    <row r="303" spans="1:36" ht="16.5">
       <c r="A303" s="15">
         <v>302</v>
       </c>
@@ -12903,7 +12311,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="304" ht="16.5" spans="1:9">
+    <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="15">
         <v>303</v>
       </c>
@@ -12930,7 +12338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A305" s="15">
         <v>304</v>
       </c>
@@ -12956,7 +12364,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A306" s="15">
         <v>305</v>
       </c>
@@ -12982,7 +12390,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" ht="16.5" spans="1:7">
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="15">
         <v>306</v>
       </c>
@@ -13005,7 +12413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -13031,7 +12439,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A309" s="15">
         <v>308</v>
       </c>
@@ -13057,7 +12465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -13083,7 +12491,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -13109,7 +12517,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -13132,7 +12540,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A313" s="15">
         <v>312</v>
       </c>
@@ -13155,7 +12563,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A314" s="15">
         <v>313</v>
       </c>
@@ -13178,7 +12586,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A315" s="15">
         <v>314</v>
       </c>
@@ -13201,7 +12609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A316" s="15">
         <v>315</v>
       </c>
@@ -13224,7 +12632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A317" s="15">
         <v>316</v>
       </c>
@@ -13250,7 +12658,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A318" s="15">
         <v>317</v>
       </c>
@@ -13274,7 +12682,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A319" s="15">
         <v>318</v>
       </c>
@@ -13300,7 +12708,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A320" s="15">
         <v>319</v>
       </c>
@@ -13323,7 +12731,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A321" s="15">
         <v>320</v>
       </c>
@@ -13352,7 +12760,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A322" s="15">
         <v>321</v>
       </c>
@@ -13378,7 +12786,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A323" s="15">
         <v>322</v>
       </c>
@@ -13404,7 +12812,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" ht="16.5" spans="1:9">
+    <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="15">
         <v>323</v>
       </c>
@@ -13430,7 +12838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" ht="16.5" spans="1:9">
+    <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="15">
         <v>324</v>
       </c>
@@ -13456,7 +12864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" ht="16.5" spans="1:9">
+    <row r="326" spans="1:9" ht="16.5">
       <c r="A326" s="15">
         <v>325</v>
       </c>
@@ -13482,7 +12890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
       <c r="A327" s="15">
         <v>326</v>
       </c>
@@ -13508,7 +12916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" ht="16.5" spans="1:9">
+    <row r="328" spans="1:9" ht="16.5">
       <c r="A328" s="15">
         <v>327</v>
       </c>
@@ -13534,7 +12942,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="329" ht="16.5" spans="1:9">
+    <row r="329" spans="1:9" ht="16.5">
       <c r="A329" s="15">
         <v>328</v>
       </c>
@@ -13560,91 +12968,91 @@
         <v>960</v>
       </c>
     </row>
-    <row r="330" ht="16.5" spans="1:9">
+    <row r="330" spans="1:9" ht="16.5">
       <c r="A330" s="15">
         <v>329</v>
       </c>
       <c r="B330" s="51" t="s">
+        <v>978</v>
+      </c>
+      <c r="C330" s="31" t="s">
         <v>961</v>
       </c>
-      <c r="C330" s="31" t="s">
+      <c r="E330" s="5">
+        <v>1</v>
+      </c>
+      <c r="F330" s="5">
+        <v>1</v>
+      </c>
+      <c r="G330" s="5">
+        <v>1</v>
+      </c>
+      <c r="I330" s="31" t="s">
         <v>962</v>
       </c>
-      <c r="E330" s="5">
-        <v>1</v>
-      </c>
-      <c r="F330" s="5">
-        <v>1</v>
-      </c>
-      <c r="G330" s="5">
-        <v>1</v>
-      </c>
-      <c r="I330" s="31" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="331" ht="16.5" spans="1:9">
+    </row>
+    <row r="331" spans="1:9" ht="16.5">
       <c r="A331" s="15">
         <v>330</v>
       </c>
       <c r="B331" s="51" t="s">
+        <v>963</v>
+      </c>
+      <c r="C331" s="31" t="s">
         <v>964</v>
       </c>
-      <c r="C331" s="31" t="s">
+      <c r="D331" s="18" t="s">
         <v>965</v>
       </c>
-      <c r="D331" s="18" t="s">
+      <c r="E331" s="5">
+        <v>1</v>
+      </c>
+      <c r="F331" s="5">
+        <v>1</v>
+      </c>
+      <c r="G331" s="5">
+        <v>1</v>
+      </c>
+      <c r="I331" s="31" t="s">
         <v>966</v>
       </c>
-      <c r="E331" s="5">
-        <v>1</v>
-      </c>
-      <c r="F331" s="5">
-        <v>1</v>
-      </c>
-      <c r="G331" s="5">
-        <v>1</v>
-      </c>
-      <c r="I331" s="31" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="332" ht="16.5" spans="1:9">
+    </row>
+    <row r="332" spans="1:9" ht="16.5">
       <c r="A332" s="15">
         <v>331</v>
       </c>
       <c r="B332" s="52" t="s">
+        <v>967</v>
+      </c>
+      <c r="C332" t="s">
         <v>968</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" s="53" t="s">
         <v>969</v>
       </c>
-      <c r="D332" s="53" t="s">
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>1</v>
+      </c>
+      <c r="G332">
+        <v>1</v>
+      </c>
+      <c r="I332" t="s">
         <v>970</v>
       </c>
-      <c r="E332">
-        <v>1</v>
-      </c>
-      <c r="F332">
-        <v>1</v>
-      </c>
-      <c r="G332">
-        <v>1</v>
-      </c>
-      <c r="I332" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="333" ht="16.5" spans="1:9">
+    </row>
+    <row r="333" spans="1:9" ht="16.5">
       <c r="A333" s="15">
         <v>332</v>
       </c>
       <c r="B333" s="51" t="s">
+        <v>971</v>
+      </c>
+      <c r="C333" t="s">
         <v>972</v>
       </c>
-      <c r="C333" t="s">
-        <v>973</v>
-      </c>
       <c r="E333">
         <v>1</v>
       </c>
@@ -13655,69 +13063,66 @@
         <v>1</v>
       </c>
       <c r="I333" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="334" ht="15.75" spans="1:9">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="15.75">
       <c r="A334" s="5">
         <v>333</v>
       </c>
       <c r="B334" s="52" t="s">
+        <v>973</v>
+      </c>
+      <c r="C334" t="s">
         <v>974</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" s="52" t="s">
         <v>975</v>
       </c>
-      <c r="D334" s="52" t="s">
+      <c r="E334" s="5">
+        <v>1</v>
+      </c>
+      <c r="F334" s="5">
+        <v>1</v>
+      </c>
+      <c r="G334" s="5">
+        <v>1</v>
+      </c>
+      <c r="I334" s="31" t="s">
         <v>976</v>
       </c>
-      <c r="E334" s="5">
-        <v>1</v>
-      </c>
-      <c r="F334" s="5">
-        <v>1</v>
-      </c>
-      <c r="G334" s="5">
-        <v>1</v>
-      </c>
-      <c r="I334" s="31" t="s">
-        <v>977</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H333">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H333"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+        <v>977</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_5.11/game_module_config_cjj.xlsx
+++ b/config_5.11/game_module_config_cjj.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="980">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3142,7 +3142,7 @@
     <t>Act_ty_HLQJDManager</t>
   </si>
   <si>
-    <t>3月15日23:59:59</t>
+    <t>5月17日23:59:59</t>
   </si>
   <si>
     <t>act_030_hd_zjm</t>
@@ -3583,6 +3583,9 @@
     <t>Act_045_XXLBDManger</t>
   </si>
   <si>
+    <t>3月15日23:59:59</t>
+  </si>
+  <si>
     <t>act_ty_lb1_style/act_003_tylb1</t>
   </si>
   <si>
@@ -3796,10 +3799,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -3881,6 +3884,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -3889,8 +3929,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3907,66 +3991,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3975,7 +3999,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3989,33 +4013,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4025,12 +4025,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="43">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4099,7 +4102,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4111,37 +4216,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4153,31 +4240,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4189,97 +4258,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4309,6 +4300,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -4328,41 +4352,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4399,9 +4388,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4413,10 +4404,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4425,137 +4416,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5044,11 +5035,11 @@
   <dimension ref="A1:AJ334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D272" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C338" sqref="C338"/>
+      <selection pane="bottomRight" activeCell="J277" sqref="J277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12036,13 +12027,13 @@
         <v>795</v>
       </c>
       <c r="E275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" s="31" t="s">
         <v>796</v>
@@ -13259,7 +13250,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="36" t="s">
-        <v>796</v>
+        <v>924</v>
       </c>
     </row>
     <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13267,10 +13258,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="49" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C318" s="31" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D318" s="32"/>
       <c r="E318" s="5">
@@ -13283,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="I318" s="31" t="s">
-        <v>796</v>
+        <v>924</v>
       </c>
     </row>
     <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13291,13 +13282,13 @@
         <v>318</v>
       </c>
       <c r="B319" s="32" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C319" s="31" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D319" s="32" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E319" s="5">
         <v>0</v>
@@ -13309,7 +13300,7 @@
         <v>0</v>
       </c>
       <c r="I319" s="31" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13317,22 +13308,22 @@
         <v>319</v>
       </c>
       <c r="B320" s="32" t="s">
+        <v>931</v>
+      </c>
+      <c r="C320" s="31" t="s">
+        <v>932</v>
+      </c>
+      <c r="E320" s="5">
+        <v>0</v>
+      </c>
+      <c r="F320" s="5">
+        <v>0</v>
+      </c>
+      <c r="G320" s="5">
+        <v>0</v>
+      </c>
+      <c r="I320" s="31" t="s">
         <v>930</v>
-      </c>
-      <c r="C320" s="31" t="s">
-        <v>931</v>
-      </c>
-      <c r="E320" s="5">
-        <v>0</v>
-      </c>
-      <c r="F320" s="5">
-        <v>0</v>
-      </c>
-      <c r="G320" s="5">
-        <v>0</v>
-      </c>
-      <c r="I320" s="31" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13340,13 +13331,13 @@
         <v>320</v>
       </c>
       <c r="B321" s="32" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C321" s="50" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D321" s="32" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E321" s="5">
         <v>0</v>
@@ -13358,10 +13349,10 @@
         <v>0</v>
       </c>
       <c r="H321" s="5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="I321" s="31" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13369,13 +13360,13 @@
         <v>321</v>
       </c>
       <c r="B322" s="32" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C322" s="31" t="s">
         <v>476</v>
       </c>
       <c r="D322" s="32" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E322" s="5">
         <v>0</v>
@@ -13387,7 +13378,7 @@
         <v>0</v>
       </c>
       <c r="I322" s="31" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
@@ -13395,13 +13386,13 @@
         <v>322</v>
       </c>
       <c r="B323" s="32" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C323" s="31" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D323" s="32" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E323" s="5">
         <v>0</v>
@@ -13421,13 +13412,13 @@
         <v>323</v>
       </c>
       <c r="B324" s="51" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C324" s="31" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D324" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E324" s="5">
         <v>1</v>
@@ -13447,13 +13438,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C325" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D325" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="E325">
         <v>1</v>
@@ -13473,13 +13464,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="32" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C326" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D326" s="32" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E326">
         <v>1</v>
@@ -13499,13 +13490,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="40" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C327" s="41" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D327" s="40" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E327" s="9">
         <v>1</v>
@@ -13525,13 +13516,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="18" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C328" s="18" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D328" s="18" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E328">
         <v>1</v>
@@ -13543,7 +13534,7 @@
         <v>1</v>
       </c>
       <c r="I328" s="18" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="329" ht="16.5" spans="1:9">
@@ -13551,13 +13542,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="51" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C329" s="31" t="s">
         <v>166</v>
       </c>
       <c r="D329" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="E329" s="5">
         <v>1</v>
@@ -13569,7 +13560,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="31" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="330" ht="16.5" spans="1:9">
@@ -13577,10 +13568,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="51" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C330" s="31" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -13592,7 +13583,7 @@
         <v>1</v>
       </c>
       <c r="I330" s="31" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="331" ht="16.5" spans="1:9">
@@ -13600,13 +13591,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="51" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C331" s="31" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D331" s="18" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13618,7 +13609,7 @@
         <v>1</v>
       </c>
       <c r="I331" s="31" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="332" ht="16.5" spans="1:9">
@@ -13626,13 +13617,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="52" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C332" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D332" s="53" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E332">
         <v>1</v>
@@ -13644,7 +13635,7 @@
         <v>1</v>
       </c>
       <c r="I332" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="333" ht="16.5" spans="1:9">
@@ -13652,22 +13643,22 @@
         <v>332</v>
       </c>
       <c r="B333" s="51" t="s">
+        <v>973</v>
+      </c>
+      <c r="C333" t="s">
+        <v>974</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="G333">
+        <v>1</v>
+      </c>
+      <c r="I333" t="s">
         <v>972</v>
-      </c>
-      <c r="C333" t="s">
-        <v>973</v>
-      </c>
-      <c r="E333">
-        <v>1</v>
-      </c>
-      <c r="F333">
-        <v>1</v>
-      </c>
-      <c r="G333">
-        <v>1</v>
-      </c>
-      <c r="I333" t="s">
-        <v>971</v>
       </c>
     </row>
     <row r="334" ht="15.75" spans="1:9">
@@ -13675,13 +13666,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="52" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C334" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D334" s="52" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="E334" s="5">
         <v>1</v>
@@ -13693,7 +13684,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="31" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
   </sheetData>
@@ -13723,7 +13714,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_5.11/game_module_config_cjj.xlsx
+++ b/config_5.11/game_module_config_cjj.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.11\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$334</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$335</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="983">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -506,7 +511,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -524,7 +529,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -542,7 +547,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -560,7 +565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1278,7 +1283,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1373,7 +1378,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1411,7 +1416,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1446,7 +1451,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1464,7 +1469,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1490,7 +1495,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1525,7 +1530,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1560,7 +1565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1663,7 +1668,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1698,7 +1703,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1733,7 +1738,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1768,7 +1773,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1803,7 +1808,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1838,7 +1843,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1873,7 +1878,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2002,7 +2007,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2028,7 +2033,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3793,18 +3798,24 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
+  <si>
+    <t>act_cjj_by_byam_guide</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲金鸡引导到捕鱼奥秘</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActCJJBYBYAMManager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3828,7 +3839,7 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3846,12 +3857,12 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3863,13 +3874,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3881,27 +3892,22 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3910,130 +3916,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF171A1D"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="41">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4042,13 +3945,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399914548173467"/>
+        <fgColor theme="4" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4072,13 +3975,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799920651875362"/>
+        <fgColor theme="4" tint="0.79989013336588644"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4090,192 +3993,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.39988402966399123"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4298,257 +4027,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4585,13 +4072,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4711,64 +4198,26 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5026,20 +4475,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AJ334"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D272" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J277" sqref="J277"/>
+      <selection pane="bottomRight" activeCell="I339" sqref="I339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5055,7 +4503,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -5084,7 +4532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -5110,7 +4558,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:9">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -5136,7 +4584,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -5162,7 +4610,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="16.5" spans="1:9">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -5188,7 +4636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="16.5" spans="1:9">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -5214,7 +4662,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -5240,7 +4688,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" ht="16.5" spans="1:9">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -5266,7 +4714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" ht="16.5" spans="1:9">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -5292,7 +4740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="16.5" spans="1:9">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -5318,7 +4766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:9">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -5344,7 +4792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:9">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -5370,7 +4818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:9">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -5396,7 +4844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:9">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -5422,7 +4870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="1:9">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -5448,7 +4896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:9">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -5474,7 +4922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:9">
+    <row r="17" spans="1:9" ht="16.5">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -5500,7 +4948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="1:9">
+    <row r="18" spans="1:9" ht="16.5">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -5526,7 +4974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="1:9">
+    <row r="19" spans="1:9" ht="16.5">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5552,7 +5000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="1:9">
+    <row r="20" spans="1:9" ht="16.5">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5578,7 +5026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="1:9">
+    <row r="21" spans="1:9" ht="16.5">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5604,7 +5052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="1:9">
+    <row r="22" spans="1:9" ht="16.5">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5630,7 +5078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="1:9">
+    <row r="23" spans="1:9" ht="16.5">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5656,7 +5104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="1:9">
+    <row r="24" spans="1:9" ht="16.5">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5682,7 +5130,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:9">
+    <row r="25" spans="1:9" ht="16.5">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5708,7 +5156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:9">
+    <row r="26" spans="1:9" ht="16.5">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5734,7 +5182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="1:9">
+    <row r="27" spans="1:9" ht="16.5">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5760,7 +5208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="1:9">
+    <row r="28" spans="1:9" ht="16.5">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5786,7 +5234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="1:9">
+    <row r="29" spans="1:9" ht="16.5">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5812,7 +5260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="1:9">
+    <row r="30" spans="1:9" ht="16.5">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5838,7 +5286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="1:9">
+    <row r="31" spans="1:9" ht="16.5">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5864,7 +5312,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" ht="16.5" spans="1:9">
+    <row r="32" spans="1:9" ht="16.5">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5890,7 +5338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="1:9">
+    <row r="33" spans="1:9" ht="16.5">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5916,7 +5364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="16.5" spans="1:9">
+    <row r="34" spans="1:9" ht="16.5">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5942,7 +5390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="1:9">
+    <row r="35" spans="1:9" ht="16.5">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5968,7 +5416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" ht="16.5" spans="1:9">
+    <row r="36" spans="1:9" ht="16.5">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5994,7 +5442,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" ht="16.5" spans="1:9">
+    <row r="37" spans="1:9" ht="16.5">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -6020,7 +5468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:9">
+    <row r="38" spans="1:9" ht="16.5">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -6046,7 +5494,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" ht="16.5" spans="1:9">
+    <row r="39" spans="1:9" ht="16.5">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -6072,7 +5520,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="16.5" spans="1:9">
+    <row r="40" spans="1:9" ht="16.5">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -6098,7 +5546,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" ht="16.5" spans="1:9">
+    <row r="41" spans="1:9" ht="16.5">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -6124,7 +5572,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" ht="16.5" spans="1:9">
+    <row r="42" spans="1:9" ht="16.5">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -6150,7 +5598,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" ht="16.5" spans="1:9">
+    <row r="43" spans="1:9" ht="16.5">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -6176,7 +5624,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" ht="16.5" spans="1:9">
+    <row r="44" spans="1:9" ht="16.5">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -6202,7 +5650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" ht="16.5" spans="1:9">
+    <row r="45" spans="1:9" ht="16.5">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -6228,7 +5676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" ht="16.5" spans="1:9">
+    <row r="46" spans="1:9" ht="16.5">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -6254,7 +5702,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" ht="16.5" spans="1:9">
+    <row r="47" spans="1:9" ht="16.5">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -6280,7 +5728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" ht="16.5" spans="1:9">
+    <row r="48" spans="1:9" ht="16.5">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -6306,7 +5754,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" ht="16.5" spans="1:9">
+    <row r="49" spans="1:9" ht="16.5">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -6332,7 +5780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" ht="16.5" spans="1:9">
+    <row r="50" spans="1:9" ht="16.5">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -6358,7 +5806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" ht="16.5" spans="1:9">
+    <row r="51" spans="1:9" ht="16.5">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -6384,7 +5832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" ht="16.5" spans="1:9">
+    <row r="52" spans="1:9" ht="16.5">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -6408,7 +5856,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -6434,7 +5882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" ht="16.5" spans="1:9">
+    <row r="54" spans="1:9" ht="16.5">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -6460,7 +5908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" ht="16.5" spans="1:9">
+    <row r="55" spans="1:9" ht="16.5">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -6486,7 +5934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" ht="16.5" spans="1:9">
+    <row r="56" spans="1:9" ht="16.5">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -6512,7 +5960,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" ht="16.5" spans="1:9">
+    <row r="57" spans="1:9" ht="16.5">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -6538,7 +5986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" ht="16.5" spans="1:9">
+    <row r="58" spans="1:9" ht="16.5">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6564,7 +6012,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" ht="16.5" spans="1:9">
+    <row r="59" spans="1:9" ht="16.5">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6590,7 +6038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" ht="16.5" spans="1:9">
+    <row r="60" spans="1:9" ht="16.5">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6616,7 +6064,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" ht="16.5" spans="1:9">
+    <row r="61" spans="1:9" ht="16.5">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6642,7 +6090,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" ht="16.5" spans="1:9">
+    <row r="62" spans="1:9" ht="16.5">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6668,7 +6116,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="16.5" spans="1:9">
+    <row r="63" spans="1:9" ht="16.5">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6694,7 +6142,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" ht="16.5" spans="1:9">
+    <row r="64" spans="1:9" ht="16.5">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6720,7 +6168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" ht="16.5" spans="1:9">
+    <row r="65" spans="1:9" ht="16.5">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6746,7 +6194,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" ht="16.5" spans="1:9">
+    <row r="66" spans="1:9" ht="16.5">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6772,7 +6220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" ht="16.5" spans="1:9">
+    <row r="67" spans="1:9" ht="16.5">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6798,7 +6246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" ht="16.5" spans="1:9">
+    <row r="68" spans="1:9" ht="16.5">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6824,7 +6272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" ht="16.5" spans="1:9">
+    <row r="69" spans="1:9" ht="16.5">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6850,7 +6298,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" ht="16.5" spans="1:9">
+    <row r="70" spans="1:9" ht="16.5">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6876,7 +6324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" ht="16.5" spans="1:9">
+    <row r="71" spans="1:9" ht="16.5">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6902,7 +6350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" ht="16.5" spans="1:9">
+    <row r="72" spans="1:9" ht="16.5">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6928,7 +6376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" ht="16.5" spans="1:9">
+    <row r="73" spans="1:9" ht="16.5">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6954,7 +6402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
+    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -6980,7 +6428,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" ht="16.5" spans="1:9">
+    <row r="75" spans="1:9" ht="16.5">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -7006,7 +6454,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -7032,7 +6480,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" ht="16.5" spans="1:9">
+    <row r="77" spans="1:9" ht="16.5">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -7058,7 +6506,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" ht="16.5" spans="1:9">
+    <row r="78" spans="1:9" ht="16.5">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -7084,7 +6532,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" ht="16.5" spans="1:9">
+    <row r="79" spans="1:9" ht="16.5">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -7110,7 +6558,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" ht="16.5" spans="1:9">
+    <row r="80" spans="1:9" ht="16.5">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -7136,7 +6584,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" ht="16.5" spans="1:9">
+    <row r="81" spans="1:9" ht="16.5">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -7162,7 +6610,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" ht="16.5" spans="1:9">
+    <row r="82" spans="1:9" ht="16.5">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -7188,7 +6636,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" ht="16.5" spans="1:9">
+    <row r="83" spans="1:9" ht="16.5">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -7214,7 +6662,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" ht="16.5" spans="1:9">
+    <row r="84" spans="1:9" ht="16.5">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -7240,7 +6688,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" ht="16.5" spans="1:9">
+    <row r="85" spans="1:9" ht="16.5">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -7266,7 +6714,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" ht="16.5" spans="1:9">
+    <row r="86" spans="1:9" ht="16.5">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -7292,7 +6740,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" ht="16.5" spans="1:9">
+    <row r="87" spans="1:9" ht="16.5">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -7318,7 +6766,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" ht="16.5" spans="1:9">
+    <row r="88" spans="1:9" ht="16.5">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -7344,7 +6792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" ht="16.5" spans="1:9">
+    <row r="89" spans="1:9" ht="16.5">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -7370,7 +6818,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" ht="16.5" spans="1:9">
+    <row r="90" spans="1:9" ht="16.5">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -7396,7 +6844,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" ht="16.5" spans="1:9">
+    <row r="91" spans="1:9" ht="16.5">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -7422,7 +6870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" ht="16.5" spans="1:9">
+    <row r="92" spans="1:9" ht="16.5">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -7448,7 +6896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" ht="16.5" spans="1:9">
+    <row r="93" spans="1:9" ht="16.5">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -7474,7 +6922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" ht="16.5" spans="1:9">
+    <row r="94" spans="1:9" ht="16.5">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -7500,7 +6948,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" ht="16.5" spans="1:9">
+    <row r="95" spans="1:9" ht="16.5">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -7526,7 +6974,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" ht="16.5" spans="1:9">
+    <row r="96" spans="1:9" ht="16.5">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -7552,7 +7000,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" ht="16.5" spans="1:9">
+    <row r="97" spans="1:9" ht="16.5">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -7578,7 +7026,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" ht="16.5" spans="1:9">
+    <row r="98" spans="1:9" ht="16.5">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7604,7 +7052,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" ht="16.5" spans="1:9">
+    <row r="99" spans="1:9" ht="16.5">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7630,7 +7078,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" ht="16.5" spans="1:9">
+    <row r="100" spans="1:9" ht="16.5">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7656,7 +7104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" ht="16.5" spans="1:9">
+    <row r="101" spans="1:9" ht="16.5">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7682,7 +7130,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" ht="16.5" spans="1:9">
+    <row r="102" spans="1:9" ht="16.5">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7708,7 +7156,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" ht="16.5" spans="1:9">
+    <row r="103" spans="1:9" ht="16.5">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7734,7 +7182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" ht="16.5" spans="1:9">
+    <row r="104" spans="1:9" ht="16.5">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7760,7 +7208,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" ht="16.5" spans="1:9">
+    <row r="105" spans="1:9" ht="16.5">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7786,7 +7234,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" ht="16.5" spans="1:9">
+    <row r="106" spans="1:9" ht="16.5">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7812,7 +7260,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" ht="16.5" spans="1:9">
+    <row r="107" spans="1:9" ht="16.5">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7838,7 +7286,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" ht="16.5" spans="1:9">
+    <row r="108" spans="1:9" ht="16.5">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7864,7 +7312,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" ht="16.5" spans="1:9">
+    <row r="109" spans="1:9" ht="16.5">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7890,7 +7338,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" ht="16.5" spans="1:9">
+    <row r="110" spans="1:9" ht="16.5">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7916,7 +7364,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" ht="16.5" spans="1:9">
+    <row r="111" spans="1:9" ht="16.5">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7942,7 +7390,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" ht="16.5" spans="1:9">
+    <row r="112" spans="1:9" ht="16.5">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7968,7 +7416,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" ht="16.5" spans="1:9">
+    <row r="113" spans="1:9" ht="16.5">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -7994,7 +7442,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" ht="16.5" spans="1:9">
+    <row r="114" spans="1:9" ht="16.5">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -8020,7 +7468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" ht="16.5" spans="1:9">
+    <row r="115" spans="1:9" ht="16.5">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -8046,7 +7494,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" ht="16.5" spans="1:9">
+    <row r="116" spans="1:9" ht="16.5">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -8072,7 +7520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" ht="16.5" spans="1:9">
+    <row r="117" spans="1:9" ht="16.5">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -8098,7 +7546,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" ht="16.5" spans="1:9">
+    <row r="118" spans="1:9" ht="16.5">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -8124,7 +7572,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A119" s="24">
         <v>118</v>
       </c>
@@ -8150,7 +7598,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" ht="16.5" spans="1:9">
+    <row r="120" spans="1:9" ht="16.5">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -8176,7 +7624,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" ht="16.5" spans="1:9">
+    <row r="121" spans="1:9" ht="16.5">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -8202,7 +7650,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" ht="16.5" spans="1:9">
+    <row r="122" spans="1:9" ht="16.5">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -8228,7 +7676,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" ht="16.5" spans="1:9">
+    <row r="123" spans="1:9" ht="16.5">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -8254,7 +7702,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" ht="16.5" spans="1:9">
+    <row r="124" spans="1:9" ht="16.5">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -8280,7 +7728,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" ht="16.5" spans="1:9">
+    <row r="125" spans="1:9" ht="16.5">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -8306,7 +7754,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" ht="16.5" spans="1:9">
+    <row r="126" spans="1:9" ht="16.5">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -8332,7 +7780,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" ht="16.5" spans="1:9">
+    <row r="127" spans="1:9" ht="16.5">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -8358,7 +7806,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" ht="16.5" spans="1:9">
+    <row r="128" spans="1:9" ht="16.5">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -8384,7 +7832,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" ht="16.5" spans="1:9">
+    <row r="129" spans="1:9" ht="16.5">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -8410,7 +7858,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" ht="16.5" spans="1:9">
+    <row r="130" spans="1:9" ht="16.5">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -8436,7 +7884,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" ht="16.5" spans="1:9">
+    <row r="131" spans="1:9" ht="16.5">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -8462,7 +7910,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" ht="16.5" spans="1:9">
+    <row r="132" spans="1:9" ht="16.5">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -8488,7 +7936,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" ht="16.5" spans="1:9">
+    <row r="133" spans="1:9" ht="16.5">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -8514,7 +7962,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" ht="16.5" spans="1:9">
+    <row r="134" spans="1:9" ht="16.5">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -8540,7 +7988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" ht="16.5" spans="1:9">
+    <row r="135" spans="1:9" ht="16.5">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -8566,7 +8014,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" ht="16.5" spans="1:9">
+    <row r="136" spans="1:9" ht="16.5">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -8592,7 +8040,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" ht="16.5" spans="1:9">
+    <row r="137" spans="1:9" ht="16.5">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8618,7 +8066,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" ht="16.5" spans="1:9">
+    <row r="138" spans="1:9" ht="16.5">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8644,7 +8092,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" ht="16.5" spans="1:9">
+    <row r="139" spans="1:9" ht="16.5">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8670,7 +8118,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" ht="16.5" spans="1:9">
+    <row r="140" spans="1:9" ht="16.5">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8696,7 +8144,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" ht="16.5" spans="1:9">
+    <row r="141" spans="1:9" ht="16.5">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8722,7 +8170,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" ht="16.5" spans="1:9">
+    <row r="142" spans="1:9" ht="16.5">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8748,7 +8196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" ht="16.5" spans="1:9">
+    <row r="143" spans="1:9" ht="16.5">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8774,7 +8222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" ht="16.5" spans="1:9">
+    <row r="144" spans="1:9" ht="16.5">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8800,7 +8248,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" ht="16.5" spans="1:9">
+    <row r="145" spans="1:9" ht="16.5">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -8826,7 +8274,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" ht="16.5" spans="1:9">
+    <row r="146" spans="1:9" ht="16.5">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8852,7 +8300,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" ht="16.5" spans="1:9">
+    <row r="147" spans="1:9" ht="16.5">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8878,7 +8326,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" ht="16.5" spans="1:9">
+    <row r="148" spans="1:9" ht="16.5">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8904,7 +8352,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" ht="16.5" spans="1:9">
+    <row r="149" spans="1:9" ht="16.5">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8930,7 +8378,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" ht="16.5" spans="1:9">
+    <row r="150" spans="1:9" ht="16.5">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8956,7 +8404,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" ht="16.5" spans="1:9">
+    <row r="151" spans="1:9" ht="16.5">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -8982,7 +8430,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" ht="16.5" spans="1:9">
+    <row r="152" spans="1:9" ht="16.5">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -9008,7 +8456,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" ht="16.5" spans="1:9">
+    <row r="153" spans="1:9" ht="16.5">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -9034,7 +8482,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" ht="16.5" spans="1:9">
+    <row r="154" spans="1:9" ht="16.5">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -9060,7 +8508,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" ht="16.5" spans="1:9">
+    <row r="155" spans="1:9" ht="16.5">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -9086,7 +8534,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" ht="16.5" spans="1:9">
+    <row r="156" spans="1:9" ht="16.5">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -9112,7 +8560,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" ht="16.5" spans="1:9">
+    <row r="157" spans="1:9" ht="16.5">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -9138,7 +8586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" ht="16.5" spans="1:9">
+    <row r="158" spans="1:9" ht="16.5">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -9164,7 +8612,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" ht="16.5" spans="1:9">
+    <row r="159" spans="1:9" ht="16.5">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -9190,7 +8638,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" ht="16.5" spans="1:9">
+    <row r="160" spans="1:9" ht="16.5">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -9216,7 +8664,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" ht="16.5" spans="1:9">
+    <row r="161" spans="1:9" ht="16.5">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -9242,7 +8690,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" ht="16.5" spans="1:9">
+    <row r="162" spans="1:9" ht="16.5">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -9268,7 +8716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" ht="16.5" spans="1:9">
+    <row r="163" spans="1:9" ht="16.5">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -9294,7 +8742,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" ht="16.5" spans="1:9">
+    <row r="164" spans="1:9" ht="16.5">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -9320,7 +8768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" ht="16.5" spans="1:9">
+    <row r="165" spans="1:9" ht="16.5">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -9346,7 +8794,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" ht="16.5" spans="1:9">
+    <row r="166" spans="1:9" ht="16.5">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -9372,7 +8820,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" ht="16.5" spans="1:9">
+    <row r="167" spans="1:9" ht="16.5">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -9398,7 +8846,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" ht="16.5" spans="1:9">
+    <row r="168" spans="1:9" ht="16.5">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -9424,7 +8872,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" ht="16.5" spans="1:9">
+    <row r="169" spans="1:9" ht="16.5">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -9448,7 +8896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" ht="16.5" spans="1:9">
+    <row r="170" spans="1:9" ht="16.5">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -9472,7 +8920,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" ht="16.5" spans="1:9">
+    <row r="171" spans="1:9" ht="16.5">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -9496,7 +8944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" ht="16.5" spans="1:9">
+    <row r="172" spans="1:9" ht="16.5">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -9520,7 +8968,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" ht="16.5" spans="1:9">
+    <row r="173" spans="1:9" ht="16.5">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -9546,7 +8994,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" ht="16.5" spans="1:9">
+    <row r="174" spans="1:9" ht="16.5">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -9570,7 +9018,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" ht="16.5" spans="1:9">
+    <row r="175" spans="1:9" ht="16.5">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -9594,7 +9042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" ht="16.5" spans="1:9">
+    <row r="176" spans="1:9" ht="16.5">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9618,7 +9066,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" ht="16.5" spans="1:9">
+    <row r="177" spans="1:9" ht="16.5">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9644,7 +9092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" ht="16.5" spans="1:9">
+    <row r="178" spans="1:9" ht="16.5">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9670,7 +9118,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" ht="16.5" spans="1:9">
+    <row r="179" spans="1:9" ht="16.5">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9694,7 +9142,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -9718,7 +9166,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -9742,7 +9190,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -9766,7 +9214,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" ht="16.5" spans="1:9">
+    <row r="183" spans="1:9" ht="16.5">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9789,7 +9237,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" ht="16.5" spans="1:9">
+    <row r="184" spans="1:9" ht="16.5">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9812,7 +9260,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" ht="16.5" spans="1:9">
+    <row r="185" spans="1:9" ht="16.5">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9835,7 +9283,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" ht="16.5" spans="1:9">
+    <row r="186" spans="1:9" ht="16.5">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9858,7 +9306,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" ht="16.5" spans="1:9">
+    <row r="187" spans="1:9" ht="16.5">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9881,7 +9329,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" ht="16.5" spans="1:9">
+    <row r="188" spans="1:9" ht="16.5">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9904,7 +9352,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" ht="16.5" spans="1:9">
+    <row r="189" spans="1:9" ht="16.5">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9927,7 +9375,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" ht="16.5" spans="1:9">
+    <row r="190" spans="1:9" ht="16.5">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9950,7 +9398,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" ht="16.5" spans="1:9">
+    <row r="191" spans="1:9" ht="16.5">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -9973,7 +9421,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" ht="16.5" spans="1:9">
+    <row r="192" spans="1:9" ht="16.5">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -9996,7 +9444,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" ht="16.5" spans="1:9">
+    <row r="193" spans="1:9" ht="16.5">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -10019,7 +9467,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" ht="16.5" spans="1:9">
+    <row r="194" spans="1:9" ht="16.5">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -10042,7 +9490,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" ht="16.5" spans="1:9">
+    <row r="195" spans="1:9" ht="16.5">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -10065,7 +9513,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" ht="16.5" spans="1:9">
+    <row r="196" spans="1:9" ht="16.5">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -10088,7 +9536,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" ht="16.5" spans="1:9">
+    <row r="197" spans="1:9" ht="16.5">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -10111,7 +9559,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" ht="16.5" spans="1:9">
+    <row r="198" spans="1:9" ht="16.5">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -10134,7 +9582,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" ht="16.5" spans="1:9">
+    <row r="199" spans="1:9" ht="16.5">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -10157,7 +9605,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" ht="16.5" spans="1:9">
+    <row r="200" spans="1:9" ht="16.5">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -10180,7 +9628,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" ht="16.5" spans="1:9">
+    <row r="201" spans="1:9" ht="16.5">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -10203,7 +9651,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" ht="16.5" spans="1:9">
+    <row r="202" spans="1:9" ht="16.5">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -10226,7 +9674,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" ht="16.5" spans="1:9">
+    <row r="203" spans="1:9" ht="16.5">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -10249,7 +9697,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" ht="16.5" spans="1:9">
+    <row r="204" spans="1:9" ht="16.5">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -10275,7 +9723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" ht="16.5" spans="1:9">
+    <row r="205" spans="1:9" ht="16.5">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -10301,7 +9749,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" ht="16.5" spans="1:9">
+    <row r="206" spans="1:9" ht="16.5">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -10327,7 +9775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" ht="16.5" spans="1:9">
+    <row r="207" spans="1:9" ht="16.5">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -10350,7 +9798,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" ht="16.5" spans="1:9">
+    <row r="208" spans="1:9" ht="16.5">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -10373,7 +9821,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" ht="16.5" spans="1:9">
+    <row r="209" spans="1:9" ht="16.5">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -10396,7 +9844,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" ht="16.5" spans="1:9">
+    <row r="210" spans="1:9" ht="16.5">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -10419,7 +9867,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" ht="16.5" spans="1:9">
+    <row r="211" spans="1:9" ht="16.5">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -10442,7 +9890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" ht="16.5" spans="1:9">
+    <row r="212" spans="1:9" ht="16.5">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -10465,7 +9913,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" ht="16.5" spans="1:9">
+    <row r="213" spans="1:9" ht="16.5">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -10488,7 +9936,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" ht="16.5" spans="1:9">
+    <row r="214" spans="1:9" ht="16.5">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -10511,7 +9959,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" ht="16.5" spans="1:9">
+    <row r="215" spans="1:9" ht="16.5">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -10534,7 +9982,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" ht="16.5" spans="1:9">
+    <row r="216" spans="1:9" ht="16.5">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -10557,7 +10005,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" ht="16.5" spans="1:9">
+    <row r="217" spans="1:9" ht="16.5">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -10580,7 +10028,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" ht="16.5" spans="1:9">
+    <row r="218" spans="1:9" ht="16.5">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10603,7 +10051,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" ht="16.5" spans="1:9">
+    <row r="219" spans="1:9" ht="16.5">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10626,7 +10074,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="1:9">
+    <row r="220" spans="1:9" ht="16.5">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10649,7 +10097,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="1:9">
+    <row r="221" spans="1:9" ht="16.5">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10672,7 +10120,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="1:9">
+    <row r="222" spans="1:9" ht="16.5">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10695,7 +10143,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="1:9">
+    <row r="223" spans="1:9" ht="16.5">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10718,7 +10166,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="1:9">
+    <row r="224" spans="1:9" ht="16.5">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10741,7 +10189,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="1:9">
+    <row r="225" spans="1:9" ht="16.5">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10764,7 +10212,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" ht="16.5" spans="1:7">
+    <row r="226" spans="1:9" ht="16.5">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10787,7 +10235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" ht="16.5" spans="1:7">
+    <row r="227" spans="1:9" ht="16.5">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10810,7 +10258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" ht="16.5" spans="1:7">
+    <row r="228" spans="1:9" ht="16.5">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10833,7 +10281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" ht="16.5" spans="1:7">
+    <row r="229" spans="1:9" ht="16.5">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10856,7 +10304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" ht="16.5" spans="1:7">
+    <row r="230" spans="1:9" ht="16.5">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10879,7 +10327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" ht="16.5" spans="1:7">
+    <row r="231" spans="1:9" ht="16.5">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10902,7 +10350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" ht="16.5" spans="1:7">
+    <row r="232" spans="1:9" ht="16.5">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10925,7 +10373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" ht="16.5" spans="1:7">
+    <row r="233" spans="1:9" ht="16.5">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10948,7 +10396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" ht="16.5" spans="1:7">
+    <row r="234" spans="1:9" ht="16.5">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -10971,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" ht="16.5" spans="1:9">
+    <row r="235" spans="1:9" ht="16.5">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -10997,7 +10445,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" ht="16.5" spans="1:9">
+    <row r="236" spans="1:9" ht="16.5">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -11023,7 +10471,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" ht="16.5" spans="1:9">
+    <row r="237" spans="1:9" ht="16.5">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -11049,7 +10497,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" ht="16.5" spans="1:9">
+    <row r="238" spans="1:9" ht="16.5">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -11075,7 +10523,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" ht="16.5" spans="1:9">
+    <row r="239" spans="1:9" ht="16.5">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -11101,7 +10549,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" ht="16.5" spans="1:9">
+    <row r="240" spans="1:9" ht="16.5">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -11127,7 +10575,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" ht="16.5" spans="1:9">
+    <row r="241" spans="1:9" ht="16.5">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -11153,7 +10601,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" ht="16.5" spans="1:9">
+    <row r="242" spans="1:9" ht="16.5">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -11179,7 +10627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" ht="16.5" spans="1:9">
+    <row r="243" spans="1:9" ht="16.5">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -11205,7 +10653,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" ht="16.5" spans="1:9">
+    <row r="244" spans="1:9" ht="16.5">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -11231,7 +10679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" ht="16.5" spans="1:9">
+    <row r="245" spans="1:9" ht="16.5">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -11257,7 +10705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" ht="16.5" spans="1:9">
+    <row r="246" spans="1:9" ht="16.5">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -11283,7 +10731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" ht="16.5" spans="1:9">
+    <row r="247" spans="1:9" ht="16.5">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -11309,7 +10757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" ht="16.5" spans="1:9">
+    <row r="248" spans="1:9" ht="16.5">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -11335,7 +10783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" ht="16.5" spans="1:9">
+    <row r="249" spans="1:9" ht="16.5">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -11361,7 +10809,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" ht="16.5" spans="1:9">
+    <row r="250" spans="1:9" ht="16.5">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -11387,7 +10835,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" ht="16.5" spans="1:9">
+    <row r="251" spans="1:9" ht="16.5">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -11413,7 +10861,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" ht="16.5" spans="1:9">
+    <row r="252" spans="1:9" ht="16.5">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -11439,7 +10887,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" ht="16.5" spans="1:9">
+    <row r="253" spans="1:9" ht="16.5">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -11466,7 +10914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" ht="16.5" spans="1:9">
+    <row r="254" spans="1:9" ht="16.5">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -11492,7 +10940,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" ht="16.5" spans="1:9">
+    <row r="255" spans="1:9" ht="16.5">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -11518,7 +10966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
+    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -11545,7 +10993,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -11571,7 +11019,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -11597,7 +11045,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -11623,7 +11071,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -11649,7 +11097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" ht="16.5" spans="1:9">
+    <row r="261" spans="1:9" ht="16.5">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11675,7 +11123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" ht="16.5" spans="1:9">
+    <row r="262" spans="1:9" ht="16.5">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -11701,7 +11149,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -11727,7 +11175,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -11753,7 +11201,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -11779,7 +11227,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -11805,7 +11253,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -11831,7 +11279,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
+    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
       <c r="A268" s="24">
         <v>267</v>
       </c>
@@ -11857,7 +11305,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -11883,7 +11331,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -11909,7 +11357,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -11935,7 +11383,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -11961,7 +11409,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -11987,7 +11435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -12013,7 +11461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -12039,7 +11487,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -12062,7 +11510,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -12088,7 +11536,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" ht="16.5" spans="1:9">
+    <row r="278" spans="1:9" ht="16.5">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -12114,7 +11562,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" ht="16.5" spans="1:9">
+    <row r="279" spans="1:9" ht="16.5">
       <c r="A279" s="15">
         <v>278</v>
       </c>
@@ -12137,7 +11585,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" ht="16.5" spans="1:9">
+    <row r="280" spans="1:9" ht="16.5">
       <c r="A280" s="15">
         <v>279</v>
       </c>
@@ -12163,7 +11611,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" ht="16.5" spans="1:9">
+    <row r="281" spans="1:9" ht="16.5">
       <c r="A281" s="15">
         <v>280</v>
       </c>
@@ -12189,7 +11637,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" ht="16.5" spans="1:9">
+    <row r="282" spans="1:9" ht="16.5">
       <c r="A282" s="15">
         <v>281</v>
       </c>
@@ -12215,7 +11663,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" ht="16.5" spans="1:9">
+    <row r="283" spans="1:9" ht="16.5">
       <c r="A283" s="15">
         <v>282</v>
       </c>
@@ -12241,7 +11689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A284" s="15">
         <v>283</v>
       </c>
@@ -12267,7 +11715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -12293,7 +11741,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -12319,7 +11767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
+    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -12345,7 +11793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -12371,7 +11819,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="289" ht="16.5" spans="1:9">
+    <row r="289" spans="1:36" ht="16.5">
       <c r="A289" s="15">
         <v>288</v>
       </c>
@@ -12397,7 +11845,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -12423,7 +11871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -12449,7 +11897,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" ht="16.5" spans="1:9">
+    <row r="292" spans="1:36" ht="16.5">
       <c r="A292" s="15">
         <v>291</v>
       </c>
@@ -12475,7 +11923,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" ht="16.5" spans="1:9">
+    <row r="293" spans="1:36" ht="16.5">
       <c r="A293" s="15">
         <v>292</v>
       </c>
@@ -12501,7 +11949,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" ht="16.5" spans="1:9">
+    <row r="294" spans="1:36" ht="16.5">
       <c r="A294" s="15">
         <v>293</v>
       </c>
@@ -12528,7 +11976,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A295" s="15">
         <v>294</v>
       </c>
@@ -12582,7 +12030,7 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A296" s="15">
         <v>295</v>
       </c>
@@ -12636,7 +12084,7 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
+    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
       <c r="A297" s="15">
         <v>296</v>
       </c>
@@ -12690,7 +12138,7 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" ht="16.5" spans="1:36">
+    <row r="298" spans="1:36" ht="16.5">
       <c r="A298" s="15">
         <v>297</v>
       </c>
@@ -12744,7 +12192,7 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
+    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
       <c r="A299" s="15">
         <v>298</v>
       </c>
@@ -12798,7 +12246,7 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" ht="16.5" spans="1:9">
+    <row r="300" spans="1:36" ht="16.5">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12825,7 +12273,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12852,7 +12300,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" ht="16.5" spans="1:9">
+    <row r="302" spans="1:36" ht="16.5">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12879,7 +12327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" ht="16.5" spans="1:9">
+    <row r="303" spans="1:36" ht="16.5">
       <c r="A303" s="15">
         <v>302</v>
       </c>
@@ -12906,7 +12354,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="304" ht="16.5" spans="1:9">
+    <row r="304" spans="1:36" ht="16.5">
       <c r="A304" s="15">
         <v>303</v>
       </c>
@@ -12933,7 +12381,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A305" s="15">
         <v>304</v>
       </c>
@@ -12959,7 +12407,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A306" s="15">
         <v>305</v>
       </c>
@@ -12985,7 +12433,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" ht="16.5" spans="1:7">
+    <row r="307" spans="1:9" ht="16.5">
       <c r="A307" s="15">
         <v>306</v>
       </c>
@@ -13008,7 +12456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -13034,7 +12482,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A309" s="15">
         <v>308</v>
       </c>
@@ -13060,7 +12508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -13086,7 +12534,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -13112,7 +12560,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -13135,7 +12583,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A313" s="15">
         <v>312</v>
       </c>
@@ -13158,7 +12606,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A314" s="15">
         <v>313</v>
       </c>
@@ -13181,7 +12629,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A315" s="15">
         <v>314</v>
       </c>
@@ -13204,7 +12652,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A316" s="15">
         <v>315</v>
       </c>
@@ -13227,7 +12675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
       <c r="A317" s="15">
         <v>316</v>
       </c>
@@ -13253,7 +12701,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A318" s="15">
         <v>317</v>
       </c>
@@ -13277,7 +12725,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A319" s="15">
         <v>318</v>
       </c>
@@ -13303,7 +12751,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A320" s="15">
         <v>319</v>
       </c>
@@ -13326,7 +12774,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A321" s="15">
         <v>320</v>
       </c>
@@ -13355,7 +12803,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A322" s="15">
         <v>321</v>
       </c>
@@ -13381,7 +12829,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
       <c r="A323" s="15">
         <v>322</v>
       </c>
@@ -13407,7 +12855,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" ht="16.5" spans="1:9">
+    <row r="324" spans="1:9" ht="16.5">
       <c r="A324" s="15">
         <v>323</v>
       </c>
@@ -13433,7 +12881,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" ht="16.5" spans="1:9">
+    <row r="325" spans="1:9" ht="16.5">
       <c r="A325" s="15">
         <v>324</v>
       </c>
@@ -13459,7 +12907,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" ht="16.5" spans="1:9">
+    <row r="326" spans="1:9" ht="16.5">
       <c r="A326" s="15">
         <v>325</v>
       </c>
@@ -13485,7 +12933,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
+    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
       <c r="A327" s="15">
         <v>326</v>
       </c>
@@ -13511,7 +12959,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" ht="16.5" spans="1:9">
+    <row r="328" spans="1:9" ht="16.5">
       <c r="A328" s="15">
         <v>327</v>
       </c>
@@ -13537,7 +12985,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="329" ht="16.5" spans="1:9">
+    <row r="329" spans="1:9" ht="16.5">
       <c r="A329" s="15">
         <v>328</v>
       </c>
@@ -13563,7 +13011,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="330" ht="16.5" spans="1:9">
+    <row r="330" spans="1:9" ht="16.5">
       <c r="A330" s="15">
         <v>329</v>
       </c>
@@ -13586,7 +13034,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="331" ht="16.5" spans="1:9">
+    <row r="331" spans="1:9" ht="16.5">
       <c r="A331" s="15">
         <v>330</v>
       </c>
@@ -13612,7 +13060,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="332" ht="16.5" spans="1:9">
+    <row r="332" spans="1:9" ht="16.5">
       <c r="A332" s="15">
         <v>331</v>
       </c>
@@ -13638,7 +13086,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="333" ht="16.5" spans="1:9">
+    <row r="333" spans="1:9" ht="16.5">
       <c r="A333" s="15">
         <v>332</v>
       </c>
@@ -13661,66 +13109,86 @@
         <v>972</v>
       </c>
     </row>
-    <row r="334" ht="15.75" spans="1:9">
-      <c r="A334" s="5">
-        <v>333</v>
-      </c>
-      <c r="B334" s="52" t="s">
+    <row r="334" spans="1:9" ht="16.5">
+      <c r="A334" s="15">
+        <v>332</v>
+      </c>
+      <c r="B334" s="51" t="s">
+        <v>980</v>
+      </c>
+      <c r="C334" s="54" t="s">
+        <v>981</v>
+      </c>
+      <c r="D334" s="55" t="s">
+        <v>982</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334">
+        <v>1</v>
+      </c>
+      <c r="G334">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="15.75">
+      <c r="A335" s="5">
+        <v>334</v>
+      </c>
+      <c r="B335" s="52" t="s">
         <v>975</v>
       </c>
-      <c r="C334" t="s">
+      <c r="C335" t="s">
         <v>976</v>
       </c>
-      <c r="D334" s="52" t="s">
+      <c r="D335" s="52" t="s">
         <v>977</v>
       </c>
-      <c r="E334" s="5">
-        <v>1</v>
-      </c>
-      <c r="F334" s="5">
-        <v>1</v>
-      </c>
-      <c r="G334" s="5">
-        <v>1</v>
-      </c>
-      <c r="I334" s="31" t="s">
+      <c r="E335" s="5">
+        <v>1</v>
+      </c>
+      <c r="F335" s="5">
+        <v>1</v>
+      </c>
+      <c r="G335" s="5">
+        <v>1</v>
+      </c>
+      <c r="I335" s="31" t="s">
         <v>978</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H334">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H335"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_5.11/game_module_config_cjj.xlsx
+++ b/config_5.11/game_module_config_cjj.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_5.11\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -511,7 +506,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -529,7 +524,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -547,7 +542,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -565,7 +560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1283,7 +1278,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1378,7 +1373,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1416,7 +1411,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1451,7 +1446,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1469,7 +1464,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1495,7 +1490,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1530,7 +1525,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1565,7 +1560,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1668,7 +1663,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1703,7 +1698,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1738,7 +1733,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1773,7 +1768,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1808,7 +1803,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1843,7 +1838,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1878,7 +1873,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2007,7 +2002,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2033,7 +2028,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3779,6 +3774,15 @@
     <t>通用转盘皮肤</t>
   </si>
   <si>
+    <t>act_cjj_by_byam_guide</t>
+  </si>
+  <si>
+    <t>冲金鸡引导到捕鱼奥秘</t>
+  </si>
+  <si>
+    <t>ActCJJBYBYAMManager</t>
+  </si>
+  <si>
     <t>act_054_byns</t>
   </si>
   <si>
@@ -3798,24 +3802,18 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
-  <si>
-    <t>act_cjj_by_byam_guide</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲金鸡引导到捕鱼奥秘</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActCJJBYBYAMManager</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3839,7 +3837,7 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3857,12 +3855,12 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3874,13 +3872,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3892,13 +3890,157 @@
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF171A1D"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3906,37 +4048,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF171A1D"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="12">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3945,13 +4058,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39988402966399123"/>
+        <fgColor theme="4" tint="0.399884029663991"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3975,13 +4088,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79989013336588644"/>
+        <fgColor theme="4" tint="0.799890133365886"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3993,18 +4106,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39988402966399123"/>
+        <fgColor theme="9" tint="0.399884029663991"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4027,15 +4314,257 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4072,13 +4601,13 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4198,26 +4727,67 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4475,19 +5045,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AJ335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D314" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I339" sqref="I339"/>
+      <selection pane="bottomRight" activeCell="E340" sqref="E340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4503,7 +5074,7 @@
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1">
+    <row r="1" ht="78" customHeight="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -4532,7 +5103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="2" ht="17.1" customHeight="1" spans="1:9">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -4558,7 +5129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" ht="16.5" spans="1:9">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -4584,7 +5155,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -4610,7 +5181,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -4636,7 +5207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
+    <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -4662,7 +5233,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
+    <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -4688,7 +5259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
+    <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -4714,7 +5285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
+    <row r="9" ht="16.5" spans="1:9">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -4740,7 +5311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
+    <row r="10" ht="16.5" spans="1:9">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -4766,7 +5337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
+    <row r="11" ht="16.5" spans="1:9">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -4792,7 +5363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
+    <row r="12" ht="16.5" spans="1:9">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -4818,7 +5389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" ht="16.5" spans="1:9">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -4844,7 +5415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" ht="16.5" spans="1:9">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -4870,7 +5441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
+    <row r="15" ht="16.5" spans="1:9">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -4896,7 +5467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
+    <row r="16" ht="16.5" spans="1:9">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -4922,7 +5493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
+    <row r="17" ht="16.5" spans="1:9">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -4948,7 +5519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16.5">
+    <row r="18" ht="16.5" spans="1:9">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -4974,7 +5545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
+    <row r="19" ht="16.5" spans="1:9">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -5000,7 +5571,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="16.5">
+    <row r="20" ht="16.5" spans="1:9">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -5026,7 +5597,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="16.5">
+    <row r="21" ht="16.5" spans="1:9">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -5052,7 +5623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="16.5">
+    <row r="22" ht="16.5" spans="1:9">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -5078,7 +5649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="16.5">
+    <row r="23" ht="16.5" spans="1:9">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -5104,7 +5675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="16.5">
+    <row r="24" ht="16.5" spans="1:9">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -5130,7 +5701,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="16.5">
+    <row r="25" ht="16.5" spans="1:9">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -5156,7 +5727,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="16.5">
+    <row r="26" ht="16.5" spans="1:9">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -5182,7 +5753,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16.5">
+    <row r="27" ht="16.5" spans="1:9">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -5208,7 +5779,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16.5">
+    <row r="28" ht="16.5" spans="1:9">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -5234,7 +5805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5">
+    <row r="29" ht="16.5" spans="1:9">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -5260,7 +5831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="16.5">
+    <row r="30" ht="16.5" spans="1:9">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -5286,7 +5857,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="16.5">
+    <row r="31" ht="16.5" spans="1:9">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -5312,7 +5883,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="16.5">
+    <row r="32" ht="16.5" spans="1:9">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -5338,7 +5909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16.5">
+    <row r="33" ht="16.5" spans="1:9">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -5364,7 +5935,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16.5">
+    <row r="34" ht="16.5" spans="1:9">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -5390,7 +5961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16.5">
+    <row r="35" ht="16.5" spans="1:9">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -5416,7 +5987,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16.5">
+    <row r="36" ht="16.5" spans="1:9">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -5442,7 +6013,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16.5">
+    <row r="37" ht="16.5" spans="1:9">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -5468,7 +6039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16.5">
+    <row r="38" ht="16.5" spans="1:9">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -5494,7 +6065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16.5">
+    <row r="39" ht="16.5" spans="1:9">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -5520,7 +6091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16.5">
+    <row r="40" ht="16.5" spans="1:9">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -5546,7 +6117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16.5">
+    <row r="41" ht="16.5" spans="1:9">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -5572,7 +6143,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16.5">
+    <row r="42" ht="16.5" spans="1:9">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -5598,7 +6169,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16.5">
+    <row r="43" ht="16.5" spans="1:9">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -5624,7 +6195,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16.5">
+    <row r="44" ht="16.5" spans="1:9">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -5650,7 +6221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16.5">
+    <row r="45" ht="16.5" spans="1:9">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -5676,7 +6247,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16.5">
+    <row r="46" ht="16.5" spans="1:9">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -5702,7 +6273,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16.5">
+    <row r="47" ht="16.5" spans="1:9">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -5728,7 +6299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16.5">
+    <row r="48" ht="16.5" spans="1:9">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -5754,7 +6325,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="16.5">
+    <row r="49" ht="16.5" spans="1:9">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -5780,7 +6351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="16.5">
+    <row r="50" ht="16.5" spans="1:9">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -5806,7 +6377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16.5">
+    <row r="51" ht="16.5" spans="1:9">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -5832,7 +6403,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="16.5">
+    <row r="52" ht="16.5" spans="1:9">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -5856,7 +6427,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1">
+    <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -5882,7 +6453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="16.5">
+    <row r="54" ht="16.5" spans="1:9">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -5908,7 +6479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="16.5">
+    <row r="55" ht="16.5" spans="1:9">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -5934,7 +6505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="16.5">
+    <row r="56" ht="16.5" spans="1:9">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -5960,7 +6531,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="16.5">
+    <row r="57" ht="16.5" spans="1:9">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -5986,7 +6557,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="16.5">
+    <row r="58" ht="16.5" spans="1:9">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -6012,7 +6583,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="16.5">
+    <row r="59" ht="16.5" spans="1:9">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -6038,7 +6609,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="16.5">
+    <row r="60" ht="16.5" spans="1:9">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -6064,7 +6635,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="16.5">
+    <row r="61" ht="16.5" spans="1:9">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -6090,7 +6661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="16.5">
+    <row r="62" ht="16.5" spans="1:9">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -6116,7 +6687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="16.5">
+    <row r="63" ht="16.5" spans="1:9">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -6142,7 +6713,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="16.5">
+    <row r="64" ht="16.5" spans="1:9">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -6168,7 +6739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="16.5">
+    <row r="65" ht="16.5" spans="1:9">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -6194,7 +6765,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="16.5">
+    <row r="66" ht="16.5" spans="1:9">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -6220,7 +6791,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="16.5">
+    <row r="67" ht="16.5" spans="1:9">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -6246,7 +6817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="16.5">
+    <row r="68" ht="16.5" spans="1:9">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -6272,7 +6843,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="16.5">
+    <row r="69" ht="16.5" spans="1:9">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -6298,7 +6869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="16.5">
+    <row r="70" ht="16.5" spans="1:9">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -6324,7 +6895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="16.5">
+    <row r="71" ht="16.5" spans="1:9">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -6350,7 +6921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="16.5">
+    <row r="72" ht="16.5" spans="1:9">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -6376,7 +6947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="16.5">
+    <row r="73" ht="16.5" spans="1:9">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -6402,7 +6973,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" ht="16.5">
+    <row r="74" s="2" customFormat="1" ht="16.5" spans="1:9">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -6428,7 +6999,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="16.5">
+    <row r="75" ht="16.5" spans="1:9">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -6454,7 +7025,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="3" customFormat="1" ht="16.5">
+    <row r="76" s="3" customFormat="1" ht="16.5" spans="1:9">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -6480,7 +7051,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="16.5">
+    <row r="77" ht="16.5" spans="1:9">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -6506,7 +7077,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="16.5">
+    <row r="78" ht="16.5" spans="1:9">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -6532,7 +7103,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="16.5">
+    <row r="79" ht="16.5" spans="1:9">
       <c r="A79" s="15">
         <v>78</v>
       </c>
@@ -6558,7 +7129,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="16.5">
+    <row r="80" ht="16.5" spans="1:9">
       <c r="A80" s="15">
         <v>79</v>
       </c>
@@ -6584,7 +7155,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="16.5">
+    <row r="81" ht="16.5" spans="1:9">
       <c r="A81" s="15">
         <v>80</v>
       </c>
@@ -6610,7 +7181,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="16.5">
+    <row r="82" ht="16.5" spans="1:9">
       <c r="A82" s="15">
         <v>81</v>
       </c>
@@ -6636,7 +7207,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="16.5">
+    <row r="83" ht="16.5" spans="1:9">
       <c r="A83" s="15">
         <v>82</v>
       </c>
@@ -6662,7 +7233,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="16.5">
+    <row r="84" ht="16.5" spans="1:9">
       <c r="A84" s="15">
         <v>83</v>
       </c>
@@ -6688,7 +7259,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="16.5">
+    <row r="85" ht="16.5" spans="1:9">
       <c r="A85" s="15">
         <v>84</v>
       </c>
@@ -6714,7 +7285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="16.5">
+    <row r="86" ht="16.5" spans="1:9">
       <c r="A86" s="15">
         <v>85</v>
       </c>
@@ -6740,7 +7311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="16.5">
+    <row r="87" ht="16.5" spans="1:9">
       <c r="A87" s="15">
         <v>86</v>
       </c>
@@ -6766,7 +7337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="16.5">
+    <row r="88" ht="16.5" spans="1:9">
       <c r="A88" s="15">
         <v>87</v>
       </c>
@@ -6792,7 +7363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="16.5">
+    <row r="89" ht="16.5" spans="1:9">
       <c r="A89" s="15">
         <v>88</v>
       </c>
@@ -6818,7 +7389,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="16.5">
+    <row r="90" ht="16.5" spans="1:9">
       <c r="A90" s="15">
         <v>89</v>
       </c>
@@ -6844,7 +7415,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="16.5">
+    <row r="91" ht="16.5" spans="1:9">
       <c r="A91" s="15">
         <v>90</v>
       </c>
@@ -6870,7 +7441,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="16.5">
+    <row r="92" ht="16.5" spans="1:9">
       <c r="A92" s="15">
         <v>91</v>
       </c>
@@ -6896,7 +7467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="16.5">
+    <row r="93" ht="16.5" spans="1:9">
       <c r="A93" s="15">
         <v>92</v>
       </c>
@@ -6922,7 +7493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="16.5">
+    <row r="94" ht="16.5" spans="1:9">
       <c r="A94" s="15">
         <v>93</v>
       </c>
@@ -6948,7 +7519,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.5">
+    <row r="95" ht="16.5" spans="1:9">
       <c r="A95" s="15">
         <v>94</v>
       </c>
@@ -6974,7 +7545,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="16.5">
+    <row r="96" ht="16.5" spans="1:9">
       <c r="A96" s="15">
         <v>95</v>
       </c>
@@ -7000,7 +7571,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="16.5">
+    <row r="97" ht="16.5" spans="1:9">
       <c r="A97" s="15">
         <v>96</v>
       </c>
@@ -7026,7 +7597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="16.5">
+    <row r="98" ht="16.5" spans="1:9">
       <c r="A98" s="15">
         <v>97</v>
       </c>
@@ -7052,7 +7623,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="16.5">
+    <row r="99" ht="16.5" spans="1:9">
       <c r="A99" s="15">
         <v>98</v>
       </c>
@@ -7078,7 +7649,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="16.5">
+    <row r="100" ht="16.5" spans="1:9">
       <c r="A100" s="15">
         <v>99</v>
       </c>
@@ -7104,7 +7675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="16.5">
+    <row r="101" ht="16.5" spans="1:9">
       <c r="A101" s="15">
         <v>100</v>
       </c>
@@ -7130,7 +7701,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="16.5">
+    <row r="102" ht="16.5" spans="1:9">
       <c r="A102" s="15">
         <v>101</v>
       </c>
@@ -7156,7 +7727,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="16.5">
+    <row r="103" ht="16.5" spans="1:9">
       <c r="A103" s="15">
         <v>102</v>
       </c>
@@ -7182,7 +7753,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="16.5">
+    <row r="104" ht="16.5" spans="1:9">
       <c r="A104" s="15">
         <v>103</v>
       </c>
@@ -7208,7 +7779,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="16.5">
+    <row r="105" ht="16.5" spans="1:9">
       <c r="A105" s="15">
         <v>104</v>
       </c>
@@ -7234,7 +7805,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="16.5">
+    <row r="106" ht="16.5" spans="1:9">
       <c r="A106" s="15">
         <v>105</v>
       </c>
@@ -7260,7 +7831,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="16.5">
+    <row r="107" ht="16.5" spans="1:9">
       <c r="A107" s="15">
         <v>106</v>
       </c>
@@ -7286,7 +7857,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="16.5">
+    <row r="108" ht="16.5" spans="1:9">
       <c r="A108" s="15">
         <v>107</v>
       </c>
@@ -7312,7 +7883,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="16.5">
+    <row r="109" ht="16.5" spans="1:9">
       <c r="A109" s="15">
         <v>108</v>
       </c>
@@ -7338,7 +7909,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="16.5">
+    <row r="110" ht="16.5" spans="1:9">
       <c r="A110" s="15">
         <v>109</v>
       </c>
@@ -7364,7 +7935,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="16.5">
+    <row r="111" ht="16.5" spans="1:9">
       <c r="A111" s="15">
         <v>110</v>
       </c>
@@ -7390,7 +7961,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="16.5">
+    <row r="112" ht="16.5" spans="1:9">
       <c r="A112" s="15">
         <v>111</v>
       </c>
@@ -7416,7 +7987,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="16.5">
+    <row r="113" ht="16.5" spans="1:9">
       <c r="A113" s="15">
         <v>112</v>
       </c>
@@ -7442,7 +8013,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="16.5">
+    <row r="114" ht="16.5" spans="1:9">
       <c r="A114" s="15">
         <v>113</v>
       </c>
@@ -7468,7 +8039,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="16.5">
+    <row r="115" ht="16.5" spans="1:9">
       <c r="A115" s="15">
         <v>114</v>
       </c>
@@ -7494,7 +8065,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="16.5">
+    <row r="116" ht="16.5" spans="1:9">
       <c r="A116" s="15">
         <v>115</v>
       </c>
@@ -7520,7 +8091,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="16.5">
+    <row r="117" ht="16.5" spans="1:9">
       <c r="A117" s="15">
         <v>116</v>
       </c>
@@ -7546,7 +8117,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="16.5">
+    <row r="118" ht="16.5" spans="1:9">
       <c r="A118" s="15">
         <v>117</v>
       </c>
@@ -7572,7 +8143,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="119" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A119" s="24">
         <v>118</v>
       </c>
@@ -7598,7 +8169,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="16.5">
+    <row r="120" ht="16.5" spans="1:9">
       <c r="A120" s="15">
         <v>119</v>
       </c>
@@ -7624,7 +8195,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="16.5">
+    <row r="121" ht="16.5" spans="1:9">
       <c r="A121" s="15">
         <v>120</v>
       </c>
@@ -7650,7 +8221,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="16.5">
+    <row r="122" ht="16.5" spans="1:9">
       <c r="A122" s="15">
         <v>121</v>
       </c>
@@ -7676,7 +8247,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="16.5">
+    <row r="123" ht="16.5" spans="1:9">
       <c r="A123" s="15">
         <v>122</v>
       </c>
@@ -7702,7 +8273,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="16.5">
+    <row r="124" ht="16.5" spans="1:9">
       <c r="A124" s="15">
         <v>123</v>
       </c>
@@ -7728,7 +8299,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="16.5">
+    <row r="125" ht="16.5" spans="1:9">
       <c r="A125" s="15">
         <v>124</v>
       </c>
@@ -7754,7 +8325,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="16.5">
+    <row r="126" ht="16.5" spans="1:9">
       <c r="A126" s="15">
         <v>125</v>
       </c>
@@ -7780,7 +8351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="16.5">
+    <row r="127" ht="16.5" spans="1:9">
       <c r="A127" s="15">
         <v>126</v>
       </c>
@@ -7806,7 +8377,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="16.5">
+    <row r="128" ht="16.5" spans="1:9">
       <c r="A128" s="15">
         <v>127</v>
       </c>
@@ -7832,7 +8403,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="16.5">
+    <row r="129" ht="16.5" spans="1:9">
       <c r="A129" s="15">
         <v>128</v>
       </c>
@@ -7858,7 +8429,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="16.5">
+    <row r="130" ht="16.5" spans="1:9">
       <c r="A130" s="15">
         <v>129</v>
       </c>
@@ -7884,7 +8455,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="16.5">
+    <row r="131" ht="16.5" spans="1:9">
       <c r="A131" s="15">
         <v>130</v>
       </c>
@@ -7910,7 +8481,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="16.5">
+    <row r="132" ht="16.5" spans="1:9">
       <c r="A132" s="15">
         <v>131</v>
       </c>
@@ -7936,7 +8507,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="16.5">
+    <row r="133" ht="16.5" spans="1:9">
       <c r="A133" s="15">
         <v>132</v>
       </c>
@@ -7962,7 +8533,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="16.5">
+    <row r="134" ht="16.5" spans="1:9">
       <c r="A134" s="15">
         <v>133</v>
       </c>
@@ -7988,7 +8559,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="16.5">
+    <row r="135" ht="16.5" spans="1:9">
       <c r="A135" s="15">
         <v>134</v>
       </c>
@@ -8014,7 +8585,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="16.5">
+    <row r="136" ht="16.5" spans="1:9">
       <c r="A136" s="15">
         <v>135</v>
       </c>
@@ -8040,7 +8611,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="16.5">
+    <row r="137" ht="16.5" spans="1:9">
       <c r="A137" s="15">
         <v>136</v>
       </c>
@@ -8066,7 +8637,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="16.5">
+    <row r="138" ht="16.5" spans="1:9">
       <c r="A138" s="15">
         <v>137</v>
       </c>
@@ -8092,7 +8663,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="16.5">
+    <row r="139" ht="16.5" spans="1:9">
       <c r="A139" s="15">
         <v>138</v>
       </c>
@@ -8118,7 +8689,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="16.5">
+    <row r="140" ht="16.5" spans="1:9">
       <c r="A140" s="15">
         <v>139</v>
       </c>
@@ -8144,7 +8715,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="16.5">
+    <row r="141" ht="16.5" spans="1:9">
       <c r="A141" s="15">
         <v>140</v>
       </c>
@@ -8170,7 +8741,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="16.5">
+    <row r="142" ht="16.5" spans="1:9">
       <c r="A142" s="15">
         <v>141</v>
       </c>
@@ -8196,7 +8767,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="16.5">
+    <row r="143" ht="16.5" spans="1:9">
       <c r="A143" s="15">
         <v>142</v>
       </c>
@@ -8222,7 +8793,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="16.5">
+    <row r="144" ht="16.5" spans="1:9">
       <c r="A144" s="15">
         <v>143</v>
       </c>
@@ -8248,7 +8819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="16.5">
+    <row r="145" ht="16.5" spans="1:9">
       <c r="A145" s="15">
         <v>144</v>
       </c>
@@ -8274,7 +8845,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="16.5">
+    <row r="146" ht="16.5" spans="1:9">
       <c r="A146" s="15">
         <v>145</v>
       </c>
@@ -8300,7 +8871,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="16.5">
+    <row r="147" ht="16.5" spans="1:9">
       <c r="A147" s="15">
         <v>146</v>
       </c>
@@ -8326,7 +8897,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="16.5">
+    <row r="148" ht="16.5" spans="1:9">
       <c r="A148" s="15">
         <v>147</v>
       </c>
@@ -8352,7 +8923,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="16.5">
+    <row r="149" ht="16.5" spans="1:9">
       <c r="A149" s="15">
         <v>148</v>
       </c>
@@ -8378,7 +8949,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="16.5">
+    <row r="150" ht="16.5" spans="1:9">
       <c r="A150" s="15">
         <v>149</v>
       </c>
@@ -8404,7 +8975,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="16.5">
+    <row r="151" ht="16.5" spans="1:9">
       <c r="A151" s="15">
         <v>150</v>
       </c>
@@ -8430,7 +9001,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="16.5">
+    <row r="152" ht="16.5" spans="1:9">
       <c r="A152" s="15">
         <v>151</v>
       </c>
@@ -8456,7 +9027,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="16.5">
+    <row r="153" ht="16.5" spans="1:9">
       <c r="A153" s="15">
         <v>152</v>
       </c>
@@ -8482,7 +9053,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="16.5">
+    <row r="154" ht="16.5" spans="1:9">
       <c r="A154" s="15">
         <v>153</v>
       </c>
@@ -8508,7 +9079,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="16.5">
+    <row r="155" ht="16.5" spans="1:9">
       <c r="A155" s="15">
         <v>154</v>
       </c>
@@ -8534,7 +9105,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="16.5">
+    <row r="156" ht="16.5" spans="1:9">
       <c r="A156" s="15">
         <v>155</v>
       </c>
@@ -8560,7 +9131,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="16.5">
+    <row r="157" ht="16.5" spans="1:9">
       <c r="A157" s="15">
         <v>156</v>
       </c>
@@ -8586,7 +9157,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="16.5">
+    <row r="158" ht="16.5" spans="1:9">
       <c r="A158" s="15">
         <v>157</v>
       </c>
@@ -8612,7 +9183,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="16.5">
+    <row r="159" ht="16.5" spans="1:9">
       <c r="A159" s="15">
         <v>158</v>
       </c>
@@ -8638,7 +9209,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="16.5">
+    <row r="160" ht="16.5" spans="1:9">
       <c r="A160" s="15">
         <v>159</v>
       </c>
@@ -8664,7 +9235,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="16.5">
+    <row r="161" ht="16.5" spans="1:9">
       <c r="A161" s="15">
         <v>160</v>
       </c>
@@ -8690,7 +9261,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="16.5">
+    <row r="162" ht="16.5" spans="1:9">
       <c r="A162" s="15">
         <v>161</v>
       </c>
@@ -8716,7 +9287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="16.5">
+    <row r="163" ht="16.5" spans="1:9">
       <c r="A163" s="15">
         <v>162</v>
       </c>
@@ -8742,7 +9313,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="16.5">
+    <row r="164" ht="16.5" spans="1:9">
       <c r="A164" s="15">
         <v>163</v>
       </c>
@@ -8768,7 +9339,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="16.5">
+    <row r="165" ht="16.5" spans="1:9">
       <c r="A165" s="15">
         <v>164</v>
       </c>
@@ -8794,7 +9365,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="16.5">
+    <row r="166" ht="16.5" spans="1:9">
       <c r="A166" s="15">
         <v>165</v>
       </c>
@@ -8820,7 +9391,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="16.5">
+    <row r="167" ht="16.5" spans="1:9">
       <c r="A167" s="15">
         <v>166</v>
       </c>
@@ -8846,7 +9417,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="16.5">
+    <row r="168" ht="16.5" spans="1:9">
       <c r="A168" s="15">
         <v>167</v>
       </c>
@@ -8872,7 +9443,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="16.5">
+    <row r="169" ht="16.5" spans="1:9">
       <c r="A169" s="15">
         <v>168</v>
       </c>
@@ -8896,7 +9467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="16.5">
+    <row r="170" ht="16.5" spans="1:9">
       <c r="A170" s="15">
         <v>169</v>
       </c>
@@ -8920,7 +9491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="16.5">
+    <row r="171" ht="16.5" spans="1:9">
       <c r="A171" s="15">
         <v>170</v>
       </c>
@@ -8944,7 +9515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="16.5">
+    <row r="172" ht="16.5" spans="1:9">
       <c r="A172" s="15">
         <v>171</v>
       </c>
@@ -8968,7 +9539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="16.5">
+    <row r="173" ht="16.5" spans="1:9">
       <c r="A173" s="15">
         <v>172</v>
       </c>
@@ -8994,7 +9565,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="16.5">
+    <row r="174" ht="16.5" spans="1:9">
       <c r="A174" s="15">
         <v>173</v>
       </c>
@@ -9018,7 +9589,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="16.5">
+    <row r="175" ht="16.5" spans="1:9">
       <c r="A175" s="15">
         <v>174</v>
       </c>
@@ -9042,7 +9613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="16.5">
+    <row r="176" ht="16.5" spans="1:9">
       <c r="A176" s="15">
         <v>175</v>
       </c>
@@ -9066,7 +9637,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="16.5">
+    <row r="177" ht="16.5" spans="1:9">
       <c r="A177" s="15">
         <v>176</v>
       </c>
@@ -9092,7 +9663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="16.5">
+    <row r="178" ht="16.5" spans="1:9">
       <c r="A178" s="15">
         <v>177</v>
       </c>
@@ -9118,7 +9689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="16.5">
+    <row r="179" ht="16.5" spans="1:9">
       <c r="A179" s="15">
         <v>178</v>
       </c>
@@ -9142,7 +9713,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="180" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A180" s="15">
         <v>179</v>
       </c>
@@ -9166,7 +9737,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="181" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A181" s="15">
         <v>180</v>
       </c>
@@ -9190,7 +9761,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="182" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A182" s="15">
         <v>181</v>
       </c>
@@ -9214,7 +9785,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="16.5">
+    <row r="183" ht="16.5" spans="1:9">
       <c r="A183" s="15">
         <v>182</v>
       </c>
@@ -9237,7 +9808,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="16.5">
+    <row r="184" ht="16.5" spans="1:9">
       <c r="A184" s="15">
         <v>183</v>
       </c>
@@ -9260,7 +9831,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="16.5">
+    <row r="185" ht="16.5" spans="1:9">
       <c r="A185" s="15">
         <v>184</v>
       </c>
@@ -9283,7 +9854,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="16.5">
+    <row r="186" ht="16.5" spans="1:9">
       <c r="A186" s="15">
         <v>185</v>
       </c>
@@ -9306,7 +9877,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="16.5">
+    <row r="187" ht="16.5" spans="1:9">
       <c r="A187" s="15">
         <v>186</v>
       </c>
@@ -9329,7 +9900,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="16.5">
+    <row r="188" ht="16.5" spans="1:9">
       <c r="A188" s="15">
         <v>187</v>
       </c>
@@ -9352,7 +9923,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="16.5">
+    <row r="189" ht="16.5" spans="1:9">
       <c r="A189" s="15">
         <v>188</v>
       </c>
@@ -9375,7 +9946,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="16.5">
+    <row r="190" ht="16.5" spans="1:9">
       <c r="A190" s="15">
         <v>189</v>
       </c>
@@ -9398,7 +9969,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="16.5">
+    <row r="191" ht="16.5" spans="1:9">
       <c r="A191" s="15">
         <v>190</v>
       </c>
@@ -9421,7 +9992,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="16.5">
+    <row r="192" ht="16.5" spans="1:9">
       <c r="A192" s="15">
         <v>191</v>
       </c>
@@ -9444,7 +10015,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="16.5">
+    <row r="193" ht="16.5" spans="1:9">
       <c r="A193" s="15">
         <v>192</v>
       </c>
@@ -9467,7 +10038,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="16.5">
+    <row r="194" ht="16.5" spans="1:9">
       <c r="A194" s="15">
         <v>193</v>
       </c>
@@ -9490,7 +10061,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="16.5">
+    <row r="195" ht="16.5" spans="1:9">
       <c r="A195" s="15">
         <v>194</v>
       </c>
@@ -9513,7 +10084,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="16.5">
+    <row r="196" ht="16.5" spans="1:9">
       <c r="A196" s="15">
         <v>195</v>
       </c>
@@ -9536,7 +10107,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="16.5">
+    <row r="197" ht="16.5" spans="1:9">
       <c r="A197" s="15">
         <v>196</v>
       </c>
@@ -9559,7 +10130,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="16.5">
+    <row r="198" ht="16.5" spans="1:9">
       <c r="A198" s="15">
         <v>197</v>
       </c>
@@ -9582,7 +10153,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="16.5">
+    <row r="199" ht="16.5" spans="1:9">
       <c r="A199" s="15">
         <v>198</v>
       </c>
@@ -9605,7 +10176,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="16.5">
+    <row r="200" ht="16.5" spans="1:9">
       <c r="A200" s="15">
         <v>199</v>
       </c>
@@ -9628,7 +10199,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="16.5">
+    <row r="201" ht="16.5" spans="1:9">
       <c r="A201" s="15">
         <v>200</v>
       </c>
@@ -9651,7 +10222,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="16.5">
+    <row r="202" ht="16.5" spans="1:9">
       <c r="A202" s="15">
         <v>201</v>
       </c>
@@ -9674,7 +10245,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="16.5">
+    <row r="203" ht="16.5" spans="1:9">
       <c r="A203" s="15">
         <v>202</v>
       </c>
@@ -9697,7 +10268,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="16.5">
+    <row r="204" ht="16.5" spans="1:9">
       <c r="A204" s="15">
         <v>203</v>
       </c>
@@ -9723,7 +10294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="16.5">
+    <row r="205" ht="16.5" spans="1:9">
       <c r="A205" s="15">
         <v>204</v>
       </c>
@@ -9749,7 +10320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="16.5">
+    <row r="206" ht="16.5" spans="1:9">
       <c r="A206" s="15">
         <v>205</v>
       </c>
@@ -9775,7 +10346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="16.5">
+    <row r="207" ht="16.5" spans="1:9">
       <c r="A207" s="15">
         <v>206</v>
       </c>
@@ -9798,7 +10369,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="16.5">
+    <row r="208" ht="16.5" spans="1:9">
       <c r="A208" s="15">
         <v>207</v>
       </c>
@@ -9821,7 +10392,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="16.5">
+    <row r="209" ht="16.5" spans="1:9">
       <c r="A209" s="15">
         <v>208</v>
       </c>
@@ -9844,7 +10415,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="16.5">
+    <row r="210" ht="16.5" spans="1:9">
       <c r="A210" s="15">
         <v>209</v>
       </c>
@@ -9867,7 +10438,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="16.5">
+    <row r="211" ht="16.5" spans="1:9">
       <c r="A211" s="15">
         <v>210</v>
       </c>
@@ -9890,7 +10461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="16.5">
+    <row r="212" ht="16.5" spans="1:9">
       <c r="A212" s="15">
         <v>211</v>
       </c>
@@ -9913,7 +10484,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="16.5">
+    <row r="213" ht="16.5" spans="1:9">
       <c r="A213" s="15">
         <v>212</v>
       </c>
@@ -9936,7 +10507,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="16.5">
+    <row r="214" ht="16.5" spans="1:9">
       <c r="A214" s="15">
         <v>213</v>
       </c>
@@ -9959,7 +10530,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="16.5">
+    <row r="215" ht="16.5" spans="1:9">
       <c r="A215" s="15">
         <v>214</v>
       </c>
@@ -9982,7 +10553,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="16.5">
+    <row r="216" ht="16.5" spans="1:9">
       <c r="A216" s="15">
         <v>215</v>
       </c>
@@ -10005,7 +10576,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="16.5">
+    <row r="217" ht="16.5" spans="1:9">
       <c r="A217" s="15">
         <v>216</v>
       </c>
@@ -10028,7 +10599,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="16.5">
+    <row r="218" ht="16.5" spans="1:9">
       <c r="A218" s="15">
         <v>217</v>
       </c>
@@ -10051,7 +10622,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="16.5">
+    <row r="219" ht="16.5" spans="1:9">
       <c r="A219" s="15">
         <v>218</v>
       </c>
@@ -10074,7 +10645,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="16.5">
+    <row r="220" ht="16.5" spans="1:9">
       <c r="A220" s="15">
         <v>219</v>
       </c>
@@ -10097,7 +10668,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="16.5">
+    <row r="221" ht="16.5" spans="1:9">
       <c r="A221" s="15">
         <v>220</v>
       </c>
@@ -10120,7 +10691,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="16.5">
+    <row r="222" ht="16.5" spans="1:9">
       <c r="A222" s="15">
         <v>221</v>
       </c>
@@ -10143,7 +10714,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="16.5">
+    <row r="223" ht="16.5" spans="1:9">
       <c r="A223" s="15">
         <v>222</v>
       </c>
@@ -10166,7 +10737,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="16.5">
+    <row r="224" ht="16.5" spans="1:9">
       <c r="A224" s="15">
         <v>223</v>
       </c>
@@ -10189,7 +10760,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="16.5">
+    <row r="225" ht="16.5" spans="1:9">
       <c r="A225" s="15">
         <v>224</v>
       </c>
@@ -10212,7 +10783,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="16.5">
+    <row r="226" ht="16.5" spans="1:7">
       <c r="A226" s="15">
         <v>225</v>
       </c>
@@ -10235,7 +10806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="16.5">
+    <row r="227" ht="16.5" spans="1:7">
       <c r="A227" s="15">
         <v>226</v>
       </c>
@@ -10258,7 +10829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="16.5">
+    <row r="228" ht="16.5" spans="1:7">
       <c r="A228" s="15">
         <v>227</v>
       </c>
@@ -10281,7 +10852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="16.5">
+    <row r="229" ht="16.5" spans="1:7">
       <c r="A229" s="15">
         <v>228</v>
       </c>
@@ -10304,7 +10875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="16.5">
+    <row r="230" ht="16.5" spans="1:7">
       <c r="A230" s="15">
         <v>229</v>
       </c>
@@ -10327,7 +10898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="16.5">
+    <row r="231" ht="16.5" spans="1:7">
       <c r="A231" s="15">
         <v>230</v>
       </c>
@@ -10350,7 +10921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="16.5">
+    <row r="232" ht="16.5" spans="1:7">
       <c r="A232" s="15">
         <v>231</v>
       </c>
@@ -10373,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="16.5">
+    <row r="233" ht="16.5" spans="1:7">
       <c r="A233" s="15">
         <v>232</v>
       </c>
@@ -10396,7 +10967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="16.5">
+    <row r="234" ht="16.5" spans="1:7">
       <c r="A234" s="15">
         <v>233</v>
       </c>
@@ -10419,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="16.5">
+    <row r="235" ht="16.5" spans="1:9">
       <c r="A235" s="15">
         <v>234</v>
       </c>
@@ -10445,7 +11016,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="16.5">
+    <row r="236" ht="16.5" spans="1:9">
       <c r="A236" s="15">
         <v>235</v>
       </c>
@@ -10471,7 +11042,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="16.5">
+    <row r="237" ht="16.5" spans="1:9">
       <c r="A237" s="15">
         <v>236</v>
       </c>
@@ -10497,7 +11068,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="16.5">
+    <row r="238" ht="16.5" spans="1:9">
       <c r="A238" s="15">
         <v>237</v>
       </c>
@@ -10523,7 +11094,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="16.5">
+    <row r="239" ht="16.5" spans="1:9">
       <c r="A239" s="15">
         <v>238</v>
       </c>
@@ -10549,7 +11120,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="16.5">
+    <row r="240" ht="16.5" spans="1:9">
       <c r="A240" s="15">
         <v>239</v>
       </c>
@@ -10575,7 +11146,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="16.5">
+    <row r="241" ht="16.5" spans="1:9">
       <c r="A241" s="15">
         <v>240</v>
       </c>
@@ -10601,7 +11172,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="16.5">
+    <row r="242" ht="16.5" spans="1:9">
       <c r="A242" s="15">
         <v>241</v>
       </c>
@@ -10627,7 +11198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="16.5">
+    <row r="243" ht="16.5" spans="1:9">
       <c r="A243" s="15">
         <v>242</v>
       </c>
@@ -10653,7 +11224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="16.5">
+    <row r="244" ht="16.5" spans="1:9">
       <c r="A244" s="15">
         <v>243</v>
       </c>
@@ -10679,7 +11250,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="16.5">
+    <row r="245" ht="16.5" spans="1:9">
       <c r="A245" s="15">
         <v>244</v>
       </c>
@@ -10705,7 +11276,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="16.5">
+    <row r="246" ht="16.5" spans="1:9">
       <c r="A246" s="15">
         <v>245</v>
       </c>
@@ -10731,7 +11302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="16.5">
+    <row r="247" ht="16.5" spans="1:9">
       <c r="A247" s="15">
         <v>246</v>
       </c>
@@ -10757,7 +11328,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="16.5">
+    <row r="248" ht="16.5" spans="1:9">
       <c r="A248" s="15">
         <v>247</v>
       </c>
@@ -10783,7 +11354,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="16.5">
+    <row r="249" ht="16.5" spans="1:9">
       <c r="A249" s="15">
         <v>248</v>
       </c>
@@ -10809,7 +11380,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="16.5">
+    <row r="250" ht="16.5" spans="1:9">
       <c r="A250" s="15">
         <v>249</v>
       </c>
@@ -10835,7 +11406,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="16.5">
+    <row r="251" ht="16.5" spans="1:9">
       <c r="A251" s="15">
         <v>250</v>
       </c>
@@ -10861,7 +11432,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="16.5">
+    <row r="252" ht="16.5" spans="1:9">
       <c r="A252" s="15">
         <v>251</v>
       </c>
@@ -10887,7 +11458,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="16.5">
+    <row r="253" ht="16.5" spans="1:9">
       <c r="A253" s="15">
         <v>252</v>
       </c>
@@ -10914,7 +11485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="16.5">
+    <row r="254" ht="16.5" spans="1:9">
       <c r="A254" s="15">
         <v>253</v>
       </c>
@@ -10940,7 +11511,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="16.5">
+    <row r="255" ht="16.5" spans="1:9">
       <c r="A255" s="15">
         <v>254</v>
       </c>
@@ -10966,7 +11537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="3" customFormat="1" ht="16.5">
+    <row r="256" s="3" customFormat="1" ht="16.5" spans="1:9">
       <c r="A256" s="15">
         <v>255</v>
       </c>
@@ -10993,7 +11564,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="257" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A257" s="15">
         <v>256</v>
       </c>
@@ -11019,7 +11590,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="258" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A258" s="15">
         <v>257</v>
       </c>
@@ -11045,7 +11616,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="259" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A259" s="15">
         <v>258</v>
       </c>
@@ -11071,7 +11642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="260" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A260" s="15">
         <v>259</v>
       </c>
@@ -11097,7 +11668,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="16.5">
+    <row r="261" ht="16.5" spans="1:9">
       <c r="A261" s="15">
         <v>260</v>
       </c>
@@ -11123,7 +11694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="16.5">
+    <row r="262" ht="16.5" spans="1:9">
       <c r="A262" s="15">
         <v>261</v>
       </c>
@@ -11149,7 +11720,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="263" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A263" s="15">
         <v>262</v>
       </c>
@@ -11175,7 +11746,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="264" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A264" s="15">
         <v>263</v>
       </c>
@@ -11201,7 +11772,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="265" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A265" s="15">
         <v>264</v>
       </c>
@@ -11227,7 +11798,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="266" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A266" s="15">
         <v>265</v>
       </c>
@@ -11253,7 +11824,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="267" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A267" s="15">
         <v>266</v>
       </c>
@@ -11279,7 +11850,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="4" customFormat="1" ht="16.5">
+    <row r="268" s="4" customFormat="1" ht="16.5" spans="1:9">
       <c r="A268" s="24">
         <v>267</v>
       </c>
@@ -11305,7 +11876,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="269" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A269" s="15">
         <v>268</v>
       </c>
@@ -11331,7 +11902,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="270" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A270" s="15">
         <v>269</v>
       </c>
@@ -11357,7 +11928,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="271" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A271" s="15">
         <v>270</v>
       </c>
@@ -11383,7 +11954,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="272" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="272" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A272" s="15">
         <v>271</v>
       </c>
@@ -11409,7 +11980,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="273" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A273" s="15">
         <v>272</v>
       </c>
@@ -11435,7 +12006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="274" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="274" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A274" s="15">
         <v>273</v>
       </c>
@@ -11461,7 +12032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="275" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A275" s="15">
         <v>274</v>
       </c>
@@ -11487,7 +12058,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="276" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -11510,7 +12081,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="277" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A277" s="15">
         <v>276</v>
       </c>
@@ -11536,7 +12107,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="16.5">
+    <row r="278" ht="16.5" spans="1:9">
       <c r="A278" s="15">
         <v>277</v>
       </c>
@@ -11562,7 +12133,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="16.5">
+    <row r="279" ht="16.5" spans="1:9">
       <c r="A279" s="15">
         <v>278</v>
       </c>
@@ -11585,7 +12156,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="16.5">
+    <row r="280" ht="16.5" spans="1:9">
       <c r="A280" s="15">
         <v>279</v>
       </c>
@@ -11611,7 +12182,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="16.5">
+    <row r="281" ht="16.5" spans="1:9">
       <c r="A281" s="15">
         <v>280</v>
       </c>
@@ -11637,7 +12208,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="16.5">
+    <row r="282" ht="16.5" spans="1:9">
       <c r="A282" s="15">
         <v>281</v>
       </c>
@@ -11663,7 +12234,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="16.5">
+    <row r="283" ht="16.5" spans="1:9">
       <c r="A283" s="15">
         <v>282</v>
       </c>
@@ -11689,7 +12260,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="284" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A284" s="15">
         <v>283</v>
       </c>
@@ -11715,7 +12286,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="285" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A285" s="15">
         <v>284</v>
       </c>
@@ -11741,7 +12312,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="7" customFormat="1" ht="16.5">
+    <row r="286" s="7" customFormat="1" ht="16.5" spans="1:9">
       <c r="A286" s="15">
         <v>285</v>
       </c>
@@ -11767,7 +12338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="8" customFormat="1" ht="16.5">
+    <row r="287" s="8" customFormat="1" ht="16.5" spans="1:9">
       <c r="A287" s="15">
         <v>286</v>
       </c>
@@ -11793,7 +12364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="288" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -11819,7 +12390,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="289" spans="1:36" ht="16.5">
+    <row r="289" ht="16.5" spans="1:9">
       <c r="A289" s="15">
         <v>288</v>
       </c>
@@ -11845,7 +12416,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:36" s="9" customFormat="1" ht="16.5">
+    <row r="290" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A290" s="15">
         <v>289</v>
       </c>
@@ -11871,7 +12442,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:36" s="9" customFormat="1" ht="16.5">
+    <row r="291" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A291" s="15">
         <v>290</v>
       </c>
@@ -11897,7 +12468,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:36" ht="16.5">
+    <row r="292" ht="16.5" spans="1:9">
       <c r="A292" s="15">
         <v>291</v>
       </c>
@@ -11923,7 +12494,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="293" spans="1:36" ht="16.5">
+    <row r="293" ht="16.5" spans="1:9">
       <c r="A293" s="15">
         <v>292</v>
       </c>
@@ -11949,7 +12520,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="294" spans="1:36" ht="16.5">
+    <row r="294" ht="16.5" spans="1:9">
       <c r="A294" s="15">
         <v>293</v>
       </c>
@@ -11976,7 +12547,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="295" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="295" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A295" s="15">
         <v>294</v>
       </c>
@@ -12030,7 +12601,7 @@
       <c r="AI295" s="5"/>
       <c r="AJ295" s="5"/>
     </row>
-    <row r="296" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="296" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A296" s="15">
         <v>295</v>
       </c>
@@ -12084,7 +12655,7 @@
       <c r="AI296" s="5"/>
       <c r="AJ296" s="5"/>
     </row>
-    <row r="297" spans="1:36" s="10" customFormat="1" ht="16.5">
+    <row r="297" s="10" customFormat="1" ht="16.5" spans="1:36">
       <c r="A297" s="15">
         <v>296</v>
       </c>
@@ -12138,7 +12709,7 @@
       <c r="AI297" s="5"/>
       <c r="AJ297" s="5"/>
     </row>
-    <row r="298" spans="1:36" ht="16.5">
+    <row r="298" ht="16.5" spans="1:36">
       <c r="A298" s="15">
         <v>297</v>
       </c>
@@ -12192,7 +12763,7 @@
       <c r="AI298" s="5"/>
       <c r="AJ298" s="5"/>
     </row>
-    <row r="299" spans="1:36" s="11" customFormat="1" ht="16.5">
+    <row r="299" s="11" customFormat="1" ht="16.5" spans="1:36">
       <c r="A299" s="15">
         <v>298</v>
       </c>
@@ -12246,7 +12817,7 @@
       <c r="AI299" s="5"/>
       <c r="AJ299" s="5"/>
     </row>
-    <row r="300" spans="1:36" ht="16.5">
+    <row r="300" ht="16.5" spans="1:9">
       <c r="A300" s="15">
         <v>299</v>
       </c>
@@ -12273,7 +12844,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="301" spans="1:36" s="5" customFormat="1" ht="16.5">
+    <row r="301" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A301" s="15">
         <v>300</v>
       </c>
@@ -12300,7 +12871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="302" spans="1:36" ht="16.5">
+    <row r="302" ht="16.5" spans="1:9">
       <c r="A302" s="15">
         <v>301</v>
       </c>
@@ -12327,7 +12898,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="303" spans="1:36" ht="16.5">
+    <row r="303" ht="16.5" spans="1:9">
       <c r="A303" s="15">
         <v>302</v>
       </c>
@@ -12354,7 +12925,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="304" spans="1:36" ht="16.5">
+    <row r="304" ht="16.5" spans="1:9">
       <c r="A304" s="15">
         <v>303</v>
       </c>
@@ -12381,7 +12952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="305" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A305" s="15">
         <v>304</v>
       </c>
@@ -12407,7 +12978,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="306" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A306" s="15">
         <v>305</v>
       </c>
@@ -12433,7 +13004,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="16.5">
+    <row r="307" ht="16.5" spans="1:7">
       <c r="A307" s="15">
         <v>306</v>
       </c>
@@ -12456,7 +13027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="308" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A308" s="15">
         <v>307</v>
       </c>
@@ -12482,7 +13053,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="309" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A309" s="15">
         <v>308</v>
       </c>
@@ -12508,7 +13079,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="310" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A310" s="15">
         <v>309</v>
       </c>
@@ -12534,7 +13105,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="311" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A311" s="15">
         <v>310</v>
       </c>
@@ -12560,7 +13131,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="312" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="312" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A312" s="15">
         <v>311</v>
       </c>
@@ -12583,7 +13154,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="313" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A313" s="15">
         <v>312</v>
       </c>
@@ -12606,7 +13177,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="314" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A314" s="15">
         <v>313</v>
       </c>
@@ -12629,7 +13200,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="315" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A315" s="15">
         <v>314</v>
       </c>
@@ -12652,7 +13223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="316" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="316" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A316" s="15">
         <v>315</v>
       </c>
@@ -12675,7 +13246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="6" customFormat="1" ht="16.5">
+    <row r="317" s="6" customFormat="1" ht="16.5" spans="1:9">
       <c r="A317" s="15">
         <v>316</v>
       </c>
@@ -12701,7 +13272,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="318" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="318" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A318" s="15">
         <v>317</v>
       </c>
@@ -12725,7 +13296,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="319" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="319" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A319" s="15">
         <v>318</v>
       </c>
@@ -12751,7 +13322,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="320" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="320" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A320" s="15">
         <v>319</v>
       </c>
@@ -12774,7 +13345,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="321" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A321" s="15">
         <v>320</v>
       </c>
@@ -12803,7 +13374,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="322" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="322" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A322" s="15">
         <v>321</v>
       </c>
@@ -12829,7 +13400,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="323" spans="1:9" s="5" customFormat="1" ht="16.5">
+    <row r="323" s="5" customFormat="1" ht="16.5" spans="1:9">
       <c r="A323" s="15">
         <v>322</v>
       </c>
@@ -12855,7 +13426,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="16.5">
+    <row r="324" ht="16.5" spans="1:9">
       <c r="A324" s="15">
         <v>323</v>
       </c>
@@ -12881,7 +13452,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="16.5">
+    <row r="325" ht="16.5" spans="1:9">
       <c r="A325" s="15">
         <v>324</v>
       </c>
@@ -12907,7 +13478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="16.5">
+    <row r="326" ht="16.5" spans="1:9">
       <c r="A326" s="15">
         <v>325</v>
       </c>
@@ -12933,7 +13504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="9" customFormat="1" ht="16.5">
+    <row r="327" s="9" customFormat="1" ht="16.5" spans="1:9">
       <c r="A327" s="15">
         <v>326</v>
       </c>
@@ -12959,7 +13530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="16.5">
+    <row r="328" ht="16.5" spans="1:9">
       <c r="A328" s="15">
         <v>327</v>
       </c>
@@ -12985,7 +13556,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="16.5">
+    <row r="329" ht="16.5" spans="1:9">
       <c r="A329" s="15">
         <v>328</v>
       </c>
@@ -13011,7 +13582,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="16.5">
+    <row r="330" ht="16.5" spans="1:9">
       <c r="A330" s="15">
         <v>329</v>
       </c>
@@ -13034,7 +13605,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="16.5">
+    <row r="331" ht="16.5" spans="1:9">
       <c r="A331" s="15">
         <v>330</v>
       </c>
@@ -13060,7 +13631,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="16.5">
+    <row r="332" ht="16.5" spans="1:9">
       <c r="A332" s="15">
         <v>331</v>
       </c>
@@ -13086,7 +13657,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="16.5">
+    <row r="333" ht="16.5" spans="1:9">
       <c r="A333" s="15">
         <v>332</v>
       </c>
@@ -13109,18 +13680,18 @@
         <v>972</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="16.5">
+    <row r="334" ht="16.5" spans="1:7">
       <c r="A334" s="15">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B334" s="51" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C334" s="54" t="s">
-        <v>981</v>
-      </c>
-      <c r="D334" s="55" t="s">
-        <v>982</v>
+        <v>976</v>
+      </c>
+      <c r="D334" s="18" t="s">
+        <v>977</v>
       </c>
       <c r="E334">
         <v>1</v>
@@ -13132,18 +13703,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="15.75">
+    <row r="335" ht="15.75" spans="1:9">
       <c r="A335" s="5">
         <v>334</v>
       </c>
       <c r="B335" s="52" t="s">
-        <v>975</v>
+        <v>978</v>
       </c>
       <c r="C335" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
       <c r="D335" s="52" t="s">
-        <v>977</v>
+        <v>980</v>
       </c>
       <c r="E335" s="5">
         <v>1</v>
@@ -13155,40 +13726,43 @@
         <v>1</v>
       </c>
       <c r="I335" s="31" t="s">
-        <v>978</v>
+        <v>981</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H335"/>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <autoFilter ref="A1:H335">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1">
+    <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
+        <v>982</v>
+      </c>
+    </row>
+    <row r="2" ht="51.75" customHeight="1"/>
+    <row r="3" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>